--- a/louisiana/transformations/templates/calibrated/louisiana/model_input_variables_louisiana_ce_calibrated.xlsx
+++ b/louisiana/transformations/templates/calibrated/louisiana/model_input_variables_louisiana_ce_calibrated.xlsx
@@ -14154,6 +14154,9 @@
       <c r="B107" t="s">
         <v>117</v>
       </c>
+      <c r="C107">
+        <v>67</v>
+      </c>
       <c r="H107">
         <v>1</v>
       </c>
@@ -14276,6 +14279,9 @@
       <c r="B108" t="s">
         <v>118</v>
       </c>
+      <c r="C108">
+        <v>67</v>
+      </c>
       <c r="H108">
         <v>1</v>
       </c>
@@ -14398,6 +14404,9 @@
       <c r="B109" t="s">
         <v>119</v>
       </c>
+      <c r="C109">
+        <v>67</v>
+      </c>
       <c r="H109">
         <v>1</v>
       </c>
@@ -14520,6 +14529,9 @@
       <c r="B110" t="s">
         <v>120</v>
       </c>
+      <c r="C110">
+        <v>67</v>
+      </c>
       <c r="H110">
         <v>1</v>
       </c>
@@ -14642,6 +14654,9 @@
       <c r="B111" t="s">
         <v>121</v>
       </c>
+      <c r="C111">
+        <v>67</v>
+      </c>
       <c r="H111">
         <v>1</v>
       </c>
@@ -14764,6 +14779,9 @@
       <c r="B112" t="s">
         <v>122</v>
       </c>
+      <c r="C112">
+        <v>67</v>
+      </c>
       <c r="H112">
         <v>1</v>
       </c>
@@ -14886,6 +14904,9 @@
       <c r="B113" t="s">
         <v>123</v>
       </c>
+      <c r="C113">
+        <v>67</v>
+      </c>
       <c r="H113">
         <v>1</v>
       </c>
@@ -15008,6 +15029,9 @@
       <c r="B114" t="s">
         <v>124</v>
       </c>
+      <c r="C114">
+        <v>67</v>
+      </c>
       <c r="H114">
         <v>1</v>
       </c>
@@ -15130,6 +15154,9 @@
       <c r="B115" t="s">
         <v>125</v>
       </c>
+      <c r="C115">
+        <v>67</v>
+      </c>
       <c r="H115">
         <v>1</v>
       </c>
@@ -15252,6 +15279,9 @@
       <c r="B116" t="s">
         <v>126</v>
       </c>
+      <c r="C116">
+        <v>67</v>
+      </c>
       <c r="H116">
         <v>1</v>
       </c>
@@ -15374,6 +15404,9 @@
       <c r="B117" t="s">
         <v>127</v>
       </c>
+      <c r="C117">
+        <v>67</v>
+      </c>
       <c r="H117">
         <v>1</v>
       </c>
@@ -15496,6 +15529,9 @@
       <c r="B118" t="s">
         <v>128</v>
       </c>
+      <c r="C118">
+        <v>67</v>
+      </c>
       <c r="H118">
         <v>1</v>
       </c>
@@ -15618,6 +15654,9 @@
       <c r="B119" t="s">
         <v>129</v>
       </c>
+      <c r="C119">
+        <v>67</v>
+      </c>
       <c r="H119">
         <v>1</v>
       </c>
@@ -15740,6 +15779,9 @@
       <c r="B120" t="s">
         <v>130</v>
       </c>
+      <c r="C120">
+        <v>68</v>
+      </c>
       <c r="H120">
         <v>1</v>
       </c>
@@ -15862,6 +15904,9 @@
       <c r="B121" t="s">
         <v>131</v>
       </c>
+      <c r="C121">
+        <v>68</v>
+      </c>
       <c r="H121">
         <v>1</v>
       </c>
@@ -15984,6 +16029,9 @@
       <c r="B122" t="s">
         <v>132</v>
       </c>
+      <c r="C122">
+        <v>68</v>
+      </c>
       <c r="H122">
         <v>1</v>
       </c>
@@ -16106,6 +16154,9 @@
       <c r="B123" t="s">
         <v>133</v>
       </c>
+      <c r="C123">
+        <v>68</v>
+      </c>
       <c r="H123">
         <v>1</v>
       </c>
@@ -16228,6 +16279,9 @@
       <c r="B124" t="s">
         <v>134</v>
       </c>
+      <c r="C124">
+        <v>68</v>
+      </c>
       <c r="H124">
         <v>1</v>
       </c>
@@ -16350,6 +16404,9 @@
       <c r="B125" t="s">
         <v>135</v>
       </c>
+      <c r="C125">
+        <v>68</v>
+      </c>
       <c r="H125">
         <v>1</v>
       </c>
@@ -16472,6 +16529,9 @@
       <c r="B126" t="s">
         <v>136</v>
       </c>
+      <c r="C126">
+        <v>68</v>
+      </c>
       <c r="H126">
         <v>1</v>
       </c>
@@ -16594,6 +16654,9 @@
       <c r="B127" t="s">
         <v>137</v>
       </c>
+      <c r="C127">
+        <v>68</v>
+      </c>
       <c r="H127">
         <v>1</v>
       </c>
@@ -16716,6 +16779,9 @@
       <c r="B128" t="s">
         <v>138</v>
       </c>
+      <c r="C128">
+        <v>68</v>
+      </c>
       <c r="H128">
         <v>1</v>
       </c>
@@ -16838,6 +16904,9 @@
       <c r="B129" t="s">
         <v>139</v>
       </c>
+      <c r="C129">
+        <v>68</v>
+      </c>
       <c r="H129">
         <v>1</v>
       </c>
@@ -16960,6 +17029,9 @@
       <c r="B130" t="s">
         <v>140</v>
       </c>
+      <c r="C130">
+        <v>68</v>
+      </c>
       <c r="H130">
         <v>1</v>
       </c>
@@ -17082,6 +17154,9 @@
       <c r="B131" t="s">
         <v>141</v>
       </c>
+      <c r="C131">
+        <v>68</v>
+      </c>
       <c r="H131">
         <v>1</v>
       </c>
@@ -17203,6 +17278,9 @@
       </c>
       <c r="B132" t="s">
         <v>142</v>
+      </c>
+      <c r="C132">
+        <v>68</v>
       </c>
       <c r="H132">
         <v>1</v>

--- a/louisiana/transformations/templates/calibrated/louisiana/model_input_variables_louisiana_ce_calibrated.xlsx
+++ b/louisiana/transformations/templates/calibrated/louisiana/model_input_variables_louisiana_ce_calibrated.xlsx
@@ -10,13 +10,15 @@
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
     <sheet name="strategy_id-6004" sheetId="2" r:id="rId2"/>
     <sheet name="strategy_id-6005" sheetId="3" r:id="rId3"/>
+    <sheet name="strategy_id-6006" sheetId="4" r:id="rId4"/>
+    <sheet name="strategy_id-6007" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="273">
   <si>
     <t>subsector</t>
   </si>
@@ -34130,4 +34132,5292 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AS21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2">
+        <v>44</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0.02</v>
+      </c>
+      <c r="K2">
+        <v>0.02</v>
+      </c>
+      <c r="L2">
+        <v>0.02</v>
+      </c>
+      <c r="M2">
+        <v>0.02</v>
+      </c>
+      <c r="N2">
+        <v>0.02</v>
+      </c>
+      <c r="O2">
+        <v>0.02</v>
+      </c>
+      <c r="P2">
+        <v>0.02</v>
+      </c>
+      <c r="Q2">
+        <v>0.02</v>
+      </c>
+      <c r="R2">
+        <v>0.02</v>
+      </c>
+      <c r="S2">
+        <v>0.02</v>
+      </c>
+      <c r="T2">
+        <v>0.02</v>
+      </c>
+      <c r="U2">
+        <v>0.02</v>
+      </c>
+      <c r="V2">
+        <v>0.02</v>
+      </c>
+      <c r="W2">
+        <v>0.03978260869565217</v>
+      </c>
+      <c r="X2">
+        <v>0.05956521739130435</v>
+      </c>
+      <c r="Y2">
+        <v>0.07934782608695652</v>
+      </c>
+      <c r="Z2">
+        <v>0.09913043478260869</v>
+      </c>
+      <c r="AA2">
+        <v>0.1189130434782609</v>
+      </c>
+      <c r="AB2">
+        <v>0.138695652173913</v>
+      </c>
+      <c r="AC2">
+        <v>0.1584782608695652</v>
+      </c>
+      <c r="AD2">
+        <v>0.1782608695652174</v>
+      </c>
+      <c r="AE2">
+        <v>0.1980434782608696</v>
+      </c>
+      <c r="AF2">
+        <v>0.2178260869565217</v>
+      </c>
+      <c r="AG2">
+        <v>0.2376086956521739</v>
+      </c>
+      <c r="AH2">
+        <v>0.2573913043478261</v>
+      </c>
+      <c r="AI2">
+        <v>0.2771739130434782</v>
+      </c>
+      <c r="AJ2">
+        <v>0.2969565217391305</v>
+      </c>
+      <c r="AK2">
+        <v>0.3167391304347826</v>
+      </c>
+      <c r="AL2">
+        <v>0.3365217391304348</v>
+      </c>
+      <c r="AM2">
+        <v>0.3563043478260869</v>
+      </c>
+      <c r="AN2">
+        <v>0.3760869565217391</v>
+      </c>
+      <c r="AO2">
+        <v>0.3958695652173913</v>
+      </c>
+      <c r="AP2">
+        <v>0.4156521739130434</v>
+      </c>
+      <c r="AQ2">
+        <v>0.4354347826086956</v>
+      </c>
+      <c r="AR2">
+        <v>0.4552173913043478</v>
+      </c>
+      <c r="AS2">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3">
+        <v>44</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.4</v>
+      </c>
+      <c r="K3">
+        <v>0.4</v>
+      </c>
+      <c r="L3">
+        <v>0.4</v>
+      </c>
+      <c r="M3">
+        <v>0.4</v>
+      </c>
+      <c r="N3">
+        <v>0.4</v>
+      </c>
+      <c r="O3">
+        <v>0.4</v>
+      </c>
+      <c r="P3">
+        <v>0.4</v>
+      </c>
+      <c r="Q3">
+        <v>0.4</v>
+      </c>
+      <c r="R3">
+        <v>0.4</v>
+      </c>
+      <c r="S3">
+        <v>0.4</v>
+      </c>
+      <c r="T3">
+        <v>0.4</v>
+      </c>
+      <c r="U3">
+        <v>0.4</v>
+      </c>
+      <c r="V3">
+        <v>0.4</v>
+      </c>
+      <c r="W3">
+        <v>0.4032608695652174</v>
+      </c>
+      <c r="X3">
+        <v>0.4065217391304348</v>
+      </c>
+      <c r="Y3">
+        <v>0.4097826086956521</v>
+      </c>
+      <c r="Z3">
+        <v>0.4130434782608696</v>
+      </c>
+      <c r="AA3">
+        <v>0.4163043478260869</v>
+      </c>
+      <c r="AB3">
+        <v>0.4195652173913044</v>
+      </c>
+      <c r="AC3">
+        <v>0.4228260869565217</v>
+      </c>
+      <c r="AD3">
+        <v>0.4260869565217391</v>
+      </c>
+      <c r="AE3">
+        <v>0.4293478260869565</v>
+      </c>
+      <c r="AF3">
+        <v>0.4326086956521739</v>
+      </c>
+      <c r="AG3">
+        <v>0.4358695652173913</v>
+      </c>
+      <c r="AH3">
+        <v>0.4391304347826087</v>
+      </c>
+      <c r="AI3">
+        <v>0.442391304347826</v>
+      </c>
+      <c r="AJ3">
+        <v>0.4456521739130435</v>
+      </c>
+      <c r="AK3">
+        <v>0.4489130434782609</v>
+      </c>
+      <c r="AL3">
+        <v>0.4521739130434783</v>
+      </c>
+      <c r="AM3">
+        <v>0.4554347826086956</v>
+      </c>
+      <c r="AN3">
+        <v>0.4586956521739131</v>
+      </c>
+      <c r="AO3">
+        <v>0.4619565217391304</v>
+      </c>
+      <c r="AP3">
+        <v>0.4652173913043478</v>
+      </c>
+      <c r="AQ3">
+        <v>0.4684782608695652</v>
+      </c>
+      <c r="AR3">
+        <v>0.4717391304347826</v>
+      </c>
+      <c r="AS3">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4">
+        <v>44</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.02</v>
+      </c>
+      <c r="K4">
+        <v>0.02</v>
+      </c>
+      <c r="L4">
+        <v>0.02</v>
+      </c>
+      <c r="M4">
+        <v>0.02</v>
+      </c>
+      <c r="N4">
+        <v>0.02</v>
+      </c>
+      <c r="O4">
+        <v>0.02</v>
+      </c>
+      <c r="P4">
+        <v>0.02</v>
+      </c>
+      <c r="Q4">
+        <v>0.02</v>
+      </c>
+      <c r="R4">
+        <v>0.02</v>
+      </c>
+      <c r="S4">
+        <v>0.02</v>
+      </c>
+      <c r="T4">
+        <v>0.02</v>
+      </c>
+      <c r="U4">
+        <v>0.02</v>
+      </c>
+      <c r="V4">
+        <v>0.02</v>
+      </c>
+      <c r="W4">
+        <v>0.03978260869565217</v>
+      </c>
+      <c r="X4">
+        <v>0.05956521739130435</v>
+      </c>
+      <c r="Y4">
+        <v>0.07934782608695652</v>
+      </c>
+      <c r="Z4">
+        <v>0.09913043478260869</v>
+      </c>
+      <c r="AA4">
+        <v>0.1189130434782609</v>
+      </c>
+      <c r="AB4">
+        <v>0.138695652173913</v>
+      </c>
+      <c r="AC4">
+        <v>0.1584782608695652</v>
+      </c>
+      <c r="AD4">
+        <v>0.1782608695652174</v>
+      </c>
+      <c r="AE4">
+        <v>0.1980434782608696</v>
+      </c>
+      <c r="AF4">
+        <v>0.2178260869565217</v>
+      </c>
+      <c r="AG4">
+        <v>0.2376086956521739</v>
+      </c>
+      <c r="AH4">
+        <v>0.2573913043478261</v>
+      </c>
+      <c r="AI4">
+        <v>0.2771739130434782</v>
+      </c>
+      <c r="AJ4">
+        <v>0.2969565217391305</v>
+      </c>
+      <c r="AK4">
+        <v>0.3167391304347826</v>
+      </c>
+      <c r="AL4">
+        <v>0.3365217391304348</v>
+      </c>
+      <c r="AM4">
+        <v>0.3563043478260869</v>
+      </c>
+      <c r="AN4">
+        <v>0.3760869565217391</v>
+      </c>
+      <c r="AO4">
+        <v>0.3958695652173913</v>
+      </c>
+      <c r="AP4">
+        <v>0.4156521739130434</v>
+      </c>
+      <c r="AQ4">
+        <v>0.4354347826086956</v>
+      </c>
+      <c r="AR4">
+        <v>0.4552173913043478</v>
+      </c>
+      <c r="AS4">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5">
+        <v>44</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="K5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="L5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="M5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="N5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="O5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="P5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="Q5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="R5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="S5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="T5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="U5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="V5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="W5">
+        <v>0.05667223157320789</v>
+      </c>
+      <c r="X5">
+        <v>0.07568713013806208</v>
+      </c>
+      <c r="Y5">
+        <v>0.09470202870291625</v>
+      </c>
+      <c r="Z5">
+        <v>0.1137169272677704</v>
+      </c>
+      <c r="AA5">
+        <v>0.1327318258326246</v>
+      </c>
+      <c r="AB5">
+        <v>0.1517467243974788</v>
+      </c>
+      <c r="AC5">
+        <v>0.170761622962333</v>
+      </c>
+      <c r="AD5">
+        <v>0.1897765215271872</v>
+      </c>
+      <c r="AE5">
+        <v>0.2087914200920414</v>
+      </c>
+      <c r="AF5">
+        <v>0.2278063186568955</v>
+      </c>
+      <c r="AG5">
+        <v>0.2468212172217497</v>
+      </c>
+      <c r="AH5">
+        <v>0.2658361157866039</v>
+      </c>
+      <c r="AI5">
+        <v>0.2848510143514581</v>
+      </c>
+      <c r="AJ5">
+        <v>0.3038659129163123</v>
+      </c>
+      <c r="AK5">
+        <v>0.3228808114811665</v>
+      </c>
+      <c r="AL5">
+        <v>0.3418957100460207</v>
+      </c>
+      <c r="AM5">
+        <v>0.3609106086108749</v>
+      </c>
+      <c r="AN5">
+        <v>0.3799255071757291</v>
+      </c>
+      <c r="AO5">
+        <v>0.3989404057405833</v>
+      </c>
+      <c r="AP5">
+        <v>0.4179553043054374</v>
+      </c>
+      <c r="AQ5">
+        <v>0.4369702028702916</v>
+      </c>
+      <c r="AR5">
+        <v>0.4559851014351458</v>
+      </c>
+      <c r="AS5">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6">
+        <v>44</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="K6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="L6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="M6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="N6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="O6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="P6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="Q6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="R6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="S6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="T6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="U6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="V6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="W6">
+        <v>0.05667223157320789</v>
+      </c>
+      <c r="X6">
+        <v>0.07568713013806208</v>
+      </c>
+      <c r="Y6">
+        <v>0.09470202870291625</v>
+      </c>
+      <c r="Z6">
+        <v>0.1137169272677704</v>
+      </c>
+      <c r="AA6">
+        <v>0.1327318258326246</v>
+      </c>
+      <c r="AB6">
+        <v>0.1517467243974788</v>
+      </c>
+      <c r="AC6">
+        <v>0.170761622962333</v>
+      </c>
+      <c r="AD6">
+        <v>0.1897765215271872</v>
+      </c>
+      <c r="AE6">
+        <v>0.2087914200920414</v>
+      </c>
+      <c r="AF6">
+        <v>0.2278063186568955</v>
+      </c>
+      <c r="AG6">
+        <v>0.2468212172217497</v>
+      </c>
+      <c r="AH6">
+        <v>0.2658361157866039</v>
+      </c>
+      <c r="AI6">
+        <v>0.2848510143514581</v>
+      </c>
+      <c r="AJ6">
+        <v>0.3038659129163123</v>
+      </c>
+      <c r="AK6">
+        <v>0.3228808114811665</v>
+      </c>
+      <c r="AL6">
+        <v>0.3418957100460207</v>
+      </c>
+      <c r="AM6">
+        <v>0.3609106086108749</v>
+      </c>
+      <c r="AN6">
+        <v>0.3799255071757291</v>
+      </c>
+      <c r="AO6">
+        <v>0.3989404057405833</v>
+      </c>
+      <c r="AP6">
+        <v>0.4179553043054374</v>
+      </c>
+      <c r="AQ6">
+        <v>0.4369702028702916</v>
+      </c>
+      <c r="AR6">
+        <v>0.4559851014351458</v>
+      </c>
+      <c r="AS6">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7">
+        <v>44</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="K7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="L7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="M7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="N7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="O7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="P7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="Q7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="R7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="S7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="T7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="U7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="V7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="W7">
+        <v>0.05667223157320789</v>
+      </c>
+      <c r="X7">
+        <v>0.07568713013806208</v>
+      </c>
+      <c r="Y7">
+        <v>0.09470202870291625</v>
+      </c>
+      <c r="Z7">
+        <v>0.1137169272677704</v>
+      </c>
+      <c r="AA7">
+        <v>0.1327318258326246</v>
+      </c>
+      <c r="AB7">
+        <v>0.1517467243974788</v>
+      </c>
+      <c r="AC7">
+        <v>0.170761622962333</v>
+      </c>
+      <c r="AD7">
+        <v>0.1897765215271872</v>
+      </c>
+      <c r="AE7">
+        <v>0.2087914200920414</v>
+      </c>
+      <c r="AF7">
+        <v>0.2278063186568955</v>
+      </c>
+      <c r="AG7">
+        <v>0.2468212172217497</v>
+      </c>
+      <c r="AH7">
+        <v>0.2658361157866039</v>
+      </c>
+      <c r="AI7">
+        <v>0.2848510143514581</v>
+      </c>
+      <c r="AJ7">
+        <v>0.3038659129163123</v>
+      </c>
+      <c r="AK7">
+        <v>0.3228808114811665</v>
+      </c>
+      <c r="AL7">
+        <v>0.3418957100460207</v>
+      </c>
+      <c r="AM7">
+        <v>0.3609106086108749</v>
+      </c>
+      <c r="AN7">
+        <v>0.3799255071757291</v>
+      </c>
+      <c r="AO7">
+        <v>0.3989404057405833</v>
+      </c>
+      <c r="AP7">
+        <v>0.4179553043054374</v>
+      </c>
+      <c r="AQ7">
+        <v>0.4369702028702916</v>
+      </c>
+      <c r="AR7">
+        <v>0.4559851014351458</v>
+      </c>
+      <c r="AS7">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="K8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="L8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="M8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="N8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="O8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="P8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="Q8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="R8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="S8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="T8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="U8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="V8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="W8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="X8">
+        <v>0.9968985947472471</v>
+      </c>
+      <c r="Y8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="Z8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AA8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AB8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AC8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AD8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AE8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AF8">
+        <v>0.9968985947472471</v>
+      </c>
+      <c r="AG8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AH8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AI8">
+        <v>0.9968985947472471</v>
+      </c>
+      <c r="AJ8">
+        <v>0.9968985947472468</v>
+      </c>
+      <c r="AK8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AL8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AM8">
+        <v>0.9968985947472471</v>
+      </c>
+      <c r="AN8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AO8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AP8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AQ8">
+        <v>0.9968985947472471</v>
+      </c>
+      <c r="AR8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AS8">
+        <v>0.996898594747247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9">
+        <v>45</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0.03695652173913043</v>
+      </c>
+      <c r="X9">
+        <v>0.07391304347826086</v>
+      </c>
+      <c r="Y9">
+        <v>0.1108695652173913</v>
+      </c>
+      <c r="Z9">
+        <v>0.1478260869565217</v>
+      </c>
+      <c r="AA9">
+        <v>0.1847826086956522</v>
+      </c>
+      <c r="AB9">
+        <v>0.2217391304347826</v>
+      </c>
+      <c r="AC9">
+        <v>0.258695652173913</v>
+      </c>
+      <c r="AD9">
+        <v>0.2956521739130434</v>
+      </c>
+      <c r="AE9">
+        <v>0.3326086956521739</v>
+      </c>
+      <c r="AF9">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="AG9">
+        <v>0.4065217391304348</v>
+      </c>
+      <c r="AH9">
+        <v>0.4434782608695652</v>
+      </c>
+      <c r="AI9">
+        <v>0.4804347826086956</v>
+      </c>
+      <c r="AJ9">
+        <v>0.5173913043478261</v>
+      </c>
+      <c r="AK9">
+        <v>0.5543478260869565</v>
+      </c>
+      <c r="AL9">
+        <v>0.5913043478260869</v>
+      </c>
+      <c r="AM9">
+        <v>0.6282608695652173</v>
+      </c>
+      <c r="AN9">
+        <v>0.6652173913043479</v>
+      </c>
+      <c r="AO9">
+        <v>0.7021739130434782</v>
+      </c>
+      <c r="AP9">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="AQ9">
+        <v>0.7760869565217391</v>
+      </c>
+      <c r="AR9">
+        <v>0.8130434782608695</v>
+      </c>
+      <c r="AS9">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10">
+        <v>46</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.346</v>
+      </c>
+      <c r="K10">
+        <v>0.346</v>
+      </c>
+      <c r="L10">
+        <v>0.346</v>
+      </c>
+      <c r="M10">
+        <v>0.346</v>
+      </c>
+      <c r="N10">
+        <v>0.346</v>
+      </c>
+      <c r="O10">
+        <v>0.346</v>
+      </c>
+      <c r="P10">
+        <v>0.346</v>
+      </c>
+      <c r="Q10">
+        <v>0.346</v>
+      </c>
+      <c r="R10">
+        <v>0.346</v>
+      </c>
+      <c r="S10">
+        <v>0.346</v>
+      </c>
+      <c r="T10">
+        <v>0.346</v>
+      </c>
+      <c r="U10">
+        <v>0.346</v>
+      </c>
+      <c r="V10">
+        <v>0.346</v>
+      </c>
+      <c r="W10">
+        <v>0.3722608695652174</v>
+      </c>
+      <c r="X10">
+        <v>0.3985217391304348</v>
+      </c>
+      <c r="Y10">
+        <v>0.4247826086956522</v>
+      </c>
+      <c r="Z10">
+        <v>0.4510434782608695</v>
+      </c>
+      <c r="AA10">
+        <v>0.4773043478260869</v>
+      </c>
+      <c r="AB10">
+        <v>0.5035652173913043</v>
+      </c>
+      <c r="AC10">
+        <v>0.5298260869565217</v>
+      </c>
+      <c r="AD10">
+        <v>0.5560869565217391</v>
+      </c>
+      <c r="AE10">
+        <v>0.5823478260869566</v>
+      </c>
+      <c r="AF10">
+        <v>0.6086086956521739</v>
+      </c>
+      <c r="AG10">
+        <v>0.6348695652173912</v>
+      </c>
+      <c r="AH10">
+        <v>0.6611304347826087</v>
+      </c>
+      <c r="AI10">
+        <v>0.687391304347826</v>
+      </c>
+      <c r="AJ10">
+        <v>0.7136521739130435</v>
+      </c>
+      <c r="AK10">
+        <v>0.7399130434782608</v>
+      </c>
+      <c r="AL10">
+        <v>0.7661739130434783</v>
+      </c>
+      <c r="AM10">
+        <v>0.7924347826086956</v>
+      </c>
+      <c r="AN10">
+        <v>0.818695652173913</v>
+      </c>
+      <c r="AO10">
+        <v>0.8449565217391305</v>
+      </c>
+      <c r="AP10">
+        <v>0.8712173913043477</v>
+      </c>
+      <c r="AQ10">
+        <v>0.8974782608695651</v>
+      </c>
+      <c r="AR10">
+        <v>0.9237391304347826</v>
+      </c>
+      <c r="AS10">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11">
+        <v>46</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.346</v>
+      </c>
+      <c r="K11">
+        <v>0.346</v>
+      </c>
+      <c r="L11">
+        <v>0.346</v>
+      </c>
+      <c r="M11">
+        <v>0.346</v>
+      </c>
+      <c r="N11">
+        <v>0.346</v>
+      </c>
+      <c r="O11">
+        <v>0.346</v>
+      </c>
+      <c r="P11">
+        <v>0.346</v>
+      </c>
+      <c r="Q11">
+        <v>0.346</v>
+      </c>
+      <c r="R11">
+        <v>0.346</v>
+      </c>
+      <c r="S11">
+        <v>0.346</v>
+      </c>
+      <c r="T11">
+        <v>0.346</v>
+      </c>
+      <c r="U11">
+        <v>0.346</v>
+      </c>
+      <c r="V11">
+        <v>0.346</v>
+      </c>
+      <c r="W11">
+        <v>0.3722608695652174</v>
+      </c>
+      <c r="X11">
+        <v>0.3985217391304348</v>
+      </c>
+      <c r="Y11">
+        <v>0.4247826086956522</v>
+      </c>
+      <c r="Z11">
+        <v>0.4510434782608695</v>
+      </c>
+      <c r="AA11">
+        <v>0.4773043478260869</v>
+      </c>
+      <c r="AB11">
+        <v>0.5035652173913043</v>
+      </c>
+      <c r="AC11">
+        <v>0.5298260869565217</v>
+      </c>
+      <c r="AD11">
+        <v>0.5560869565217391</v>
+      </c>
+      <c r="AE11">
+        <v>0.5823478260869566</v>
+      </c>
+      <c r="AF11">
+        <v>0.6086086956521739</v>
+      </c>
+      <c r="AG11">
+        <v>0.6348695652173912</v>
+      </c>
+      <c r="AH11">
+        <v>0.6611304347826087</v>
+      </c>
+      <c r="AI11">
+        <v>0.687391304347826</v>
+      </c>
+      <c r="AJ11">
+        <v>0.7136521739130435</v>
+      </c>
+      <c r="AK11">
+        <v>0.7399130434782608</v>
+      </c>
+      <c r="AL11">
+        <v>0.7661739130434783</v>
+      </c>
+      <c r="AM11">
+        <v>0.7924347826086956</v>
+      </c>
+      <c r="AN11">
+        <v>0.818695652173913</v>
+      </c>
+      <c r="AO11">
+        <v>0.8449565217391305</v>
+      </c>
+      <c r="AP11">
+        <v>0.8712173913043477</v>
+      </c>
+      <c r="AQ11">
+        <v>0.8974782608695651</v>
+      </c>
+      <c r="AR11">
+        <v>0.9237391304347826</v>
+      </c>
+      <c r="AS11">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12">
+        <v>46</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.346</v>
+      </c>
+      <c r="K12">
+        <v>0.346</v>
+      </c>
+      <c r="L12">
+        <v>0.346</v>
+      </c>
+      <c r="M12">
+        <v>0.346</v>
+      </c>
+      <c r="N12">
+        <v>0.346</v>
+      </c>
+      <c r="O12">
+        <v>0.346</v>
+      </c>
+      <c r="P12">
+        <v>0.346</v>
+      </c>
+      <c r="Q12">
+        <v>0.346</v>
+      </c>
+      <c r="R12">
+        <v>0.346</v>
+      </c>
+      <c r="S12">
+        <v>0.346</v>
+      </c>
+      <c r="T12">
+        <v>0.346</v>
+      </c>
+      <c r="U12">
+        <v>0.346</v>
+      </c>
+      <c r="V12">
+        <v>0.346</v>
+      </c>
+      <c r="W12">
+        <v>0.3722608695652174</v>
+      </c>
+      <c r="X12">
+        <v>0.3985217391304348</v>
+      </c>
+      <c r="Y12">
+        <v>0.4247826086956522</v>
+      </c>
+      <c r="Z12">
+        <v>0.4510434782608695</v>
+      </c>
+      <c r="AA12">
+        <v>0.4773043478260869</v>
+      </c>
+      <c r="AB12">
+        <v>0.5035652173913043</v>
+      </c>
+      <c r="AC12">
+        <v>0.5298260869565217</v>
+      </c>
+      <c r="AD12">
+        <v>0.5560869565217391</v>
+      </c>
+      <c r="AE12">
+        <v>0.5823478260869566</v>
+      </c>
+      <c r="AF12">
+        <v>0.6086086956521739</v>
+      </c>
+      <c r="AG12">
+        <v>0.6348695652173912</v>
+      </c>
+      <c r="AH12">
+        <v>0.6611304347826087</v>
+      </c>
+      <c r="AI12">
+        <v>0.687391304347826</v>
+      </c>
+      <c r="AJ12">
+        <v>0.7136521739130435</v>
+      </c>
+      <c r="AK12">
+        <v>0.7399130434782608</v>
+      </c>
+      <c r="AL12">
+        <v>0.7661739130434783</v>
+      </c>
+      <c r="AM12">
+        <v>0.7924347826086956</v>
+      </c>
+      <c r="AN12">
+        <v>0.818695652173913</v>
+      </c>
+      <c r="AO12">
+        <v>0.8449565217391305</v>
+      </c>
+      <c r="AP12">
+        <v>0.8712173913043477</v>
+      </c>
+      <c r="AQ12">
+        <v>0.8974782608695651</v>
+      </c>
+      <c r="AR12">
+        <v>0.9237391304347826</v>
+      </c>
+      <c r="AS12">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13">
+        <v>46</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.346</v>
+      </c>
+      <c r="K13">
+        <v>0.346</v>
+      </c>
+      <c r="L13">
+        <v>0.346</v>
+      </c>
+      <c r="M13">
+        <v>0.346</v>
+      </c>
+      <c r="N13">
+        <v>0.346</v>
+      </c>
+      <c r="O13">
+        <v>0.346</v>
+      </c>
+      <c r="P13">
+        <v>0.346</v>
+      </c>
+      <c r="Q13">
+        <v>0.346</v>
+      </c>
+      <c r="R13">
+        <v>0.346</v>
+      </c>
+      <c r="S13">
+        <v>0.346</v>
+      </c>
+      <c r="T13">
+        <v>0.346</v>
+      </c>
+      <c r="U13">
+        <v>0.346</v>
+      </c>
+      <c r="V13">
+        <v>0.346</v>
+      </c>
+      <c r="W13">
+        <v>0.3722608695652174</v>
+      </c>
+      <c r="X13">
+        <v>0.3985217391304348</v>
+      </c>
+      <c r="Y13">
+        <v>0.4247826086956522</v>
+      </c>
+      <c r="Z13">
+        <v>0.4510434782608695</v>
+      </c>
+      <c r="AA13">
+        <v>0.4773043478260869</v>
+      </c>
+      <c r="AB13">
+        <v>0.5035652173913043</v>
+      </c>
+      <c r="AC13">
+        <v>0.5298260869565217</v>
+      </c>
+      <c r="AD13">
+        <v>0.5560869565217391</v>
+      </c>
+      <c r="AE13">
+        <v>0.5823478260869566</v>
+      </c>
+      <c r="AF13">
+        <v>0.6086086956521739</v>
+      </c>
+      <c r="AG13">
+        <v>0.6348695652173912</v>
+      </c>
+      <c r="AH13">
+        <v>0.6611304347826087</v>
+      </c>
+      <c r="AI13">
+        <v>0.687391304347826</v>
+      </c>
+      <c r="AJ13">
+        <v>0.7136521739130435</v>
+      </c>
+      <c r="AK13">
+        <v>0.7399130434782608</v>
+      </c>
+      <c r="AL13">
+        <v>0.7661739130434783</v>
+      </c>
+      <c r="AM13">
+        <v>0.7924347826086956</v>
+      </c>
+      <c r="AN13">
+        <v>0.818695652173913</v>
+      </c>
+      <c r="AO13">
+        <v>0.8449565217391305</v>
+      </c>
+      <c r="AP13">
+        <v>0.8712173913043477</v>
+      </c>
+      <c r="AQ13">
+        <v>0.8974782608695651</v>
+      </c>
+      <c r="AR13">
+        <v>0.9237391304347826</v>
+      </c>
+      <c r="AS13">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14">
+        <v>46</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.346</v>
+      </c>
+      <c r="K14">
+        <v>0.346</v>
+      </c>
+      <c r="L14">
+        <v>0.346</v>
+      </c>
+      <c r="M14">
+        <v>0.346</v>
+      </c>
+      <c r="N14">
+        <v>0.346</v>
+      </c>
+      <c r="O14">
+        <v>0.346</v>
+      </c>
+      <c r="P14">
+        <v>0.346</v>
+      </c>
+      <c r="Q14">
+        <v>0.346</v>
+      </c>
+      <c r="R14">
+        <v>0.346</v>
+      </c>
+      <c r="S14">
+        <v>0.346</v>
+      </c>
+      <c r="T14">
+        <v>0.346</v>
+      </c>
+      <c r="U14">
+        <v>0.346</v>
+      </c>
+      <c r="V14">
+        <v>0.346</v>
+      </c>
+      <c r="W14">
+        <v>0.3722608695652174</v>
+      </c>
+      <c r="X14">
+        <v>0.3985217391304348</v>
+      </c>
+      <c r="Y14">
+        <v>0.4247826086956522</v>
+      </c>
+      <c r="Z14">
+        <v>0.4510434782608695</v>
+      </c>
+      <c r="AA14">
+        <v>0.4773043478260869</v>
+      </c>
+      <c r="AB14">
+        <v>0.5035652173913043</v>
+      </c>
+      <c r="AC14">
+        <v>0.5298260869565217</v>
+      </c>
+      <c r="AD14">
+        <v>0.5560869565217391</v>
+      </c>
+      <c r="AE14">
+        <v>0.5823478260869566</v>
+      </c>
+      <c r="AF14">
+        <v>0.6086086956521739</v>
+      </c>
+      <c r="AG14">
+        <v>0.6348695652173912</v>
+      </c>
+      <c r="AH14">
+        <v>0.6611304347826087</v>
+      </c>
+      <c r="AI14">
+        <v>0.687391304347826</v>
+      </c>
+      <c r="AJ14">
+        <v>0.7136521739130435</v>
+      </c>
+      <c r="AK14">
+        <v>0.7399130434782608</v>
+      </c>
+      <c r="AL14">
+        <v>0.7661739130434783</v>
+      </c>
+      <c r="AM14">
+        <v>0.7924347826086956</v>
+      </c>
+      <c r="AN14">
+        <v>0.818695652173913</v>
+      </c>
+      <c r="AO14">
+        <v>0.8449565217391305</v>
+      </c>
+      <c r="AP14">
+        <v>0.8712173913043477</v>
+      </c>
+      <c r="AQ14">
+        <v>0.8974782608695651</v>
+      </c>
+      <c r="AR14">
+        <v>0.9237391304347826</v>
+      </c>
+      <c r="AS14">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15">
+        <v>46</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.346</v>
+      </c>
+      <c r="K15">
+        <v>0.346</v>
+      </c>
+      <c r="L15">
+        <v>0.346</v>
+      </c>
+      <c r="M15">
+        <v>0.346</v>
+      </c>
+      <c r="N15">
+        <v>0.346</v>
+      </c>
+      <c r="O15">
+        <v>0.346</v>
+      </c>
+      <c r="P15">
+        <v>0.346</v>
+      </c>
+      <c r="Q15">
+        <v>0.346</v>
+      </c>
+      <c r="R15">
+        <v>0.346</v>
+      </c>
+      <c r="S15">
+        <v>0.346</v>
+      </c>
+      <c r="T15">
+        <v>0.346</v>
+      </c>
+      <c r="U15">
+        <v>0.346</v>
+      </c>
+      <c r="V15">
+        <v>0.346</v>
+      </c>
+      <c r="W15">
+        <v>0.3722608695652174</v>
+      </c>
+      <c r="X15">
+        <v>0.3985217391304348</v>
+      </c>
+      <c r="Y15">
+        <v>0.4247826086956522</v>
+      </c>
+      <c r="Z15">
+        <v>0.4510434782608695</v>
+      </c>
+      <c r="AA15">
+        <v>0.4773043478260869</v>
+      </c>
+      <c r="AB15">
+        <v>0.5035652173913043</v>
+      </c>
+      <c r="AC15">
+        <v>0.5298260869565217</v>
+      </c>
+      <c r="AD15">
+        <v>0.5560869565217391</v>
+      </c>
+      <c r="AE15">
+        <v>0.5823478260869566</v>
+      </c>
+      <c r="AF15">
+        <v>0.6086086956521739</v>
+      </c>
+      <c r="AG15">
+        <v>0.6348695652173912</v>
+      </c>
+      <c r="AH15">
+        <v>0.6611304347826087</v>
+      </c>
+      <c r="AI15">
+        <v>0.687391304347826</v>
+      </c>
+      <c r="AJ15">
+        <v>0.7136521739130435</v>
+      </c>
+      <c r="AK15">
+        <v>0.7399130434782608</v>
+      </c>
+      <c r="AL15">
+        <v>0.7661739130434783</v>
+      </c>
+      <c r="AM15">
+        <v>0.7924347826086956</v>
+      </c>
+      <c r="AN15">
+        <v>0.818695652173913</v>
+      </c>
+      <c r="AO15">
+        <v>0.8449565217391305</v>
+      </c>
+      <c r="AP15">
+        <v>0.8712173913043477</v>
+      </c>
+      <c r="AQ15">
+        <v>0.8974782608695651</v>
+      </c>
+      <c r="AR15">
+        <v>0.9237391304347826</v>
+      </c>
+      <c r="AS15">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16">
+        <v>46</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.346</v>
+      </c>
+      <c r="K16">
+        <v>0.346</v>
+      </c>
+      <c r="L16">
+        <v>0.346</v>
+      </c>
+      <c r="M16">
+        <v>0.346</v>
+      </c>
+      <c r="N16">
+        <v>0.346</v>
+      </c>
+      <c r="O16">
+        <v>0.346</v>
+      </c>
+      <c r="P16">
+        <v>0.346</v>
+      </c>
+      <c r="Q16">
+        <v>0.346</v>
+      </c>
+      <c r="R16">
+        <v>0.346</v>
+      </c>
+      <c r="S16">
+        <v>0.346</v>
+      </c>
+      <c r="T16">
+        <v>0.346</v>
+      </c>
+      <c r="U16">
+        <v>0.346</v>
+      </c>
+      <c r="V16">
+        <v>0.346</v>
+      </c>
+      <c r="W16">
+        <v>0.3722608695652174</v>
+      </c>
+      <c r="X16">
+        <v>0.3985217391304348</v>
+      </c>
+      <c r="Y16">
+        <v>0.4247826086956522</v>
+      </c>
+      <c r="Z16">
+        <v>0.4510434782608695</v>
+      </c>
+      <c r="AA16">
+        <v>0.4773043478260869</v>
+      </c>
+      <c r="AB16">
+        <v>0.5035652173913043</v>
+      </c>
+      <c r="AC16">
+        <v>0.5298260869565217</v>
+      </c>
+      <c r="AD16">
+        <v>0.5560869565217391</v>
+      </c>
+      <c r="AE16">
+        <v>0.5823478260869566</v>
+      </c>
+      <c r="AF16">
+        <v>0.6086086956521739</v>
+      </c>
+      <c r="AG16">
+        <v>0.6348695652173912</v>
+      </c>
+      <c r="AH16">
+        <v>0.6611304347826087</v>
+      </c>
+      <c r="AI16">
+        <v>0.687391304347826</v>
+      </c>
+      <c r="AJ16">
+        <v>0.7136521739130435</v>
+      </c>
+      <c r="AK16">
+        <v>0.7399130434782608</v>
+      </c>
+      <c r="AL16">
+        <v>0.7661739130434783</v>
+      </c>
+      <c r="AM16">
+        <v>0.7924347826086956</v>
+      </c>
+      <c r="AN16">
+        <v>0.818695652173913</v>
+      </c>
+      <c r="AO16">
+        <v>0.8449565217391305</v>
+      </c>
+      <c r="AP16">
+        <v>0.8712173913043477</v>
+      </c>
+      <c r="AQ16">
+        <v>0.8974782608695651</v>
+      </c>
+      <c r="AR16">
+        <v>0.9237391304347826</v>
+      </c>
+      <c r="AS16">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>193</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.95</v>
+      </c>
+      <c r="K17">
+        <v>0.95</v>
+      </c>
+      <c r="L17">
+        <v>0.95</v>
+      </c>
+      <c r="M17">
+        <v>0.95</v>
+      </c>
+      <c r="N17">
+        <v>0.95</v>
+      </c>
+      <c r="O17">
+        <v>0.95</v>
+      </c>
+      <c r="P17">
+        <v>0.95</v>
+      </c>
+      <c r="Q17">
+        <v>0.95</v>
+      </c>
+      <c r="R17">
+        <v>0.95</v>
+      </c>
+      <c r="S17">
+        <v>0.95</v>
+      </c>
+      <c r="T17">
+        <v>0.95</v>
+      </c>
+      <c r="U17">
+        <v>0.95</v>
+      </c>
+      <c r="V17">
+        <v>0.95</v>
+      </c>
+      <c r="W17">
+        <v>0.95</v>
+      </c>
+      <c r="X17">
+        <v>0.95</v>
+      </c>
+      <c r="Y17">
+        <v>0.9499999999999998</v>
+      </c>
+      <c r="Z17">
+        <v>0.95</v>
+      </c>
+      <c r="AA17">
+        <v>0.95</v>
+      </c>
+      <c r="AB17">
+        <v>0.95</v>
+      </c>
+      <c r="AC17">
+        <v>0.95</v>
+      </c>
+      <c r="AD17">
+        <v>0.95</v>
+      </c>
+      <c r="AE17">
+        <v>0.95</v>
+      </c>
+      <c r="AF17">
+        <v>0.95</v>
+      </c>
+      <c r="AG17">
+        <v>0.95</v>
+      </c>
+      <c r="AH17">
+        <v>0.95</v>
+      </c>
+      <c r="AI17">
+        <v>0.95</v>
+      </c>
+      <c r="AJ17">
+        <v>0.95</v>
+      </c>
+      <c r="AK17">
+        <v>0.95</v>
+      </c>
+      <c r="AL17">
+        <v>0.95</v>
+      </c>
+      <c r="AM17">
+        <v>0.95</v>
+      </c>
+      <c r="AN17">
+        <v>0.95</v>
+      </c>
+      <c r="AO17">
+        <v>0.95</v>
+      </c>
+      <c r="AP17">
+        <v>0.95</v>
+      </c>
+      <c r="AQ17">
+        <v>0.95</v>
+      </c>
+      <c r="AR17">
+        <v>0.95</v>
+      </c>
+      <c r="AS17">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18">
+        <v>43</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0.03695652173913043</v>
+      </c>
+      <c r="X18">
+        <v>0.07391304347826086</v>
+      </c>
+      <c r="Y18">
+        <v>0.1108695652173913</v>
+      </c>
+      <c r="Z18">
+        <v>0.1478260869565217</v>
+      </c>
+      <c r="AA18">
+        <v>0.1847826086956522</v>
+      </c>
+      <c r="AB18">
+        <v>0.2217391304347826</v>
+      </c>
+      <c r="AC18">
+        <v>0.258695652173913</v>
+      </c>
+      <c r="AD18">
+        <v>0.2956521739130434</v>
+      </c>
+      <c r="AE18">
+        <v>0.3326086956521739</v>
+      </c>
+      <c r="AF18">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="AG18">
+        <v>0.4065217391304348</v>
+      </c>
+      <c r="AH18">
+        <v>0.4434782608695652</v>
+      </c>
+      <c r="AI18">
+        <v>0.4804347826086956</v>
+      </c>
+      <c r="AJ18">
+        <v>0.5173913043478261</v>
+      </c>
+      <c r="AK18">
+        <v>0.5543478260869565</v>
+      </c>
+      <c r="AL18">
+        <v>0.5913043478260869</v>
+      </c>
+      <c r="AM18">
+        <v>0.6282608695652173</v>
+      </c>
+      <c r="AN18">
+        <v>0.6652173913043479</v>
+      </c>
+      <c r="AO18">
+        <v>0.7021739130434782</v>
+      </c>
+      <c r="AP18">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="AQ18">
+        <v>0.7760869565217391</v>
+      </c>
+      <c r="AR18">
+        <v>0.8130434782608695</v>
+      </c>
+      <c r="AS18">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19">
+        <v>43</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0.03695652173913043</v>
+      </c>
+      <c r="X19">
+        <v>0.07391304347826086</v>
+      </c>
+      <c r="Y19">
+        <v>0.1108695652173913</v>
+      </c>
+      <c r="Z19">
+        <v>0.1478260869565217</v>
+      </c>
+      <c r="AA19">
+        <v>0.1847826086956522</v>
+      </c>
+      <c r="AB19">
+        <v>0.2217391304347826</v>
+      </c>
+      <c r="AC19">
+        <v>0.258695652173913</v>
+      </c>
+      <c r="AD19">
+        <v>0.2956521739130434</v>
+      </c>
+      <c r="AE19">
+        <v>0.3326086956521739</v>
+      </c>
+      <c r="AF19">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="AG19">
+        <v>0.4065217391304348</v>
+      </c>
+      <c r="AH19">
+        <v>0.4434782608695652</v>
+      </c>
+      <c r="AI19">
+        <v>0.4804347826086956</v>
+      </c>
+      <c r="AJ19">
+        <v>0.5173913043478261</v>
+      </c>
+      <c r="AK19">
+        <v>0.5543478260869565</v>
+      </c>
+      <c r="AL19">
+        <v>0.5913043478260869</v>
+      </c>
+      <c r="AM19">
+        <v>0.6282608695652173</v>
+      </c>
+      <c r="AN19">
+        <v>0.6652173913043479</v>
+      </c>
+      <c r="AO19">
+        <v>0.7021739130434782</v>
+      </c>
+      <c r="AP19">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="AQ19">
+        <v>0.7760869565217391</v>
+      </c>
+      <c r="AR19">
+        <v>0.8130434782608695</v>
+      </c>
+      <c r="AS19">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20">
+        <v>43</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0.03695652173913043</v>
+      </c>
+      <c r="X20">
+        <v>0.07391304347826086</v>
+      </c>
+      <c r="Y20">
+        <v>0.1108695652173913</v>
+      </c>
+      <c r="Z20">
+        <v>0.1478260869565217</v>
+      </c>
+      <c r="AA20">
+        <v>0.1847826086956522</v>
+      </c>
+      <c r="AB20">
+        <v>0.2217391304347826</v>
+      </c>
+      <c r="AC20">
+        <v>0.258695652173913</v>
+      </c>
+      <c r="AD20">
+        <v>0.2956521739130434</v>
+      </c>
+      <c r="AE20">
+        <v>0.3326086956521739</v>
+      </c>
+      <c r="AF20">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="AG20">
+        <v>0.4065217391304348</v>
+      </c>
+      <c r="AH20">
+        <v>0.4434782608695652</v>
+      </c>
+      <c r="AI20">
+        <v>0.4804347826086956</v>
+      </c>
+      <c r="AJ20">
+        <v>0.5173913043478261</v>
+      </c>
+      <c r="AK20">
+        <v>0.5543478260869565</v>
+      </c>
+      <c r="AL20">
+        <v>0.5913043478260869</v>
+      </c>
+      <c r="AM20">
+        <v>0.6282608695652173</v>
+      </c>
+      <c r="AN20">
+        <v>0.6652173913043479</v>
+      </c>
+      <c r="AO20">
+        <v>0.7021739130434782</v>
+      </c>
+      <c r="AP20">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="AQ20">
+        <v>0.7760869565217391</v>
+      </c>
+      <c r="AR20">
+        <v>0.8130434782608695</v>
+      </c>
+      <c r="AS20">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21">
+        <v>43</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0.03695652173913043</v>
+      </c>
+      <c r="X21">
+        <v>0.07391304347826086</v>
+      </c>
+      <c r="Y21">
+        <v>0.1108695652173913</v>
+      </c>
+      <c r="Z21">
+        <v>0.1478260869565217</v>
+      </c>
+      <c r="AA21">
+        <v>0.1847826086956522</v>
+      </c>
+      <c r="AB21">
+        <v>0.2217391304347826</v>
+      </c>
+      <c r="AC21">
+        <v>0.258695652173913</v>
+      </c>
+      <c r="AD21">
+        <v>0.2956521739130434</v>
+      </c>
+      <c r="AE21">
+        <v>0.3326086956521739</v>
+      </c>
+      <c r="AF21">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="AG21">
+        <v>0.4065217391304348</v>
+      </c>
+      <c r="AH21">
+        <v>0.4434782608695652</v>
+      </c>
+      <c r="AI21">
+        <v>0.4804347826086956</v>
+      </c>
+      <c r="AJ21">
+        <v>0.5173913043478261</v>
+      </c>
+      <c r="AK21">
+        <v>0.5543478260869565</v>
+      </c>
+      <c r="AL21">
+        <v>0.5913043478260869</v>
+      </c>
+      <c r="AM21">
+        <v>0.6282608695652173</v>
+      </c>
+      <c r="AN21">
+        <v>0.6652173913043479</v>
+      </c>
+      <c r="AO21">
+        <v>0.7021739130434782</v>
+      </c>
+      <c r="AP21">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="AQ21">
+        <v>0.7760869565217391</v>
+      </c>
+      <c r="AR21">
+        <v>0.8130434782608695</v>
+      </c>
+      <c r="AS21">
+        <v>0.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AS21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2">
+        <v>44</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0.02</v>
+      </c>
+      <c r="K2">
+        <v>0.02</v>
+      </c>
+      <c r="L2">
+        <v>0.02</v>
+      </c>
+      <c r="M2">
+        <v>0.02</v>
+      </c>
+      <c r="N2">
+        <v>0.02</v>
+      </c>
+      <c r="O2">
+        <v>0.02</v>
+      </c>
+      <c r="P2">
+        <v>0.02</v>
+      </c>
+      <c r="Q2">
+        <v>0.02</v>
+      </c>
+      <c r="R2">
+        <v>0.02</v>
+      </c>
+      <c r="S2">
+        <v>0.02</v>
+      </c>
+      <c r="T2">
+        <v>0.02</v>
+      </c>
+      <c r="U2">
+        <v>0.02</v>
+      </c>
+      <c r="V2">
+        <v>0.02</v>
+      </c>
+      <c r="W2">
+        <v>0.02945652173913044</v>
+      </c>
+      <c r="X2">
+        <v>0.03891304347826087</v>
+      </c>
+      <c r="Y2">
+        <v>0.0483695652173913</v>
+      </c>
+      <c r="Z2">
+        <v>0.05782608695652174</v>
+      </c>
+      <c r="AA2">
+        <v>0.06728260869565217</v>
+      </c>
+      <c r="AB2">
+        <v>0.0767391304347826</v>
+      </c>
+      <c r="AC2">
+        <v>0.08619565217391305</v>
+      </c>
+      <c r="AD2">
+        <v>0.09565217391304348</v>
+      </c>
+      <c r="AE2">
+        <v>0.1051086956521739</v>
+      </c>
+      <c r="AF2">
+        <v>0.1145652173913043</v>
+      </c>
+      <c r="AG2">
+        <v>0.1240217391304348</v>
+      </c>
+      <c r="AH2">
+        <v>0.1334782608695652</v>
+      </c>
+      <c r="AI2">
+        <v>0.1429347826086956</v>
+      </c>
+      <c r="AJ2">
+        <v>0.1523913043478261</v>
+      </c>
+      <c r="AK2">
+        <v>0.1618478260869565</v>
+      </c>
+      <c r="AL2">
+        <v>0.1713043478260869</v>
+      </c>
+      <c r="AM2">
+        <v>0.1807608695652174</v>
+      </c>
+      <c r="AN2">
+        <v>0.1902173913043478</v>
+      </c>
+      <c r="AO2">
+        <v>0.1996739130434783</v>
+      </c>
+      <c r="AP2">
+        <v>0.2091304347826087</v>
+      </c>
+      <c r="AQ2">
+        <v>0.2185869565217391</v>
+      </c>
+      <c r="AR2">
+        <v>0.2280434782608696</v>
+      </c>
+      <c r="AS2">
+        <v>0.2375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3">
+        <v>44</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.4</v>
+      </c>
+      <c r="K3">
+        <v>0.4</v>
+      </c>
+      <c r="L3">
+        <v>0.4</v>
+      </c>
+      <c r="M3">
+        <v>0.4</v>
+      </c>
+      <c r="N3">
+        <v>0.4</v>
+      </c>
+      <c r="O3">
+        <v>0.4</v>
+      </c>
+      <c r="P3">
+        <v>0.4</v>
+      </c>
+      <c r="Q3">
+        <v>0.4</v>
+      </c>
+      <c r="R3">
+        <v>0.4</v>
+      </c>
+      <c r="S3">
+        <v>0.4</v>
+      </c>
+      <c r="T3">
+        <v>0.4</v>
+      </c>
+      <c r="U3">
+        <v>0.4</v>
+      </c>
+      <c r="V3">
+        <v>0.4</v>
+      </c>
+      <c r="W3">
+        <v>0.4</v>
+      </c>
+      <c r="X3">
+        <v>0.4000000000000001</v>
+      </c>
+      <c r="Y3">
+        <v>0.4</v>
+      </c>
+      <c r="Z3">
+        <v>0.4</v>
+      </c>
+      <c r="AA3">
+        <v>0.4</v>
+      </c>
+      <c r="AB3">
+        <v>0.4</v>
+      </c>
+      <c r="AC3">
+        <v>0.4</v>
+      </c>
+      <c r="AD3">
+        <v>0.4</v>
+      </c>
+      <c r="AE3">
+        <v>0.4</v>
+      </c>
+      <c r="AF3">
+        <v>0.4</v>
+      </c>
+      <c r="AG3">
+        <v>0.4</v>
+      </c>
+      <c r="AH3">
+        <v>0.4</v>
+      </c>
+      <c r="AI3">
+        <v>0.4</v>
+      </c>
+      <c r="AJ3">
+        <v>0.4</v>
+      </c>
+      <c r="AK3">
+        <v>0.4</v>
+      </c>
+      <c r="AL3">
+        <v>0.4</v>
+      </c>
+      <c r="AM3">
+        <v>0.4</v>
+      </c>
+      <c r="AN3">
+        <v>0.4</v>
+      </c>
+      <c r="AO3">
+        <v>0.4</v>
+      </c>
+      <c r="AP3">
+        <v>0.4</v>
+      </c>
+      <c r="AQ3">
+        <v>0.4</v>
+      </c>
+      <c r="AR3">
+        <v>0.4</v>
+      </c>
+      <c r="AS3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4">
+        <v>44</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.02</v>
+      </c>
+      <c r="K4">
+        <v>0.02</v>
+      </c>
+      <c r="L4">
+        <v>0.02</v>
+      </c>
+      <c r="M4">
+        <v>0.02</v>
+      </c>
+      <c r="N4">
+        <v>0.02</v>
+      </c>
+      <c r="O4">
+        <v>0.02</v>
+      </c>
+      <c r="P4">
+        <v>0.02</v>
+      </c>
+      <c r="Q4">
+        <v>0.02</v>
+      </c>
+      <c r="R4">
+        <v>0.02</v>
+      </c>
+      <c r="S4">
+        <v>0.02</v>
+      </c>
+      <c r="T4">
+        <v>0.02</v>
+      </c>
+      <c r="U4">
+        <v>0.02</v>
+      </c>
+      <c r="V4">
+        <v>0.02</v>
+      </c>
+      <c r="W4">
+        <v>0.02945652173913044</v>
+      </c>
+      <c r="X4">
+        <v>0.03891304347826087</v>
+      </c>
+      <c r="Y4">
+        <v>0.0483695652173913</v>
+      </c>
+      <c r="Z4">
+        <v>0.05782608695652174</v>
+      </c>
+      <c r="AA4">
+        <v>0.06728260869565217</v>
+      </c>
+      <c r="AB4">
+        <v>0.0767391304347826</v>
+      </c>
+      <c r="AC4">
+        <v>0.08619565217391305</v>
+      </c>
+      <c r="AD4">
+        <v>0.09565217391304348</v>
+      </c>
+      <c r="AE4">
+        <v>0.1051086956521739</v>
+      </c>
+      <c r="AF4">
+        <v>0.1145652173913043</v>
+      </c>
+      <c r="AG4">
+        <v>0.1240217391304348</v>
+      </c>
+      <c r="AH4">
+        <v>0.1334782608695652</v>
+      </c>
+      <c r="AI4">
+        <v>0.1429347826086956</v>
+      </c>
+      <c r="AJ4">
+        <v>0.1523913043478261</v>
+      </c>
+      <c r="AK4">
+        <v>0.1618478260869565</v>
+      </c>
+      <c r="AL4">
+        <v>0.1713043478260869</v>
+      </c>
+      <c r="AM4">
+        <v>0.1807608695652174</v>
+      </c>
+      <c r="AN4">
+        <v>0.1902173913043478</v>
+      </c>
+      <c r="AO4">
+        <v>0.1996739130434783</v>
+      </c>
+      <c r="AP4">
+        <v>0.2091304347826087</v>
+      </c>
+      <c r="AQ4">
+        <v>0.2185869565217391</v>
+      </c>
+      <c r="AR4">
+        <v>0.2280434782608696</v>
+      </c>
+      <c r="AS4">
+        <v>0.2375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5">
+        <v>44</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="K5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="L5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="M5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="N5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="O5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="P5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="Q5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="R5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="S5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="T5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="U5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="V5">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="W5">
+        <v>0.04634614461668615</v>
+      </c>
+      <c r="X5">
+        <v>0.0550349562250186</v>
+      </c>
+      <c r="Y5">
+        <v>0.06372376783335104</v>
+      </c>
+      <c r="Z5">
+        <v>0.07241257944168349</v>
+      </c>
+      <c r="AA5">
+        <v>0.08110139105001593</v>
+      </c>
+      <c r="AB5">
+        <v>0.08979020265834839</v>
+      </c>
+      <c r="AC5">
+        <v>0.09847901426668083</v>
+      </c>
+      <c r="AD5">
+        <v>0.1071678258750133</v>
+      </c>
+      <c r="AE5">
+        <v>0.1158566374833457</v>
+      </c>
+      <c r="AF5">
+        <v>0.1245454490916782</v>
+      </c>
+      <c r="AG5">
+        <v>0.1332342607000106</v>
+      </c>
+      <c r="AH5">
+        <v>0.1419230723083431</v>
+      </c>
+      <c r="AI5">
+        <v>0.1506118839166755</v>
+      </c>
+      <c r="AJ5">
+        <v>0.159300695525008</v>
+      </c>
+      <c r="AK5">
+        <v>0.1679895071333404</v>
+      </c>
+      <c r="AL5">
+        <v>0.1766783187416729</v>
+      </c>
+      <c r="AM5">
+        <v>0.1853671303500053</v>
+      </c>
+      <c r="AN5">
+        <v>0.1940559419583378</v>
+      </c>
+      <c r="AO5">
+        <v>0.2027447535666702</v>
+      </c>
+      <c r="AP5">
+        <v>0.2114335651750026</v>
+      </c>
+      <c r="AQ5">
+        <v>0.2201223767833351</v>
+      </c>
+      <c r="AR5">
+        <v>0.2288111883916675</v>
+      </c>
+      <c r="AS5">
+        <v>0.2375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6">
+        <v>44</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="K6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="L6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="M6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="N6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="O6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="P6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="Q6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="R6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="S6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="T6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="U6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="V6">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="W6">
+        <v>0.04634614461668615</v>
+      </c>
+      <c r="X6">
+        <v>0.0550349562250186</v>
+      </c>
+      <c r="Y6">
+        <v>0.06372376783335104</v>
+      </c>
+      <c r="Z6">
+        <v>0.07241257944168349</v>
+      </c>
+      <c r="AA6">
+        <v>0.08110139105001593</v>
+      </c>
+      <c r="AB6">
+        <v>0.08979020265834839</v>
+      </c>
+      <c r="AC6">
+        <v>0.09847901426668083</v>
+      </c>
+      <c r="AD6">
+        <v>0.1071678258750133</v>
+      </c>
+      <c r="AE6">
+        <v>0.1158566374833457</v>
+      </c>
+      <c r="AF6">
+        <v>0.1245454490916782</v>
+      </c>
+      <c r="AG6">
+        <v>0.1332342607000106</v>
+      </c>
+      <c r="AH6">
+        <v>0.1419230723083431</v>
+      </c>
+      <c r="AI6">
+        <v>0.1506118839166755</v>
+      </c>
+      <c r="AJ6">
+        <v>0.159300695525008</v>
+      </c>
+      <c r="AK6">
+        <v>0.1679895071333404</v>
+      </c>
+      <c r="AL6">
+        <v>0.1766783187416729</v>
+      </c>
+      <c r="AM6">
+        <v>0.1853671303500053</v>
+      </c>
+      <c r="AN6">
+        <v>0.1940559419583378</v>
+      </c>
+      <c r="AO6">
+        <v>0.2027447535666702</v>
+      </c>
+      <c r="AP6">
+        <v>0.2114335651750026</v>
+      </c>
+      <c r="AQ6">
+        <v>0.2201223767833351</v>
+      </c>
+      <c r="AR6">
+        <v>0.2288111883916675</v>
+      </c>
+      <c r="AS6">
+        <v>0.2375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7">
+        <v>44</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="K7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="L7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="M7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="N7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="O7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="P7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="Q7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="R7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="S7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="T7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="U7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="V7">
+        <v>0.0376573330083537</v>
+      </c>
+      <c r="W7">
+        <v>0.04634614461668615</v>
+      </c>
+      <c r="X7">
+        <v>0.0550349562250186</v>
+      </c>
+      <c r="Y7">
+        <v>0.06372376783335104</v>
+      </c>
+      <c r="Z7">
+        <v>0.07241257944168349</v>
+      </c>
+      <c r="AA7">
+        <v>0.08110139105001593</v>
+      </c>
+      <c r="AB7">
+        <v>0.08979020265834839</v>
+      </c>
+      <c r="AC7">
+        <v>0.09847901426668083</v>
+      </c>
+      <c r="AD7">
+        <v>0.1071678258750133</v>
+      </c>
+      <c r="AE7">
+        <v>0.1158566374833457</v>
+      </c>
+      <c r="AF7">
+        <v>0.1245454490916782</v>
+      </c>
+      <c r="AG7">
+        <v>0.1332342607000106</v>
+      </c>
+      <c r="AH7">
+        <v>0.1419230723083431</v>
+      </c>
+      <c r="AI7">
+        <v>0.1506118839166755</v>
+      </c>
+      <c r="AJ7">
+        <v>0.159300695525008</v>
+      </c>
+      <c r="AK7">
+        <v>0.1679895071333404</v>
+      </c>
+      <c r="AL7">
+        <v>0.1766783187416729</v>
+      </c>
+      <c r="AM7">
+        <v>0.1853671303500053</v>
+      </c>
+      <c r="AN7">
+        <v>0.1940559419583378</v>
+      </c>
+      <c r="AO7">
+        <v>0.2027447535666702</v>
+      </c>
+      <c r="AP7">
+        <v>0.2114335651750026</v>
+      </c>
+      <c r="AQ7">
+        <v>0.2201223767833351</v>
+      </c>
+      <c r="AR7">
+        <v>0.2288111883916675</v>
+      </c>
+      <c r="AS7">
+        <v>0.2375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="K8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="L8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="M8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="N8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="O8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="P8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="Q8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="R8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="S8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="T8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="U8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="V8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="W8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="X8">
+        <v>0.9968985947472471</v>
+      </c>
+      <c r="Y8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="Z8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AA8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AB8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AC8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AD8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AE8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AF8">
+        <v>0.9968985947472471</v>
+      </c>
+      <c r="AG8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AH8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AI8">
+        <v>0.9968985947472471</v>
+      </c>
+      <c r="AJ8">
+        <v>0.9968985947472468</v>
+      </c>
+      <c r="AK8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AL8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AM8">
+        <v>0.9968985947472471</v>
+      </c>
+      <c r="AN8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AO8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AP8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AQ8">
+        <v>0.9968985947472471</v>
+      </c>
+      <c r="AR8">
+        <v>0.996898594747247</v>
+      </c>
+      <c r="AS8">
+        <v>0.996898594747247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9">
+        <v>45</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0.01847826086956521</v>
+      </c>
+      <c r="X9">
+        <v>0.03695652173913043</v>
+      </c>
+      <c r="Y9">
+        <v>0.05543478260869565</v>
+      </c>
+      <c r="Z9">
+        <v>0.07391304347826086</v>
+      </c>
+      <c r="AA9">
+        <v>0.09239130434782608</v>
+      </c>
+      <c r="AB9">
+        <v>0.1108695652173913</v>
+      </c>
+      <c r="AC9">
+        <v>0.1293478260869565</v>
+      </c>
+      <c r="AD9">
+        <v>0.1478260869565217</v>
+      </c>
+      <c r="AE9">
+        <v>0.166304347826087</v>
+      </c>
+      <c r="AF9">
+        <v>0.1847826086956522</v>
+      </c>
+      <c r="AG9">
+        <v>0.2032608695652174</v>
+      </c>
+      <c r="AH9">
+        <v>0.2217391304347826</v>
+      </c>
+      <c r="AI9">
+        <v>0.2402173913043478</v>
+      </c>
+      <c r="AJ9">
+        <v>0.258695652173913</v>
+      </c>
+      <c r="AK9">
+        <v>0.2771739130434783</v>
+      </c>
+      <c r="AL9">
+        <v>0.2956521739130434</v>
+      </c>
+      <c r="AM9">
+        <v>0.3141304347826087</v>
+      </c>
+      <c r="AN9">
+        <v>0.3326086956521739</v>
+      </c>
+      <c r="AO9">
+        <v>0.3510869565217391</v>
+      </c>
+      <c r="AP9">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="AQ9">
+        <v>0.3880434782608695</v>
+      </c>
+      <c r="AR9">
+        <v>0.4065217391304348</v>
+      </c>
+      <c r="AS9">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10">
+        <v>46</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.346</v>
+      </c>
+      <c r="K10">
+        <v>0.346</v>
+      </c>
+      <c r="L10">
+        <v>0.346</v>
+      </c>
+      <c r="M10">
+        <v>0.346</v>
+      </c>
+      <c r="N10">
+        <v>0.346</v>
+      </c>
+      <c r="O10">
+        <v>0.346</v>
+      </c>
+      <c r="P10">
+        <v>0.346</v>
+      </c>
+      <c r="Q10">
+        <v>0.346</v>
+      </c>
+      <c r="R10">
+        <v>0.346</v>
+      </c>
+      <c r="S10">
+        <v>0.346</v>
+      </c>
+      <c r="T10">
+        <v>0.346</v>
+      </c>
+      <c r="U10">
+        <v>0.346</v>
+      </c>
+      <c r="V10">
+        <v>0.346</v>
+      </c>
+      <c r="W10">
+        <v>0.3516086956521739</v>
+      </c>
+      <c r="X10">
+        <v>0.3572173913043478</v>
+      </c>
+      <c r="Y10">
+        <v>0.3628260869565217</v>
+      </c>
+      <c r="Z10">
+        <v>0.3684347826086957</v>
+      </c>
+      <c r="AA10">
+        <v>0.3740434782608696</v>
+      </c>
+      <c r="AB10">
+        <v>0.3796521739130435</v>
+      </c>
+      <c r="AC10">
+        <v>0.3852608695652173</v>
+      </c>
+      <c r="AD10">
+        <v>0.3908695652173912</v>
+      </c>
+      <c r="AE10">
+        <v>0.3964782608695652</v>
+      </c>
+      <c r="AF10">
+        <v>0.4020869565217391</v>
+      </c>
+      <c r="AG10">
+        <v>0.407695652173913</v>
+      </c>
+      <c r="AH10">
+        <v>0.4133043478260869</v>
+      </c>
+      <c r="AI10">
+        <v>0.4189130434782609</v>
+      </c>
+      <c r="AJ10">
+        <v>0.4245217391304348</v>
+      </c>
+      <c r="AK10">
+        <v>0.4301304347826087</v>
+      </c>
+      <c r="AL10">
+        <v>0.4357391304347826</v>
+      </c>
+      <c r="AM10">
+        <v>0.4413478260869565</v>
+      </c>
+      <c r="AN10">
+        <v>0.4469565217391304</v>
+      </c>
+      <c r="AO10">
+        <v>0.4525652173913043</v>
+      </c>
+      <c r="AP10">
+        <v>0.4581739130434782</v>
+      </c>
+      <c r="AQ10">
+        <v>0.4637826086956521</v>
+      </c>
+      <c r="AR10">
+        <v>0.4693913043478261</v>
+      </c>
+      <c r="AS10">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11">
+        <v>46</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.346</v>
+      </c>
+      <c r="K11">
+        <v>0.346</v>
+      </c>
+      <c r="L11">
+        <v>0.346</v>
+      </c>
+      <c r="M11">
+        <v>0.346</v>
+      </c>
+      <c r="N11">
+        <v>0.346</v>
+      </c>
+      <c r="O11">
+        <v>0.346</v>
+      </c>
+      <c r="P11">
+        <v>0.346</v>
+      </c>
+      <c r="Q11">
+        <v>0.346</v>
+      </c>
+      <c r="R11">
+        <v>0.346</v>
+      </c>
+      <c r="S11">
+        <v>0.346</v>
+      </c>
+      <c r="T11">
+        <v>0.346</v>
+      </c>
+      <c r="U11">
+        <v>0.346</v>
+      </c>
+      <c r="V11">
+        <v>0.346</v>
+      </c>
+      <c r="W11">
+        <v>0.3516086956521739</v>
+      </c>
+      <c r="X11">
+        <v>0.3572173913043478</v>
+      </c>
+      <c r="Y11">
+        <v>0.3628260869565217</v>
+      </c>
+      <c r="Z11">
+        <v>0.3684347826086957</v>
+      </c>
+      <c r="AA11">
+        <v>0.3740434782608696</v>
+      </c>
+      <c r="AB11">
+        <v>0.3796521739130435</v>
+      </c>
+      <c r="AC11">
+        <v>0.3852608695652173</v>
+      </c>
+      <c r="AD11">
+        <v>0.3908695652173912</v>
+      </c>
+      <c r="AE11">
+        <v>0.3964782608695652</v>
+      </c>
+      <c r="AF11">
+        <v>0.4020869565217391</v>
+      </c>
+      <c r="AG11">
+        <v>0.407695652173913</v>
+      </c>
+      <c r="AH11">
+        <v>0.4133043478260869</v>
+      </c>
+      <c r="AI11">
+        <v>0.4189130434782609</v>
+      </c>
+      <c r="AJ11">
+        <v>0.4245217391304348</v>
+      </c>
+      <c r="AK11">
+        <v>0.4301304347826087</v>
+      </c>
+      <c r="AL11">
+        <v>0.4357391304347826</v>
+      </c>
+      <c r="AM11">
+        <v>0.4413478260869565</v>
+      </c>
+      <c r="AN11">
+        <v>0.4469565217391304</v>
+      </c>
+      <c r="AO11">
+        <v>0.4525652173913043</v>
+      </c>
+      <c r="AP11">
+        <v>0.4581739130434782</v>
+      </c>
+      <c r="AQ11">
+        <v>0.4637826086956521</v>
+      </c>
+      <c r="AR11">
+        <v>0.4693913043478261</v>
+      </c>
+      <c r="AS11">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12">
+        <v>46</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.346</v>
+      </c>
+      <c r="K12">
+        <v>0.346</v>
+      </c>
+      <c r="L12">
+        <v>0.346</v>
+      </c>
+      <c r="M12">
+        <v>0.346</v>
+      </c>
+      <c r="N12">
+        <v>0.346</v>
+      </c>
+      <c r="O12">
+        <v>0.346</v>
+      </c>
+      <c r="P12">
+        <v>0.346</v>
+      </c>
+      <c r="Q12">
+        <v>0.346</v>
+      </c>
+      <c r="R12">
+        <v>0.346</v>
+      </c>
+      <c r="S12">
+        <v>0.346</v>
+      </c>
+      <c r="T12">
+        <v>0.346</v>
+      </c>
+      <c r="U12">
+        <v>0.346</v>
+      </c>
+      <c r="V12">
+        <v>0.346</v>
+      </c>
+      <c r="W12">
+        <v>0.3516086956521739</v>
+      </c>
+      <c r="X12">
+        <v>0.3572173913043478</v>
+      </c>
+      <c r="Y12">
+        <v>0.3628260869565217</v>
+      </c>
+      <c r="Z12">
+        <v>0.3684347826086957</v>
+      </c>
+      <c r="AA12">
+        <v>0.3740434782608696</v>
+      </c>
+      <c r="AB12">
+        <v>0.3796521739130435</v>
+      </c>
+      <c r="AC12">
+        <v>0.3852608695652173</v>
+      </c>
+      <c r="AD12">
+        <v>0.3908695652173912</v>
+      </c>
+      <c r="AE12">
+        <v>0.3964782608695652</v>
+      </c>
+      <c r="AF12">
+        <v>0.4020869565217391</v>
+      </c>
+      <c r="AG12">
+        <v>0.407695652173913</v>
+      </c>
+      <c r="AH12">
+        <v>0.4133043478260869</v>
+      </c>
+      <c r="AI12">
+        <v>0.4189130434782609</v>
+      </c>
+      <c r="AJ12">
+        <v>0.4245217391304348</v>
+      </c>
+      <c r="AK12">
+        <v>0.4301304347826087</v>
+      </c>
+      <c r="AL12">
+        <v>0.4357391304347826</v>
+      </c>
+      <c r="AM12">
+        <v>0.4413478260869565</v>
+      </c>
+      <c r="AN12">
+        <v>0.4469565217391304</v>
+      </c>
+      <c r="AO12">
+        <v>0.4525652173913043</v>
+      </c>
+      <c r="AP12">
+        <v>0.4581739130434782</v>
+      </c>
+      <c r="AQ12">
+        <v>0.4637826086956521</v>
+      </c>
+      <c r="AR12">
+        <v>0.4693913043478261</v>
+      </c>
+      <c r="AS12">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13">
+        <v>46</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.346</v>
+      </c>
+      <c r="K13">
+        <v>0.346</v>
+      </c>
+      <c r="L13">
+        <v>0.346</v>
+      </c>
+      <c r="M13">
+        <v>0.346</v>
+      </c>
+      <c r="N13">
+        <v>0.346</v>
+      </c>
+      <c r="O13">
+        <v>0.346</v>
+      </c>
+      <c r="P13">
+        <v>0.346</v>
+      </c>
+      <c r="Q13">
+        <v>0.346</v>
+      </c>
+      <c r="R13">
+        <v>0.346</v>
+      </c>
+      <c r="S13">
+        <v>0.346</v>
+      </c>
+      <c r="T13">
+        <v>0.346</v>
+      </c>
+      <c r="U13">
+        <v>0.346</v>
+      </c>
+      <c r="V13">
+        <v>0.346</v>
+      </c>
+      <c r="W13">
+        <v>0.3516086956521739</v>
+      </c>
+      <c r="X13">
+        <v>0.3572173913043478</v>
+      </c>
+      <c r="Y13">
+        <v>0.3628260869565217</v>
+      </c>
+      <c r="Z13">
+        <v>0.3684347826086957</v>
+      </c>
+      <c r="AA13">
+        <v>0.3740434782608696</v>
+      </c>
+      <c r="AB13">
+        <v>0.3796521739130435</v>
+      </c>
+      <c r="AC13">
+        <v>0.3852608695652173</v>
+      </c>
+      <c r="AD13">
+        <v>0.3908695652173912</v>
+      </c>
+      <c r="AE13">
+        <v>0.3964782608695652</v>
+      </c>
+      <c r="AF13">
+        <v>0.4020869565217391</v>
+      </c>
+      <c r="AG13">
+        <v>0.407695652173913</v>
+      </c>
+      <c r="AH13">
+        <v>0.4133043478260869</v>
+      </c>
+      <c r="AI13">
+        <v>0.4189130434782609</v>
+      </c>
+      <c r="AJ13">
+        <v>0.4245217391304348</v>
+      </c>
+      <c r="AK13">
+        <v>0.4301304347826087</v>
+      </c>
+      <c r="AL13">
+        <v>0.4357391304347826</v>
+      </c>
+      <c r="AM13">
+        <v>0.4413478260869565</v>
+      </c>
+      <c r="AN13">
+        <v>0.4469565217391304</v>
+      </c>
+      <c r="AO13">
+        <v>0.4525652173913043</v>
+      </c>
+      <c r="AP13">
+        <v>0.4581739130434782</v>
+      </c>
+      <c r="AQ13">
+        <v>0.4637826086956521</v>
+      </c>
+      <c r="AR13">
+        <v>0.4693913043478261</v>
+      </c>
+      <c r="AS13">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14">
+        <v>46</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.346</v>
+      </c>
+      <c r="K14">
+        <v>0.346</v>
+      </c>
+      <c r="L14">
+        <v>0.346</v>
+      </c>
+      <c r="M14">
+        <v>0.346</v>
+      </c>
+      <c r="N14">
+        <v>0.346</v>
+      </c>
+      <c r="O14">
+        <v>0.346</v>
+      </c>
+      <c r="P14">
+        <v>0.346</v>
+      </c>
+      <c r="Q14">
+        <v>0.346</v>
+      </c>
+      <c r="R14">
+        <v>0.346</v>
+      </c>
+      <c r="S14">
+        <v>0.346</v>
+      </c>
+      <c r="T14">
+        <v>0.346</v>
+      </c>
+      <c r="U14">
+        <v>0.346</v>
+      </c>
+      <c r="V14">
+        <v>0.346</v>
+      </c>
+      <c r="W14">
+        <v>0.3516086956521739</v>
+      </c>
+      <c r="X14">
+        <v>0.3572173913043478</v>
+      </c>
+      <c r="Y14">
+        <v>0.3628260869565217</v>
+      </c>
+      <c r="Z14">
+        <v>0.3684347826086957</v>
+      </c>
+      <c r="AA14">
+        <v>0.3740434782608696</v>
+      </c>
+      <c r="AB14">
+        <v>0.3796521739130435</v>
+      </c>
+      <c r="AC14">
+        <v>0.3852608695652173</v>
+      </c>
+      <c r="AD14">
+        <v>0.3908695652173912</v>
+      </c>
+      <c r="AE14">
+        <v>0.3964782608695652</v>
+      </c>
+      <c r="AF14">
+        <v>0.4020869565217391</v>
+      </c>
+      <c r="AG14">
+        <v>0.407695652173913</v>
+      </c>
+      <c r="AH14">
+        <v>0.4133043478260869</v>
+      </c>
+      <c r="AI14">
+        <v>0.4189130434782609</v>
+      </c>
+      <c r="AJ14">
+        <v>0.4245217391304348</v>
+      </c>
+      <c r="AK14">
+        <v>0.4301304347826087</v>
+      </c>
+      <c r="AL14">
+        <v>0.4357391304347826</v>
+      </c>
+      <c r="AM14">
+        <v>0.4413478260869565</v>
+      </c>
+      <c r="AN14">
+        <v>0.4469565217391304</v>
+      </c>
+      <c r="AO14">
+        <v>0.4525652173913043</v>
+      </c>
+      <c r="AP14">
+        <v>0.4581739130434782</v>
+      </c>
+      <c r="AQ14">
+        <v>0.4637826086956521</v>
+      </c>
+      <c r="AR14">
+        <v>0.4693913043478261</v>
+      </c>
+      <c r="AS14">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15">
+        <v>46</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.346</v>
+      </c>
+      <c r="K15">
+        <v>0.346</v>
+      </c>
+      <c r="L15">
+        <v>0.346</v>
+      </c>
+      <c r="M15">
+        <v>0.346</v>
+      </c>
+      <c r="N15">
+        <v>0.346</v>
+      </c>
+      <c r="O15">
+        <v>0.346</v>
+      </c>
+      <c r="P15">
+        <v>0.346</v>
+      </c>
+      <c r="Q15">
+        <v>0.346</v>
+      </c>
+      <c r="R15">
+        <v>0.346</v>
+      </c>
+      <c r="S15">
+        <v>0.346</v>
+      </c>
+      <c r="T15">
+        <v>0.346</v>
+      </c>
+      <c r="U15">
+        <v>0.346</v>
+      </c>
+      <c r="V15">
+        <v>0.346</v>
+      </c>
+      <c r="W15">
+        <v>0.3516086956521739</v>
+      </c>
+      <c r="X15">
+        <v>0.3572173913043478</v>
+      </c>
+      <c r="Y15">
+        <v>0.3628260869565217</v>
+      </c>
+      <c r="Z15">
+        <v>0.3684347826086957</v>
+      </c>
+      <c r="AA15">
+        <v>0.3740434782608696</v>
+      </c>
+      <c r="AB15">
+        <v>0.3796521739130435</v>
+      </c>
+      <c r="AC15">
+        <v>0.3852608695652173</v>
+      </c>
+      <c r="AD15">
+        <v>0.3908695652173912</v>
+      </c>
+      <c r="AE15">
+        <v>0.3964782608695652</v>
+      </c>
+      <c r="AF15">
+        <v>0.4020869565217391</v>
+      </c>
+      <c r="AG15">
+        <v>0.407695652173913</v>
+      </c>
+      <c r="AH15">
+        <v>0.4133043478260869</v>
+      </c>
+      <c r="AI15">
+        <v>0.4189130434782609</v>
+      </c>
+      <c r="AJ15">
+        <v>0.4245217391304348</v>
+      </c>
+      <c r="AK15">
+        <v>0.4301304347826087</v>
+      </c>
+      <c r="AL15">
+        <v>0.4357391304347826</v>
+      </c>
+      <c r="AM15">
+        <v>0.4413478260869565</v>
+      </c>
+      <c r="AN15">
+        <v>0.4469565217391304</v>
+      </c>
+      <c r="AO15">
+        <v>0.4525652173913043</v>
+      </c>
+      <c r="AP15">
+        <v>0.4581739130434782</v>
+      </c>
+      <c r="AQ15">
+        <v>0.4637826086956521</v>
+      </c>
+      <c r="AR15">
+        <v>0.4693913043478261</v>
+      </c>
+      <c r="AS15">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16">
+        <v>46</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.346</v>
+      </c>
+      <c r="K16">
+        <v>0.346</v>
+      </c>
+      <c r="L16">
+        <v>0.346</v>
+      </c>
+      <c r="M16">
+        <v>0.346</v>
+      </c>
+      <c r="N16">
+        <v>0.346</v>
+      </c>
+      <c r="O16">
+        <v>0.346</v>
+      </c>
+      <c r="P16">
+        <v>0.346</v>
+      </c>
+      <c r="Q16">
+        <v>0.346</v>
+      </c>
+      <c r="R16">
+        <v>0.346</v>
+      </c>
+      <c r="S16">
+        <v>0.346</v>
+      </c>
+      <c r="T16">
+        <v>0.346</v>
+      </c>
+      <c r="U16">
+        <v>0.346</v>
+      </c>
+      <c r="V16">
+        <v>0.346</v>
+      </c>
+      <c r="W16">
+        <v>0.3516086956521739</v>
+      </c>
+      <c r="X16">
+        <v>0.3572173913043478</v>
+      </c>
+      <c r="Y16">
+        <v>0.3628260869565217</v>
+      </c>
+      <c r="Z16">
+        <v>0.3684347826086957</v>
+      </c>
+      <c r="AA16">
+        <v>0.3740434782608696</v>
+      </c>
+      <c r="AB16">
+        <v>0.3796521739130435</v>
+      </c>
+      <c r="AC16">
+        <v>0.3852608695652173</v>
+      </c>
+      <c r="AD16">
+        <v>0.3908695652173912</v>
+      </c>
+      <c r="AE16">
+        <v>0.3964782608695652</v>
+      </c>
+      <c r="AF16">
+        <v>0.4020869565217391</v>
+      </c>
+      <c r="AG16">
+        <v>0.407695652173913</v>
+      </c>
+      <c r="AH16">
+        <v>0.4133043478260869</v>
+      </c>
+      <c r="AI16">
+        <v>0.4189130434782609</v>
+      </c>
+      <c r="AJ16">
+        <v>0.4245217391304348</v>
+      </c>
+      <c r="AK16">
+        <v>0.4301304347826087</v>
+      </c>
+      <c r="AL16">
+        <v>0.4357391304347826</v>
+      </c>
+      <c r="AM16">
+        <v>0.4413478260869565</v>
+      </c>
+      <c r="AN16">
+        <v>0.4469565217391304</v>
+      </c>
+      <c r="AO16">
+        <v>0.4525652173913043</v>
+      </c>
+      <c r="AP16">
+        <v>0.4581739130434782</v>
+      </c>
+      <c r="AQ16">
+        <v>0.4637826086956521</v>
+      </c>
+      <c r="AR16">
+        <v>0.4693913043478261</v>
+      </c>
+      <c r="AS16">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>193</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.95</v>
+      </c>
+      <c r="K17">
+        <v>0.95</v>
+      </c>
+      <c r="L17">
+        <v>0.95</v>
+      </c>
+      <c r="M17">
+        <v>0.95</v>
+      </c>
+      <c r="N17">
+        <v>0.95</v>
+      </c>
+      <c r="O17">
+        <v>0.95</v>
+      </c>
+      <c r="P17">
+        <v>0.95</v>
+      </c>
+      <c r="Q17">
+        <v>0.95</v>
+      </c>
+      <c r="R17">
+        <v>0.95</v>
+      </c>
+      <c r="S17">
+        <v>0.95</v>
+      </c>
+      <c r="T17">
+        <v>0.95</v>
+      </c>
+      <c r="U17">
+        <v>0.95</v>
+      </c>
+      <c r="V17">
+        <v>0.95</v>
+      </c>
+      <c r="W17">
+        <v>0.95</v>
+      </c>
+      <c r="X17">
+        <v>0.95</v>
+      </c>
+      <c r="Y17">
+        <v>0.9499999999999998</v>
+      </c>
+      <c r="Z17">
+        <v>0.95</v>
+      </c>
+      <c r="AA17">
+        <v>0.95</v>
+      </c>
+      <c r="AB17">
+        <v>0.95</v>
+      </c>
+      <c r="AC17">
+        <v>0.95</v>
+      </c>
+      <c r="AD17">
+        <v>0.95</v>
+      </c>
+      <c r="AE17">
+        <v>0.95</v>
+      </c>
+      <c r="AF17">
+        <v>0.95</v>
+      </c>
+      <c r="AG17">
+        <v>0.95</v>
+      </c>
+      <c r="AH17">
+        <v>0.95</v>
+      </c>
+      <c r="AI17">
+        <v>0.95</v>
+      </c>
+      <c r="AJ17">
+        <v>0.95</v>
+      </c>
+      <c r="AK17">
+        <v>0.95</v>
+      </c>
+      <c r="AL17">
+        <v>0.95</v>
+      </c>
+      <c r="AM17">
+        <v>0.95</v>
+      </c>
+      <c r="AN17">
+        <v>0.95</v>
+      </c>
+      <c r="AO17">
+        <v>0.95</v>
+      </c>
+      <c r="AP17">
+        <v>0.95</v>
+      </c>
+      <c r="AQ17">
+        <v>0.95</v>
+      </c>
+      <c r="AR17">
+        <v>0.95</v>
+      </c>
+      <c r="AS17">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18">
+        <v>43</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0.01847826086956521</v>
+      </c>
+      <c r="X18">
+        <v>0.03695652173913043</v>
+      </c>
+      <c r="Y18">
+        <v>0.05543478260869565</v>
+      </c>
+      <c r="Z18">
+        <v>0.07391304347826086</v>
+      </c>
+      <c r="AA18">
+        <v>0.09239130434782608</v>
+      </c>
+      <c r="AB18">
+        <v>0.1108695652173913</v>
+      </c>
+      <c r="AC18">
+        <v>0.1293478260869565</v>
+      </c>
+      <c r="AD18">
+        <v>0.1478260869565217</v>
+      </c>
+      <c r="AE18">
+        <v>0.166304347826087</v>
+      </c>
+      <c r="AF18">
+        <v>0.1847826086956522</v>
+      </c>
+      <c r="AG18">
+        <v>0.2032608695652174</v>
+      </c>
+      <c r="AH18">
+        <v>0.2217391304347826</v>
+      </c>
+      <c r="AI18">
+        <v>0.2402173913043478</v>
+      </c>
+      <c r="AJ18">
+        <v>0.258695652173913</v>
+      </c>
+      <c r="AK18">
+        <v>0.2771739130434783</v>
+      </c>
+      <c r="AL18">
+        <v>0.2956521739130434</v>
+      </c>
+      <c r="AM18">
+        <v>0.3141304347826087</v>
+      </c>
+      <c r="AN18">
+        <v>0.3326086956521739</v>
+      </c>
+      <c r="AO18">
+        <v>0.3510869565217391</v>
+      </c>
+      <c r="AP18">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="AQ18">
+        <v>0.3880434782608695</v>
+      </c>
+      <c r="AR18">
+        <v>0.4065217391304348</v>
+      </c>
+      <c r="AS18">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19">
+        <v>43</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0.01847826086956521</v>
+      </c>
+      <c r="X19">
+        <v>0.03695652173913043</v>
+      </c>
+      <c r="Y19">
+        <v>0.05543478260869565</v>
+      </c>
+      <c r="Z19">
+        <v>0.07391304347826086</v>
+      </c>
+      <c r="AA19">
+        <v>0.09239130434782608</v>
+      </c>
+      <c r="AB19">
+        <v>0.1108695652173913</v>
+      </c>
+      <c r="AC19">
+        <v>0.1293478260869565</v>
+      </c>
+      <c r="AD19">
+        <v>0.1478260869565217</v>
+      </c>
+      <c r="AE19">
+        <v>0.166304347826087</v>
+      </c>
+      <c r="AF19">
+        <v>0.1847826086956522</v>
+      </c>
+      <c r="AG19">
+        <v>0.2032608695652174</v>
+      </c>
+      <c r="AH19">
+        <v>0.2217391304347826</v>
+      </c>
+      <c r="AI19">
+        <v>0.2402173913043478</v>
+      </c>
+      <c r="AJ19">
+        <v>0.258695652173913</v>
+      </c>
+      <c r="AK19">
+        <v>0.2771739130434783</v>
+      </c>
+      <c r="AL19">
+        <v>0.2956521739130434</v>
+      </c>
+      <c r="AM19">
+        <v>0.3141304347826087</v>
+      </c>
+      <c r="AN19">
+        <v>0.3326086956521739</v>
+      </c>
+      <c r="AO19">
+        <v>0.3510869565217391</v>
+      </c>
+      <c r="AP19">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="AQ19">
+        <v>0.3880434782608695</v>
+      </c>
+      <c r="AR19">
+        <v>0.4065217391304348</v>
+      </c>
+      <c r="AS19">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20">
+        <v>43</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0.01847826086956521</v>
+      </c>
+      <c r="X20">
+        <v>0.03695652173913043</v>
+      </c>
+      <c r="Y20">
+        <v>0.05543478260869565</v>
+      </c>
+      <c r="Z20">
+        <v>0.07391304347826086</v>
+      </c>
+      <c r="AA20">
+        <v>0.09239130434782608</v>
+      </c>
+      <c r="AB20">
+        <v>0.1108695652173913</v>
+      </c>
+      <c r="AC20">
+        <v>0.1293478260869565</v>
+      </c>
+      <c r="AD20">
+        <v>0.1478260869565217</v>
+      </c>
+      <c r="AE20">
+        <v>0.166304347826087</v>
+      </c>
+      <c r="AF20">
+        <v>0.1847826086956522</v>
+      </c>
+      <c r="AG20">
+        <v>0.2032608695652174</v>
+      </c>
+      <c r="AH20">
+        <v>0.2217391304347826</v>
+      </c>
+      <c r="AI20">
+        <v>0.2402173913043478</v>
+      </c>
+      <c r="AJ20">
+        <v>0.258695652173913</v>
+      </c>
+      <c r="AK20">
+        <v>0.2771739130434783</v>
+      </c>
+      <c r="AL20">
+        <v>0.2956521739130434</v>
+      </c>
+      <c r="AM20">
+        <v>0.3141304347826087</v>
+      </c>
+      <c r="AN20">
+        <v>0.3326086956521739</v>
+      </c>
+      <c r="AO20">
+        <v>0.3510869565217391</v>
+      </c>
+      <c r="AP20">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="AQ20">
+        <v>0.3880434782608695</v>
+      </c>
+      <c r="AR20">
+        <v>0.4065217391304348</v>
+      </c>
+      <c r="AS20">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21">
+        <v>43</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0.01847826086956521</v>
+      </c>
+      <c r="X21">
+        <v>0.03695652173913043</v>
+      </c>
+      <c r="Y21">
+        <v>0.05543478260869565</v>
+      </c>
+      <c r="Z21">
+        <v>0.07391304347826086</v>
+      </c>
+      <c r="AA21">
+        <v>0.09239130434782608</v>
+      </c>
+      <c r="AB21">
+        <v>0.1108695652173913</v>
+      </c>
+      <c r="AC21">
+        <v>0.1293478260869565</v>
+      </c>
+      <c r="AD21">
+        <v>0.1478260869565217</v>
+      </c>
+      <c r="AE21">
+        <v>0.166304347826087</v>
+      </c>
+      <c r="AF21">
+        <v>0.1847826086956522</v>
+      </c>
+      <c r="AG21">
+        <v>0.2032608695652174</v>
+      </c>
+      <c r="AH21">
+        <v>0.2217391304347826</v>
+      </c>
+      <c r="AI21">
+        <v>0.2402173913043478</v>
+      </c>
+      <c r="AJ21">
+        <v>0.258695652173913</v>
+      </c>
+      <c r="AK21">
+        <v>0.2771739130434783</v>
+      </c>
+      <c r="AL21">
+        <v>0.2956521739130434</v>
+      </c>
+      <c r="AM21">
+        <v>0.3141304347826087</v>
+      </c>
+      <c r="AN21">
+        <v>0.3326086956521739</v>
+      </c>
+      <c r="AO21">
+        <v>0.3510869565217391</v>
+      </c>
+      <c r="AP21">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="AQ21">
+        <v>0.3880434782608695</v>
+      </c>
+      <c r="AR21">
+        <v>0.4065217391304348</v>
+      </c>
+      <c r="AS21">
+        <v>0.425</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/louisiana/transformations/templates/calibrated/louisiana/model_input_variables_louisiana_ce_calibrated.xlsx
+++ b/louisiana/transformations/templates/calibrated/louisiana/model_input_variables_louisiana_ce_calibrated.xlsx
@@ -13301,7 +13301,7 @@
         <v>146</v>
       </c>
       <c r="C100">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -13426,7 +13426,7 @@
         <v>147</v>
       </c>
       <c r="C101">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -13551,7 +13551,7 @@
         <v>148</v>
       </c>
       <c r="C102">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -13676,7 +13676,7 @@
         <v>149</v>
       </c>
       <c r="C103">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -13923,7 +13923,7 @@
         <v>151</v>
       </c>
       <c r="C105">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -14048,7 +14048,7 @@
         <v>152</v>
       </c>
       <c r="C106">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -17589,7 +17589,7 @@
         <v>181</v>
       </c>
       <c r="C135">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -18202,7 +18202,7 @@
         <v>186</v>
       </c>
       <c r="C140">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -18327,7 +18327,7 @@
         <v>187</v>
       </c>
       <c r="C141">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -18452,7 +18452,7 @@
         <v>188</v>
       </c>
       <c r="C142">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -18577,7 +18577,7 @@
         <v>189</v>
       </c>
       <c r="C143">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -18702,7 +18702,7 @@
         <v>190</v>
       </c>
       <c r="C144">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -18827,7 +18827,7 @@
         <v>191</v>
       </c>
       <c r="C145">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -18952,7 +18952,7 @@
         <v>192</v>
       </c>
       <c r="C146">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -26885,7 +26885,7 @@
         <v>257</v>
       </c>
       <c r="C211">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H211">
         <v>1</v>
@@ -27010,7 +27010,7 @@
         <v>258</v>
       </c>
       <c r="C212">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -27135,7 +27135,7 @@
         <v>259</v>
       </c>
       <c r="C213">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -27260,7 +27260,7 @@
         <v>260</v>
       </c>
       <c r="C214">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -28999,7 +28999,7 @@
         <v>146</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -29124,7 +29124,7 @@
         <v>147</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -29249,7 +29249,7 @@
         <v>148</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -29374,7 +29374,7 @@
         <v>149</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -29499,7 +29499,7 @@
         <v>151</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -29624,7 +29624,7 @@
         <v>152</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -29871,7 +29871,7 @@
         <v>181</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -29996,7 +29996,7 @@
         <v>186</v>
       </c>
       <c r="C10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -30121,7 +30121,7 @@
         <v>187</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -30246,7 +30246,7 @@
         <v>188</v>
       </c>
       <c r="C12">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -30371,7 +30371,7 @@
         <v>189</v>
       </c>
       <c r="C13">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -30496,7 +30496,7 @@
         <v>190</v>
       </c>
       <c r="C14">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -30621,7 +30621,7 @@
         <v>191</v>
       </c>
       <c r="C15">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -30746,7 +30746,7 @@
         <v>192</v>
       </c>
       <c r="C16">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -30993,7 +30993,7 @@
         <v>257</v>
       </c>
       <c r="C18">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -31118,7 +31118,7 @@
         <v>258</v>
       </c>
       <c r="C19">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -31243,7 +31243,7 @@
         <v>259</v>
       </c>
       <c r="C20">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -31368,7 +31368,7 @@
         <v>260</v>
       </c>
       <c r="C21">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -31643,7 +31643,7 @@
         <v>146</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -31768,7 +31768,7 @@
         <v>147</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -31893,7 +31893,7 @@
         <v>148</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -32018,7 +32018,7 @@
         <v>149</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -32143,7 +32143,7 @@
         <v>151</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -32268,7 +32268,7 @@
         <v>152</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -32515,7 +32515,7 @@
         <v>181</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -32640,7 +32640,7 @@
         <v>186</v>
       </c>
       <c r="C10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -32765,7 +32765,7 @@
         <v>187</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -32890,7 +32890,7 @@
         <v>188</v>
       </c>
       <c r="C12">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -33015,7 +33015,7 @@
         <v>189</v>
       </c>
       <c r="C13">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -33140,7 +33140,7 @@
         <v>190</v>
       </c>
       <c r="C14">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -33265,7 +33265,7 @@
         <v>191</v>
       </c>
       <c r="C15">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -33390,7 +33390,7 @@
         <v>192</v>
       </c>
       <c r="C16">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -33637,7 +33637,7 @@
         <v>257</v>
       </c>
       <c r="C18">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -33762,7 +33762,7 @@
         <v>258</v>
       </c>
       <c r="C19">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -33887,7 +33887,7 @@
         <v>259</v>
       </c>
       <c r="C20">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -34012,7 +34012,7 @@
         <v>260</v>
       </c>
       <c r="C21">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -34287,7 +34287,7 @@
         <v>146</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -34412,7 +34412,7 @@
         <v>147</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -34537,7 +34537,7 @@
         <v>148</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -34662,7 +34662,7 @@
         <v>149</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -34787,7 +34787,7 @@
         <v>151</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -34912,7 +34912,7 @@
         <v>152</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -35159,7 +35159,7 @@
         <v>181</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -35284,7 +35284,7 @@
         <v>186</v>
       </c>
       <c r="C10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -35409,7 +35409,7 @@
         <v>187</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -35534,7 +35534,7 @@
         <v>188</v>
       </c>
       <c r="C12">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -35659,7 +35659,7 @@
         <v>189</v>
       </c>
       <c r="C13">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -35784,7 +35784,7 @@
         <v>190</v>
       </c>
       <c r="C14">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -35909,7 +35909,7 @@
         <v>191</v>
       </c>
       <c r="C15">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -36034,7 +36034,7 @@
         <v>192</v>
       </c>
       <c r="C16">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -36281,7 +36281,7 @@
         <v>257</v>
       </c>
       <c r="C18">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -36406,7 +36406,7 @@
         <v>258</v>
       </c>
       <c r="C19">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -36531,7 +36531,7 @@
         <v>259</v>
       </c>
       <c r="C20">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -36656,7 +36656,7 @@
         <v>260</v>
       </c>
       <c r="C21">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -36931,7 +36931,7 @@
         <v>146</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -37056,7 +37056,7 @@
         <v>147</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -37181,7 +37181,7 @@
         <v>148</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -37306,7 +37306,7 @@
         <v>149</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -37431,7 +37431,7 @@
         <v>151</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -37556,7 +37556,7 @@
         <v>152</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -37803,7 +37803,7 @@
         <v>181</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -37928,7 +37928,7 @@
         <v>186</v>
       </c>
       <c r="C10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -38053,7 +38053,7 @@
         <v>187</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -38178,7 +38178,7 @@
         <v>188</v>
       </c>
       <c r="C12">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -38303,7 +38303,7 @@
         <v>189</v>
       </c>
       <c r="C13">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -38428,7 +38428,7 @@
         <v>190</v>
       </c>
       <c r="C14">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -38553,7 +38553,7 @@
         <v>191</v>
       </c>
       <c r="C15">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -38678,7 +38678,7 @@
         <v>192</v>
       </c>
       <c r="C16">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -38925,7 +38925,7 @@
         <v>257</v>
       </c>
       <c r="C18">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -39050,7 +39050,7 @@
         <v>258</v>
       </c>
       <c r="C19">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -39175,7 +39175,7 @@
         <v>259</v>
       </c>
       <c r="C20">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -39300,7 +39300,7 @@
         <v>260</v>
       </c>
       <c r="C21">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H21">
         <v>1</v>

--- a/louisiana/transformations/templates/calibrated/louisiana/model_input_variables_louisiana_ce_calibrated.xlsx
+++ b/louisiana/transformations/templates/calibrated/louisiana/model_input_variables_louisiana_ce_calibrated.xlsx
@@ -9,16 +9,13 @@
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
     <sheet name="strategy_id-6004" sheetId="2" r:id="rId2"/>
-    <sheet name="strategy_id-6005" sheetId="3" r:id="rId3"/>
-    <sheet name="strategy_id-6006" sheetId="4" r:id="rId4"/>
-    <sheet name="strategy_id-6007" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="273">
   <si>
     <t>subsector</t>
   </si>
@@ -31488,7936 +31485,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2">
-        <v>43</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0.02</v>
-      </c>
-      <c r="K2">
-        <v>0.02</v>
-      </c>
-      <c r="L2">
-        <v>0.02</v>
-      </c>
-      <c r="M2">
-        <v>0.02</v>
-      </c>
-      <c r="N2">
-        <v>0.02</v>
-      </c>
-      <c r="O2">
-        <v>0.02</v>
-      </c>
-      <c r="P2">
-        <v>0.02</v>
-      </c>
-      <c r="Q2">
-        <v>0.02</v>
-      </c>
-      <c r="R2">
-        <v>0.02</v>
-      </c>
-      <c r="S2">
-        <v>0.02</v>
-      </c>
-      <c r="T2">
-        <v>0.02</v>
-      </c>
-      <c r="U2">
-        <v>0.02</v>
-      </c>
-      <c r="V2">
-        <v>0.02</v>
-      </c>
-      <c r="W2">
-        <v>0.02945652173913044</v>
-      </c>
-      <c r="X2">
-        <v>0.03891304347826087</v>
-      </c>
-      <c r="Y2">
-        <v>0.0483695652173913</v>
-      </c>
-      <c r="Z2">
-        <v>0.05782608695652174</v>
-      </c>
-      <c r="AA2">
-        <v>0.06728260869565217</v>
-      </c>
-      <c r="AB2">
-        <v>0.0767391304347826</v>
-      </c>
-      <c r="AC2">
-        <v>0.08619565217391305</v>
-      </c>
-      <c r="AD2">
-        <v>0.09565217391304348</v>
-      </c>
-      <c r="AE2">
-        <v>0.1051086956521739</v>
-      </c>
-      <c r="AF2">
-        <v>0.1145652173913043</v>
-      </c>
-      <c r="AG2">
-        <v>0.1240217391304348</v>
-      </c>
-      <c r="AH2">
-        <v>0.1334782608695652</v>
-      </c>
-      <c r="AI2">
-        <v>0.1429347826086956</v>
-      </c>
-      <c r="AJ2">
-        <v>0.1523913043478261</v>
-      </c>
-      <c r="AK2">
-        <v>0.1618478260869565</v>
-      </c>
-      <c r="AL2">
-        <v>0.1713043478260869</v>
-      </c>
-      <c r="AM2">
-        <v>0.1807608695652174</v>
-      </c>
-      <c r="AN2">
-        <v>0.1902173913043478</v>
-      </c>
-      <c r="AO2">
-        <v>0.1996739130434783</v>
-      </c>
-      <c r="AP2">
-        <v>0.2091304347826087</v>
-      </c>
-      <c r="AQ2">
-        <v>0.2185869565217391</v>
-      </c>
-      <c r="AR2">
-        <v>0.2280434782608696</v>
-      </c>
-      <c r="AS2">
-        <v>0.2375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3">
-        <v>43</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0.4</v>
-      </c>
-      <c r="K3">
-        <v>0.4</v>
-      </c>
-      <c r="L3">
-        <v>0.4</v>
-      </c>
-      <c r="M3">
-        <v>0.4</v>
-      </c>
-      <c r="N3">
-        <v>0.4</v>
-      </c>
-      <c r="O3">
-        <v>0.4</v>
-      </c>
-      <c r="P3">
-        <v>0.4</v>
-      </c>
-      <c r="Q3">
-        <v>0.4</v>
-      </c>
-      <c r="R3">
-        <v>0.4</v>
-      </c>
-      <c r="S3">
-        <v>0.4</v>
-      </c>
-      <c r="T3">
-        <v>0.4</v>
-      </c>
-      <c r="U3">
-        <v>0.4</v>
-      </c>
-      <c r="V3">
-        <v>0.4</v>
-      </c>
-      <c r="W3">
-        <v>0.4</v>
-      </c>
-      <c r="X3">
-        <v>0.4000000000000001</v>
-      </c>
-      <c r="Y3">
-        <v>0.4</v>
-      </c>
-      <c r="Z3">
-        <v>0.4</v>
-      </c>
-      <c r="AA3">
-        <v>0.4</v>
-      </c>
-      <c r="AB3">
-        <v>0.4</v>
-      </c>
-      <c r="AC3">
-        <v>0.4</v>
-      </c>
-      <c r="AD3">
-        <v>0.4</v>
-      </c>
-      <c r="AE3">
-        <v>0.4</v>
-      </c>
-      <c r="AF3">
-        <v>0.4</v>
-      </c>
-      <c r="AG3">
-        <v>0.4</v>
-      </c>
-      <c r="AH3">
-        <v>0.4</v>
-      </c>
-      <c r="AI3">
-        <v>0.4</v>
-      </c>
-      <c r="AJ3">
-        <v>0.4</v>
-      </c>
-      <c r="AK3">
-        <v>0.4</v>
-      </c>
-      <c r="AL3">
-        <v>0.4</v>
-      </c>
-      <c r="AM3">
-        <v>0.4</v>
-      </c>
-      <c r="AN3">
-        <v>0.4</v>
-      </c>
-      <c r="AO3">
-        <v>0.4</v>
-      </c>
-      <c r="AP3">
-        <v>0.4</v>
-      </c>
-      <c r="AQ3">
-        <v>0.4</v>
-      </c>
-      <c r="AR3">
-        <v>0.4</v>
-      </c>
-      <c r="AS3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4">
-        <v>43</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0.02</v>
-      </c>
-      <c r="K4">
-        <v>0.02</v>
-      </c>
-      <c r="L4">
-        <v>0.02</v>
-      </c>
-      <c r="M4">
-        <v>0.02</v>
-      </c>
-      <c r="N4">
-        <v>0.02</v>
-      </c>
-      <c r="O4">
-        <v>0.02</v>
-      </c>
-      <c r="P4">
-        <v>0.02</v>
-      </c>
-      <c r="Q4">
-        <v>0.02</v>
-      </c>
-      <c r="R4">
-        <v>0.02</v>
-      </c>
-      <c r="S4">
-        <v>0.02</v>
-      </c>
-      <c r="T4">
-        <v>0.02</v>
-      </c>
-      <c r="U4">
-        <v>0.02</v>
-      </c>
-      <c r="V4">
-        <v>0.02</v>
-      </c>
-      <c r="W4">
-        <v>0.02945652173913044</v>
-      </c>
-      <c r="X4">
-        <v>0.03891304347826087</v>
-      </c>
-      <c r="Y4">
-        <v>0.0483695652173913</v>
-      </c>
-      <c r="Z4">
-        <v>0.05782608695652174</v>
-      </c>
-      <c r="AA4">
-        <v>0.06728260869565217</v>
-      </c>
-      <c r="AB4">
-        <v>0.0767391304347826</v>
-      </c>
-      <c r="AC4">
-        <v>0.08619565217391305</v>
-      </c>
-      <c r="AD4">
-        <v>0.09565217391304348</v>
-      </c>
-      <c r="AE4">
-        <v>0.1051086956521739</v>
-      </c>
-      <c r="AF4">
-        <v>0.1145652173913043</v>
-      </c>
-      <c r="AG4">
-        <v>0.1240217391304348</v>
-      </c>
-      <c r="AH4">
-        <v>0.1334782608695652</v>
-      </c>
-      <c r="AI4">
-        <v>0.1429347826086956</v>
-      </c>
-      <c r="AJ4">
-        <v>0.1523913043478261</v>
-      </c>
-      <c r="AK4">
-        <v>0.1618478260869565</v>
-      </c>
-      <c r="AL4">
-        <v>0.1713043478260869</v>
-      </c>
-      <c r="AM4">
-        <v>0.1807608695652174</v>
-      </c>
-      <c r="AN4">
-        <v>0.1902173913043478</v>
-      </c>
-      <c r="AO4">
-        <v>0.1996739130434783</v>
-      </c>
-      <c r="AP4">
-        <v>0.2091304347826087</v>
-      </c>
-      <c r="AQ4">
-        <v>0.2185869565217391</v>
-      </c>
-      <c r="AR4">
-        <v>0.2280434782608696</v>
-      </c>
-      <c r="AS4">
-        <v>0.2375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5">
-        <v>43</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="K5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="L5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="M5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="N5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="O5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="P5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="Q5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="R5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="S5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="T5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="U5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="V5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="W5">
-        <v>0.04634614461668615</v>
-      </c>
-      <c r="X5">
-        <v>0.0550349562250186</v>
-      </c>
-      <c r="Y5">
-        <v>0.06372376783335104</v>
-      </c>
-      <c r="Z5">
-        <v>0.07241257944168349</v>
-      </c>
-      <c r="AA5">
-        <v>0.08110139105001593</v>
-      </c>
-      <c r="AB5">
-        <v>0.08979020265834839</v>
-      </c>
-      <c r="AC5">
-        <v>0.09847901426668083</v>
-      </c>
-      <c r="AD5">
-        <v>0.1071678258750133</v>
-      </c>
-      <c r="AE5">
-        <v>0.1158566374833457</v>
-      </c>
-      <c r="AF5">
-        <v>0.1245454490916782</v>
-      </c>
-      <c r="AG5">
-        <v>0.1332342607000106</v>
-      </c>
-      <c r="AH5">
-        <v>0.1419230723083431</v>
-      </c>
-      <c r="AI5">
-        <v>0.1506118839166755</v>
-      </c>
-      <c r="AJ5">
-        <v>0.159300695525008</v>
-      </c>
-      <c r="AK5">
-        <v>0.1679895071333404</v>
-      </c>
-      <c r="AL5">
-        <v>0.1766783187416729</v>
-      </c>
-      <c r="AM5">
-        <v>0.1853671303500053</v>
-      </c>
-      <c r="AN5">
-        <v>0.1940559419583378</v>
-      </c>
-      <c r="AO5">
-        <v>0.2027447535666702</v>
-      </c>
-      <c r="AP5">
-        <v>0.2114335651750026</v>
-      </c>
-      <c r="AQ5">
-        <v>0.2201223767833351</v>
-      </c>
-      <c r="AR5">
-        <v>0.2288111883916675</v>
-      </c>
-      <c r="AS5">
-        <v>0.2375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6">
-        <v>43</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="K6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="L6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="M6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="N6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="O6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="P6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="Q6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="R6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="S6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="T6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="U6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="V6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="W6">
-        <v>0.04634614461668615</v>
-      </c>
-      <c r="X6">
-        <v>0.0550349562250186</v>
-      </c>
-      <c r="Y6">
-        <v>0.06372376783335104</v>
-      </c>
-      <c r="Z6">
-        <v>0.07241257944168349</v>
-      </c>
-      <c r="AA6">
-        <v>0.08110139105001593</v>
-      </c>
-      <c r="AB6">
-        <v>0.08979020265834839</v>
-      </c>
-      <c r="AC6">
-        <v>0.09847901426668083</v>
-      </c>
-      <c r="AD6">
-        <v>0.1071678258750133</v>
-      </c>
-      <c r="AE6">
-        <v>0.1158566374833457</v>
-      </c>
-      <c r="AF6">
-        <v>0.1245454490916782</v>
-      </c>
-      <c r="AG6">
-        <v>0.1332342607000106</v>
-      </c>
-      <c r="AH6">
-        <v>0.1419230723083431</v>
-      </c>
-      <c r="AI6">
-        <v>0.1506118839166755</v>
-      </c>
-      <c r="AJ6">
-        <v>0.159300695525008</v>
-      </c>
-      <c r="AK6">
-        <v>0.1679895071333404</v>
-      </c>
-      <c r="AL6">
-        <v>0.1766783187416729</v>
-      </c>
-      <c r="AM6">
-        <v>0.1853671303500053</v>
-      </c>
-      <c r="AN6">
-        <v>0.1940559419583378</v>
-      </c>
-      <c r="AO6">
-        <v>0.2027447535666702</v>
-      </c>
-      <c r="AP6">
-        <v>0.2114335651750026</v>
-      </c>
-      <c r="AQ6">
-        <v>0.2201223767833351</v>
-      </c>
-      <c r="AR6">
-        <v>0.2288111883916675</v>
-      </c>
-      <c r="AS6">
-        <v>0.2375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7">
-        <v>43</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="K7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="L7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="M7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="N7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="O7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="P7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="Q7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="R7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="S7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="T7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="U7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="V7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="W7">
-        <v>0.04634614461668615</v>
-      </c>
-      <c r="X7">
-        <v>0.0550349562250186</v>
-      </c>
-      <c r="Y7">
-        <v>0.06372376783335104</v>
-      </c>
-      <c r="Z7">
-        <v>0.07241257944168349</v>
-      </c>
-      <c r="AA7">
-        <v>0.08110139105001593</v>
-      </c>
-      <c r="AB7">
-        <v>0.08979020265834839</v>
-      </c>
-      <c r="AC7">
-        <v>0.09847901426668083</v>
-      </c>
-      <c r="AD7">
-        <v>0.1071678258750133</v>
-      </c>
-      <c r="AE7">
-        <v>0.1158566374833457</v>
-      </c>
-      <c r="AF7">
-        <v>0.1245454490916782</v>
-      </c>
-      <c r="AG7">
-        <v>0.1332342607000106</v>
-      </c>
-      <c r="AH7">
-        <v>0.1419230723083431</v>
-      </c>
-      <c r="AI7">
-        <v>0.1506118839166755</v>
-      </c>
-      <c r="AJ7">
-        <v>0.159300695525008</v>
-      </c>
-      <c r="AK7">
-        <v>0.1679895071333404</v>
-      </c>
-      <c r="AL7">
-        <v>0.1766783187416729</v>
-      </c>
-      <c r="AM7">
-        <v>0.1853671303500053</v>
-      </c>
-      <c r="AN7">
-        <v>0.1940559419583378</v>
-      </c>
-      <c r="AO7">
-        <v>0.2027447535666702</v>
-      </c>
-      <c r="AP7">
-        <v>0.2114335651750026</v>
-      </c>
-      <c r="AQ7">
-        <v>0.2201223767833351</v>
-      </c>
-      <c r="AR7">
-        <v>0.2288111883916675</v>
-      </c>
-      <c r="AS7">
-        <v>0.2375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="K8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="L8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="M8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="N8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="O8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="P8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="Q8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="R8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="S8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="T8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="U8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="V8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="W8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="X8">
-        <v>0.9968985947472471</v>
-      </c>
-      <c r="Y8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="Z8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AA8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AB8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AC8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AD8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AE8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AF8">
-        <v>0.9968985947472471</v>
-      </c>
-      <c r="AG8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AH8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AI8">
-        <v>0.9968985947472471</v>
-      </c>
-      <c r="AJ8">
-        <v>0.9968985947472468</v>
-      </c>
-      <c r="AK8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AL8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AM8">
-        <v>0.9968985947472471</v>
-      </c>
-      <c r="AN8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AO8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AP8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AQ8">
-        <v>0.9968985947472471</v>
-      </c>
-      <c r="AR8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AS8">
-        <v>0.996898594747247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9">
-        <v>44</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0.01847826086956521</v>
-      </c>
-      <c r="X9">
-        <v>0.03695652173913043</v>
-      </c>
-      <c r="Y9">
-        <v>0.05543478260869565</v>
-      </c>
-      <c r="Z9">
-        <v>0.07391304347826086</v>
-      </c>
-      <c r="AA9">
-        <v>0.09239130434782608</v>
-      </c>
-      <c r="AB9">
-        <v>0.1108695652173913</v>
-      </c>
-      <c r="AC9">
-        <v>0.1293478260869565</v>
-      </c>
-      <c r="AD9">
-        <v>0.1478260869565217</v>
-      </c>
-      <c r="AE9">
-        <v>0.166304347826087</v>
-      </c>
-      <c r="AF9">
-        <v>0.1847826086956522</v>
-      </c>
-      <c r="AG9">
-        <v>0.2032608695652174</v>
-      </c>
-      <c r="AH9">
-        <v>0.2217391304347826</v>
-      </c>
-      <c r="AI9">
-        <v>0.2402173913043478</v>
-      </c>
-      <c r="AJ9">
-        <v>0.258695652173913</v>
-      </c>
-      <c r="AK9">
-        <v>0.2771739130434783</v>
-      </c>
-      <c r="AL9">
-        <v>0.2956521739130434</v>
-      </c>
-      <c r="AM9">
-        <v>0.3141304347826087</v>
-      </c>
-      <c r="AN9">
-        <v>0.3326086956521739</v>
-      </c>
-      <c r="AO9">
-        <v>0.3510869565217391</v>
-      </c>
-      <c r="AP9">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AQ9">
-        <v>0.3880434782608695</v>
-      </c>
-      <c r="AR9">
-        <v>0.4065217391304348</v>
-      </c>
-      <c r="AS9">
-        <v>0.425</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10">
-        <v>45</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0.346</v>
-      </c>
-      <c r="K10">
-        <v>0.346</v>
-      </c>
-      <c r="L10">
-        <v>0.346</v>
-      </c>
-      <c r="M10">
-        <v>0.346</v>
-      </c>
-      <c r="N10">
-        <v>0.346</v>
-      </c>
-      <c r="O10">
-        <v>0.346</v>
-      </c>
-      <c r="P10">
-        <v>0.346</v>
-      </c>
-      <c r="Q10">
-        <v>0.346</v>
-      </c>
-      <c r="R10">
-        <v>0.346</v>
-      </c>
-      <c r="S10">
-        <v>0.346</v>
-      </c>
-      <c r="T10">
-        <v>0.346</v>
-      </c>
-      <c r="U10">
-        <v>0.346</v>
-      </c>
-      <c r="V10">
-        <v>0.346</v>
-      </c>
-      <c r="W10">
-        <v>0.3516086956521739</v>
-      </c>
-      <c r="X10">
-        <v>0.3572173913043478</v>
-      </c>
-      <c r="Y10">
-        <v>0.3628260869565217</v>
-      </c>
-      <c r="Z10">
-        <v>0.3684347826086957</v>
-      </c>
-      <c r="AA10">
-        <v>0.3740434782608696</v>
-      </c>
-      <c r="AB10">
-        <v>0.3796521739130435</v>
-      </c>
-      <c r="AC10">
-        <v>0.3852608695652173</v>
-      </c>
-      <c r="AD10">
-        <v>0.3908695652173912</v>
-      </c>
-      <c r="AE10">
-        <v>0.3964782608695652</v>
-      </c>
-      <c r="AF10">
-        <v>0.4020869565217391</v>
-      </c>
-      <c r="AG10">
-        <v>0.407695652173913</v>
-      </c>
-      <c r="AH10">
-        <v>0.4133043478260869</v>
-      </c>
-      <c r="AI10">
-        <v>0.4189130434782609</v>
-      </c>
-      <c r="AJ10">
-        <v>0.4245217391304348</v>
-      </c>
-      <c r="AK10">
-        <v>0.4301304347826087</v>
-      </c>
-      <c r="AL10">
-        <v>0.4357391304347826</v>
-      </c>
-      <c r="AM10">
-        <v>0.4413478260869565</v>
-      </c>
-      <c r="AN10">
-        <v>0.4469565217391304</v>
-      </c>
-      <c r="AO10">
-        <v>0.4525652173913043</v>
-      </c>
-      <c r="AP10">
-        <v>0.4581739130434782</v>
-      </c>
-      <c r="AQ10">
-        <v>0.4637826086956521</v>
-      </c>
-      <c r="AR10">
-        <v>0.4693913043478261</v>
-      </c>
-      <c r="AS10">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11">
-        <v>45</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0.346</v>
-      </c>
-      <c r="K11">
-        <v>0.346</v>
-      </c>
-      <c r="L11">
-        <v>0.346</v>
-      </c>
-      <c r="M11">
-        <v>0.346</v>
-      </c>
-      <c r="N11">
-        <v>0.346</v>
-      </c>
-      <c r="O11">
-        <v>0.346</v>
-      </c>
-      <c r="P11">
-        <v>0.346</v>
-      </c>
-      <c r="Q11">
-        <v>0.346</v>
-      </c>
-      <c r="R11">
-        <v>0.346</v>
-      </c>
-      <c r="S11">
-        <v>0.346</v>
-      </c>
-      <c r="T11">
-        <v>0.346</v>
-      </c>
-      <c r="U11">
-        <v>0.346</v>
-      </c>
-      <c r="V11">
-        <v>0.346</v>
-      </c>
-      <c r="W11">
-        <v>0.3516086956521739</v>
-      </c>
-      <c r="X11">
-        <v>0.3572173913043478</v>
-      </c>
-      <c r="Y11">
-        <v>0.3628260869565217</v>
-      </c>
-      <c r="Z11">
-        <v>0.3684347826086957</v>
-      </c>
-      <c r="AA11">
-        <v>0.3740434782608696</v>
-      </c>
-      <c r="AB11">
-        <v>0.3796521739130435</v>
-      </c>
-      <c r="AC11">
-        <v>0.3852608695652173</v>
-      </c>
-      <c r="AD11">
-        <v>0.3908695652173912</v>
-      </c>
-      <c r="AE11">
-        <v>0.3964782608695652</v>
-      </c>
-      <c r="AF11">
-        <v>0.4020869565217391</v>
-      </c>
-      <c r="AG11">
-        <v>0.407695652173913</v>
-      </c>
-      <c r="AH11">
-        <v>0.4133043478260869</v>
-      </c>
-      <c r="AI11">
-        <v>0.4189130434782609</v>
-      </c>
-      <c r="AJ11">
-        <v>0.4245217391304348</v>
-      </c>
-      <c r="AK11">
-        <v>0.4301304347826087</v>
-      </c>
-      <c r="AL11">
-        <v>0.4357391304347826</v>
-      </c>
-      <c r="AM11">
-        <v>0.4413478260869565</v>
-      </c>
-      <c r="AN11">
-        <v>0.4469565217391304</v>
-      </c>
-      <c r="AO11">
-        <v>0.4525652173913043</v>
-      </c>
-      <c r="AP11">
-        <v>0.4581739130434782</v>
-      </c>
-      <c r="AQ11">
-        <v>0.4637826086956521</v>
-      </c>
-      <c r="AR11">
-        <v>0.4693913043478261</v>
-      </c>
-      <c r="AS11">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12">
-        <v>45</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0.346</v>
-      </c>
-      <c r="K12">
-        <v>0.346</v>
-      </c>
-      <c r="L12">
-        <v>0.346</v>
-      </c>
-      <c r="M12">
-        <v>0.346</v>
-      </c>
-      <c r="N12">
-        <v>0.346</v>
-      </c>
-      <c r="O12">
-        <v>0.346</v>
-      </c>
-      <c r="P12">
-        <v>0.346</v>
-      </c>
-      <c r="Q12">
-        <v>0.346</v>
-      </c>
-      <c r="R12">
-        <v>0.346</v>
-      </c>
-      <c r="S12">
-        <v>0.346</v>
-      </c>
-      <c r="T12">
-        <v>0.346</v>
-      </c>
-      <c r="U12">
-        <v>0.346</v>
-      </c>
-      <c r="V12">
-        <v>0.346</v>
-      </c>
-      <c r="W12">
-        <v>0.3516086956521739</v>
-      </c>
-      <c r="X12">
-        <v>0.3572173913043478</v>
-      </c>
-      <c r="Y12">
-        <v>0.3628260869565217</v>
-      </c>
-      <c r="Z12">
-        <v>0.3684347826086957</v>
-      </c>
-      <c r="AA12">
-        <v>0.3740434782608696</v>
-      </c>
-      <c r="AB12">
-        <v>0.3796521739130435</v>
-      </c>
-      <c r="AC12">
-        <v>0.3852608695652173</v>
-      </c>
-      <c r="AD12">
-        <v>0.3908695652173912</v>
-      </c>
-      <c r="AE12">
-        <v>0.3964782608695652</v>
-      </c>
-      <c r="AF12">
-        <v>0.4020869565217391</v>
-      </c>
-      <c r="AG12">
-        <v>0.407695652173913</v>
-      </c>
-      <c r="AH12">
-        <v>0.4133043478260869</v>
-      </c>
-      <c r="AI12">
-        <v>0.4189130434782609</v>
-      </c>
-      <c r="AJ12">
-        <v>0.4245217391304348</v>
-      </c>
-      <c r="AK12">
-        <v>0.4301304347826087</v>
-      </c>
-      <c r="AL12">
-        <v>0.4357391304347826</v>
-      </c>
-      <c r="AM12">
-        <v>0.4413478260869565</v>
-      </c>
-      <c r="AN12">
-        <v>0.4469565217391304</v>
-      </c>
-      <c r="AO12">
-        <v>0.4525652173913043</v>
-      </c>
-      <c r="AP12">
-        <v>0.4581739130434782</v>
-      </c>
-      <c r="AQ12">
-        <v>0.4637826086956521</v>
-      </c>
-      <c r="AR12">
-        <v>0.4693913043478261</v>
-      </c>
-      <c r="AS12">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13">
-        <v>45</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0.346</v>
-      </c>
-      <c r="K13">
-        <v>0.346</v>
-      </c>
-      <c r="L13">
-        <v>0.346</v>
-      </c>
-      <c r="M13">
-        <v>0.346</v>
-      </c>
-      <c r="N13">
-        <v>0.346</v>
-      </c>
-      <c r="O13">
-        <v>0.346</v>
-      </c>
-      <c r="P13">
-        <v>0.346</v>
-      </c>
-      <c r="Q13">
-        <v>0.346</v>
-      </c>
-      <c r="R13">
-        <v>0.346</v>
-      </c>
-      <c r="S13">
-        <v>0.346</v>
-      </c>
-      <c r="T13">
-        <v>0.346</v>
-      </c>
-      <c r="U13">
-        <v>0.346</v>
-      </c>
-      <c r="V13">
-        <v>0.346</v>
-      </c>
-      <c r="W13">
-        <v>0.3516086956521739</v>
-      </c>
-      <c r="X13">
-        <v>0.3572173913043478</v>
-      </c>
-      <c r="Y13">
-        <v>0.3628260869565217</v>
-      </c>
-      <c r="Z13">
-        <v>0.3684347826086957</v>
-      </c>
-      <c r="AA13">
-        <v>0.3740434782608696</v>
-      </c>
-      <c r="AB13">
-        <v>0.3796521739130435</v>
-      </c>
-      <c r="AC13">
-        <v>0.3852608695652173</v>
-      </c>
-      <c r="AD13">
-        <v>0.3908695652173912</v>
-      </c>
-      <c r="AE13">
-        <v>0.3964782608695652</v>
-      </c>
-      <c r="AF13">
-        <v>0.4020869565217391</v>
-      </c>
-      <c r="AG13">
-        <v>0.407695652173913</v>
-      </c>
-      <c r="AH13">
-        <v>0.4133043478260869</v>
-      </c>
-      <c r="AI13">
-        <v>0.4189130434782609</v>
-      </c>
-      <c r="AJ13">
-        <v>0.4245217391304348</v>
-      </c>
-      <c r="AK13">
-        <v>0.4301304347826087</v>
-      </c>
-      <c r="AL13">
-        <v>0.4357391304347826</v>
-      </c>
-      <c r="AM13">
-        <v>0.4413478260869565</v>
-      </c>
-      <c r="AN13">
-        <v>0.4469565217391304</v>
-      </c>
-      <c r="AO13">
-        <v>0.4525652173913043</v>
-      </c>
-      <c r="AP13">
-        <v>0.4581739130434782</v>
-      </c>
-      <c r="AQ13">
-        <v>0.4637826086956521</v>
-      </c>
-      <c r="AR13">
-        <v>0.4693913043478261</v>
-      </c>
-      <c r="AS13">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14">
-        <v>45</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0.346</v>
-      </c>
-      <c r="K14">
-        <v>0.346</v>
-      </c>
-      <c r="L14">
-        <v>0.346</v>
-      </c>
-      <c r="M14">
-        <v>0.346</v>
-      </c>
-      <c r="N14">
-        <v>0.346</v>
-      </c>
-      <c r="O14">
-        <v>0.346</v>
-      </c>
-      <c r="P14">
-        <v>0.346</v>
-      </c>
-      <c r="Q14">
-        <v>0.346</v>
-      </c>
-      <c r="R14">
-        <v>0.346</v>
-      </c>
-      <c r="S14">
-        <v>0.346</v>
-      </c>
-      <c r="T14">
-        <v>0.346</v>
-      </c>
-      <c r="U14">
-        <v>0.346</v>
-      </c>
-      <c r="V14">
-        <v>0.346</v>
-      </c>
-      <c r="W14">
-        <v>0.3516086956521739</v>
-      </c>
-      <c r="X14">
-        <v>0.3572173913043478</v>
-      </c>
-      <c r="Y14">
-        <v>0.3628260869565217</v>
-      </c>
-      <c r="Z14">
-        <v>0.3684347826086957</v>
-      </c>
-      <c r="AA14">
-        <v>0.3740434782608696</v>
-      </c>
-      <c r="AB14">
-        <v>0.3796521739130435</v>
-      </c>
-      <c r="AC14">
-        <v>0.3852608695652173</v>
-      </c>
-      <c r="AD14">
-        <v>0.3908695652173912</v>
-      </c>
-      <c r="AE14">
-        <v>0.3964782608695652</v>
-      </c>
-      <c r="AF14">
-        <v>0.4020869565217391</v>
-      </c>
-      <c r="AG14">
-        <v>0.407695652173913</v>
-      </c>
-      <c r="AH14">
-        <v>0.4133043478260869</v>
-      </c>
-      <c r="AI14">
-        <v>0.4189130434782609</v>
-      </c>
-      <c r="AJ14">
-        <v>0.4245217391304348</v>
-      </c>
-      <c r="AK14">
-        <v>0.4301304347826087</v>
-      </c>
-      <c r="AL14">
-        <v>0.4357391304347826</v>
-      </c>
-      <c r="AM14">
-        <v>0.4413478260869565</v>
-      </c>
-      <c r="AN14">
-        <v>0.4469565217391304</v>
-      </c>
-      <c r="AO14">
-        <v>0.4525652173913043</v>
-      </c>
-      <c r="AP14">
-        <v>0.4581739130434782</v>
-      </c>
-      <c r="AQ14">
-        <v>0.4637826086956521</v>
-      </c>
-      <c r="AR14">
-        <v>0.4693913043478261</v>
-      </c>
-      <c r="AS14">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15">
-        <v>45</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0.346</v>
-      </c>
-      <c r="K15">
-        <v>0.346</v>
-      </c>
-      <c r="L15">
-        <v>0.346</v>
-      </c>
-      <c r="M15">
-        <v>0.346</v>
-      </c>
-      <c r="N15">
-        <v>0.346</v>
-      </c>
-      <c r="O15">
-        <v>0.346</v>
-      </c>
-      <c r="P15">
-        <v>0.346</v>
-      </c>
-      <c r="Q15">
-        <v>0.346</v>
-      </c>
-      <c r="R15">
-        <v>0.346</v>
-      </c>
-      <c r="S15">
-        <v>0.346</v>
-      </c>
-      <c r="T15">
-        <v>0.346</v>
-      </c>
-      <c r="U15">
-        <v>0.346</v>
-      </c>
-      <c r="V15">
-        <v>0.346</v>
-      </c>
-      <c r="W15">
-        <v>0.3516086956521739</v>
-      </c>
-      <c r="X15">
-        <v>0.3572173913043478</v>
-      </c>
-      <c r="Y15">
-        <v>0.3628260869565217</v>
-      </c>
-      <c r="Z15">
-        <v>0.3684347826086957</v>
-      </c>
-      <c r="AA15">
-        <v>0.3740434782608696</v>
-      </c>
-      <c r="AB15">
-        <v>0.3796521739130435</v>
-      </c>
-      <c r="AC15">
-        <v>0.3852608695652173</v>
-      </c>
-      <c r="AD15">
-        <v>0.3908695652173912</v>
-      </c>
-      <c r="AE15">
-        <v>0.3964782608695652</v>
-      </c>
-      <c r="AF15">
-        <v>0.4020869565217391</v>
-      </c>
-      <c r="AG15">
-        <v>0.407695652173913</v>
-      </c>
-      <c r="AH15">
-        <v>0.4133043478260869</v>
-      </c>
-      <c r="AI15">
-        <v>0.4189130434782609</v>
-      </c>
-      <c r="AJ15">
-        <v>0.4245217391304348</v>
-      </c>
-      <c r="AK15">
-        <v>0.4301304347826087</v>
-      </c>
-      <c r="AL15">
-        <v>0.4357391304347826</v>
-      </c>
-      <c r="AM15">
-        <v>0.4413478260869565</v>
-      </c>
-      <c r="AN15">
-        <v>0.4469565217391304</v>
-      </c>
-      <c r="AO15">
-        <v>0.4525652173913043</v>
-      </c>
-      <c r="AP15">
-        <v>0.4581739130434782</v>
-      </c>
-      <c r="AQ15">
-        <v>0.4637826086956521</v>
-      </c>
-      <c r="AR15">
-        <v>0.4693913043478261</v>
-      </c>
-      <c r="AS15">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16">
-        <v>45</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0.346</v>
-      </c>
-      <c r="K16">
-        <v>0.346</v>
-      </c>
-      <c r="L16">
-        <v>0.346</v>
-      </c>
-      <c r="M16">
-        <v>0.346</v>
-      </c>
-      <c r="N16">
-        <v>0.346</v>
-      </c>
-      <c r="O16">
-        <v>0.346</v>
-      </c>
-      <c r="P16">
-        <v>0.346</v>
-      </c>
-      <c r="Q16">
-        <v>0.346</v>
-      </c>
-      <c r="R16">
-        <v>0.346</v>
-      </c>
-      <c r="S16">
-        <v>0.346</v>
-      </c>
-      <c r="T16">
-        <v>0.346</v>
-      </c>
-      <c r="U16">
-        <v>0.346</v>
-      </c>
-      <c r="V16">
-        <v>0.346</v>
-      </c>
-      <c r="W16">
-        <v>0.3516086956521739</v>
-      </c>
-      <c r="X16">
-        <v>0.3572173913043478</v>
-      </c>
-      <c r="Y16">
-        <v>0.3628260869565217</v>
-      </c>
-      <c r="Z16">
-        <v>0.3684347826086957</v>
-      </c>
-      <c r="AA16">
-        <v>0.3740434782608696</v>
-      </c>
-      <c r="AB16">
-        <v>0.3796521739130435</v>
-      </c>
-      <c r="AC16">
-        <v>0.3852608695652173</v>
-      </c>
-      <c r="AD16">
-        <v>0.3908695652173912</v>
-      </c>
-      <c r="AE16">
-        <v>0.3964782608695652</v>
-      </c>
-      <c r="AF16">
-        <v>0.4020869565217391</v>
-      </c>
-      <c r="AG16">
-        <v>0.407695652173913</v>
-      </c>
-      <c r="AH16">
-        <v>0.4133043478260869</v>
-      </c>
-      <c r="AI16">
-        <v>0.4189130434782609</v>
-      </c>
-      <c r="AJ16">
-        <v>0.4245217391304348</v>
-      </c>
-      <c r="AK16">
-        <v>0.4301304347826087</v>
-      </c>
-      <c r="AL16">
-        <v>0.4357391304347826</v>
-      </c>
-      <c r="AM16">
-        <v>0.4413478260869565</v>
-      </c>
-      <c r="AN16">
-        <v>0.4469565217391304</v>
-      </c>
-      <c r="AO16">
-        <v>0.4525652173913043</v>
-      </c>
-      <c r="AP16">
-        <v>0.4581739130434782</v>
-      </c>
-      <c r="AQ16">
-        <v>0.4637826086956521</v>
-      </c>
-      <c r="AR16">
-        <v>0.4693913043478261</v>
-      </c>
-      <c r="AS16">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>193</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0.95</v>
-      </c>
-      <c r="K17">
-        <v>0.95</v>
-      </c>
-      <c r="L17">
-        <v>0.95</v>
-      </c>
-      <c r="M17">
-        <v>0.95</v>
-      </c>
-      <c r="N17">
-        <v>0.95</v>
-      </c>
-      <c r="O17">
-        <v>0.95</v>
-      </c>
-      <c r="P17">
-        <v>0.95</v>
-      </c>
-      <c r="Q17">
-        <v>0.95</v>
-      </c>
-      <c r="R17">
-        <v>0.95</v>
-      </c>
-      <c r="S17">
-        <v>0.95</v>
-      </c>
-      <c r="T17">
-        <v>0.95</v>
-      </c>
-      <c r="U17">
-        <v>0.95</v>
-      </c>
-      <c r="V17">
-        <v>0.95</v>
-      </c>
-      <c r="W17">
-        <v>0.95</v>
-      </c>
-      <c r="X17">
-        <v>0.95</v>
-      </c>
-      <c r="Y17">
-        <v>0.9499999999999998</v>
-      </c>
-      <c r="Z17">
-        <v>0.95</v>
-      </c>
-      <c r="AA17">
-        <v>0.95</v>
-      </c>
-      <c r="AB17">
-        <v>0.95</v>
-      </c>
-      <c r="AC17">
-        <v>0.95</v>
-      </c>
-      <c r="AD17">
-        <v>0.95</v>
-      </c>
-      <c r="AE17">
-        <v>0.95</v>
-      </c>
-      <c r="AF17">
-        <v>0.95</v>
-      </c>
-      <c r="AG17">
-        <v>0.95</v>
-      </c>
-      <c r="AH17">
-        <v>0.95</v>
-      </c>
-      <c r="AI17">
-        <v>0.95</v>
-      </c>
-      <c r="AJ17">
-        <v>0.95</v>
-      </c>
-      <c r="AK17">
-        <v>0.95</v>
-      </c>
-      <c r="AL17">
-        <v>0.95</v>
-      </c>
-      <c r="AM17">
-        <v>0.95</v>
-      </c>
-      <c r="AN17">
-        <v>0.95</v>
-      </c>
-      <c r="AO17">
-        <v>0.95</v>
-      </c>
-      <c r="AP17">
-        <v>0.95</v>
-      </c>
-      <c r="AQ17">
-        <v>0.95</v>
-      </c>
-      <c r="AR17">
-        <v>0.95</v>
-      </c>
-      <c r="AS17">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>257</v>
-      </c>
-      <c r="C18">
-        <v>42</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0.01847826086956521</v>
-      </c>
-      <c r="X18">
-        <v>0.03695652173913043</v>
-      </c>
-      <c r="Y18">
-        <v>0.05543478260869565</v>
-      </c>
-      <c r="Z18">
-        <v>0.07391304347826086</v>
-      </c>
-      <c r="AA18">
-        <v>0.09239130434782608</v>
-      </c>
-      <c r="AB18">
-        <v>0.1108695652173913</v>
-      </c>
-      <c r="AC18">
-        <v>0.1293478260869565</v>
-      </c>
-      <c r="AD18">
-        <v>0.1478260869565217</v>
-      </c>
-      <c r="AE18">
-        <v>0.166304347826087</v>
-      </c>
-      <c r="AF18">
-        <v>0.1847826086956522</v>
-      </c>
-      <c r="AG18">
-        <v>0.2032608695652174</v>
-      </c>
-      <c r="AH18">
-        <v>0.2217391304347826</v>
-      </c>
-      <c r="AI18">
-        <v>0.2402173913043478</v>
-      </c>
-      <c r="AJ18">
-        <v>0.258695652173913</v>
-      </c>
-      <c r="AK18">
-        <v>0.2771739130434783</v>
-      </c>
-      <c r="AL18">
-        <v>0.2956521739130434</v>
-      </c>
-      <c r="AM18">
-        <v>0.3141304347826087</v>
-      </c>
-      <c r="AN18">
-        <v>0.3326086956521739</v>
-      </c>
-      <c r="AO18">
-        <v>0.3510869565217391</v>
-      </c>
-      <c r="AP18">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AQ18">
-        <v>0.3880434782608695</v>
-      </c>
-      <c r="AR18">
-        <v>0.4065217391304348</v>
-      </c>
-      <c r="AS18">
-        <v>0.425</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19">
-        <v>42</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0.01847826086956521</v>
-      </c>
-      <c r="X19">
-        <v>0.03695652173913043</v>
-      </c>
-      <c r="Y19">
-        <v>0.05543478260869565</v>
-      </c>
-      <c r="Z19">
-        <v>0.07391304347826086</v>
-      </c>
-      <c r="AA19">
-        <v>0.09239130434782608</v>
-      </c>
-      <c r="AB19">
-        <v>0.1108695652173913</v>
-      </c>
-      <c r="AC19">
-        <v>0.1293478260869565</v>
-      </c>
-      <c r="AD19">
-        <v>0.1478260869565217</v>
-      </c>
-      <c r="AE19">
-        <v>0.166304347826087</v>
-      </c>
-      <c r="AF19">
-        <v>0.1847826086956522</v>
-      </c>
-      <c r="AG19">
-        <v>0.2032608695652174</v>
-      </c>
-      <c r="AH19">
-        <v>0.2217391304347826</v>
-      </c>
-      <c r="AI19">
-        <v>0.2402173913043478</v>
-      </c>
-      <c r="AJ19">
-        <v>0.258695652173913</v>
-      </c>
-      <c r="AK19">
-        <v>0.2771739130434783</v>
-      </c>
-      <c r="AL19">
-        <v>0.2956521739130434</v>
-      </c>
-      <c r="AM19">
-        <v>0.3141304347826087</v>
-      </c>
-      <c r="AN19">
-        <v>0.3326086956521739</v>
-      </c>
-      <c r="AO19">
-        <v>0.3510869565217391</v>
-      </c>
-      <c r="AP19">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AQ19">
-        <v>0.3880434782608695</v>
-      </c>
-      <c r="AR19">
-        <v>0.4065217391304348</v>
-      </c>
-      <c r="AS19">
-        <v>0.425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C20">
-        <v>42</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0.01847826086956521</v>
-      </c>
-      <c r="X20">
-        <v>0.03695652173913043</v>
-      </c>
-      <c r="Y20">
-        <v>0.05543478260869565</v>
-      </c>
-      <c r="Z20">
-        <v>0.07391304347826086</v>
-      </c>
-      <c r="AA20">
-        <v>0.09239130434782608</v>
-      </c>
-      <c r="AB20">
-        <v>0.1108695652173913</v>
-      </c>
-      <c r="AC20">
-        <v>0.1293478260869565</v>
-      </c>
-      <c r="AD20">
-        <v>0.1478260869565217</v>
-      </c>
-      <c r="AE20">
-        <v>0.166304347826087</v>
-      </c>
-      <c r="AF20">
-        <v>0.1847826086956522</v>
-      </c>
-      <c r="AG20">
-        <v>0.2032608695652174</v>
-      </c>
-      <c r="AH20">
-        <v>0.2217391304347826</v>
-      </c>
-      <c r="AI20">
-        <v>0.2402173913043478</v>
-      </c>
-      <c r="AJ20">
-        <v>0.258695652173913</v>
-      </c>
-      <c r="AK20">
-        <v>0.2771739130434783</v>
-      </c>
-      <c r="AL20">
-        <v>0.2956521739130434</v>
-      </c>
-      <c r="AM20">
-        <v>0.3141304347826087</v>
-      </c>
-      <c r="AN20">
-        <v>0.3326086956521739</v>
-      </c>
-      <c r="AO20">
-        <v>0.3510869565217391</v>
-      </c>
-      <c r="AP20">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AQ20">
-        <v>0.3880434782608695</v>
-      </c>
-      <c r="AR20">
-        <v>0.4065217391304348</v>
-      </c>
-      <c r="AS20">
-        <v>0.425</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>260</v>
-      </c>
-      <c r="C21">
-        <v>42</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0.01847826086956521</v>
-      </c>
-      <c r="X21">
-        <v>0.03695652173913043</v>
-      </c>
-      <c r="Y21">
-        <v>0.05543478260869565</v>
-      </c>
-      <c r="Z21">
-        <v>0.07391304347826086</v>
-      </c>
-      <c r="AA21">
-        <v>0.09239130434782608</v>
-      </c>
-      <c r="AB21">
-        <v>0.1108695652173913</v>
-      </c>
-      <c r="AC21">
-        <v>0.1293478260869565</v>
-      </c>
-      <c r="AD21">
-        <v>0.1478260869565217</v>
-      </c>
-      <c r="AE21">
-        <v>0.166304347826087</v>
-      </c>
-      <c r="AF21">
-        <v>0.1847826086956522</v>
-      </c>
-      <c r="AG21">
-        <v>0.2032608695652174</v>
-      </c>
-      <c r="AH21">
-        <v>0.2217391304347826</v>
-      </c>
-      <c r="AI21">
-        <v>0.2402173913043478</v>
-      </c>
-      <c r="AJ21">
-        <v>0.258695652173913</v>
-      </c>
-      <c r="AK21">
-        <v>0.2771739130434783</v>
-      </c>
-      <c r="AL21">
-        <v>0.2956521739130434</v>
-      </c>
-      <c r="AM21">
-        <v>0.3141304347826087</v>
-      </c>
-      <c r="AN21">
-        <v>0.3326086956521739</v>
-      </c>
-      <c r="AO21">
-        <v>0.3510869565217391</v>
-      </c>
-      <c r="AP21">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AQ21">
-        <v>0.3880434782608695</v>
-      </c>
-      <c r="AR21">
-        <v>0.4065217391304348</v>
-      </c>
-      <c r="AS21">
-        <v>0.425</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2">
-        <v>43</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0.02</v>
-      </c>
-      <c r="K2">
-        <v>0.02</v>
-      </c>
-      <c r="L2">
-        <v>0.02</v>
-      </c>
-      <c r="M2">
-        <v>0.02</v>
-      </c>
-      <c r="N2">
-        <v>0.02</v>
-      </c>
-      <c r="O2">
-        <v>0.02</v>
-      </c>
-      <c r="P2">
-        <v>0.02</v>
-      </c>
-      <c r="Q2">
-        <v>0.02</v>
-      </c>
-      <c r="R2">
-        <v>0.02</v>
-      </c>
-      <c r="S2">
-        <v>0.02</v>
-      </c>
-      <c r="T2">
-        <v>0.02</v>
-      </c>
-      <c r="U2">
-        <v>0.02</v>
-      </c>
-      <c r="V2">
-        <v>0.02</v>
-      </c>
-      <c r="W2">
-        <v>0.03978260869565217</v>
-      </c>
-      <c r="X2">
-        <v>0.05956521739130435</v>
-      </c>
-      <c r="Y2">
-        <v>0.07934782608695652</v>
-      </c>
-      <c r="Z2">
-        <v>0.09913043478260869</v>
-      </c>
-      <c r="AA2">
-        <v>0.1189130434782609</v>
-      </c>
-      <c r="AB2">
-        <v>0.138695652173913</v>
-      </c>
-      <c r="AC2">
-        <v>0.1584782608695652</v>
-      </c>
-      <c r="AD2">
-        <v>0.1782608695652174</v>
-      </c>
-      <c r="AE2">
-        <v>0.1980434782608696</v>
-      </c>
-      <c r="AF2">
-        <v>0.2178260869565217</v>
-      </c>
-      <c r="AG2">
-        <v>0.2376086956521739</v>
-      </c>
-      <c r="AH2">
-        <v>0.2573913043478261</v>
-      </c>
-      <c r="AI2">
-        <v>0.2771739130434782</v>
-      </c>
-      <c r="AJ2">
-        <v>0.2969565217391305</v>
-      </c>
-      <c r="AK2">
-        <v>0.3167391304347826</v>
-      </c>
-      <c r="AL2">
-        <v>0.3365217391304348</v>
-      </c>
-      <c r="AM2">
-        <v>0.3563043478260869</v>
-      </c>
-      <c r="AN2">
-        <v>0.3760869565217391</v>
-      </c>
-      <c r="AO2">
-        <v>0.3958695652173913</v>
-      </c>
-      <c r="AP2">
-        <v>0.4156521739130434</v>
-      </c>
-      <c r="AQ2">
-        <v>0.4354347826086956</v>
-      </c>
-      <c r="AR2">
-        <v>0.4552173913043478</v>
-      </c>
-      <c r="AS2">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3">
-        <v>43</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0.4</v>
-      </c>
-      <c r="K3">
-        <v>0.4</v>
-      </c>
-      <c r="L3">
-        <v>0.4</v>
-      </c>
-      <c r="M3">
-        <v>0.4</v>
-      </c>
-      <c r="N3">
-        <v>0.4</v>
-      </c>
-      <c r="O3">
-        <v>0.4</v>
-      </c>
-      <c r="P3">
-        <v>0.4</v>
-      </c>
-      <c r="Q3">
-        <v>0.4</v>
-      </c>
-      <c r="R3">
-        <v>0.4</v>
-      </c>
-      <c r="S3">
-        <v>0.4</v>
-      </c>
-      <c r="T3">
-        <v>0.4</v>
-      </c>
-      <c r="U3">
-        <v>0.4</v>
-      </c>
-      <c r="V3">
-        <v>0.4</v>
-      </c>
-      <c r="W3">
-        <v>0.4032608695652174</v>
-      </c>
-      <c r="X3">
-        <v>0.4065217391304348</v>
-      </c>
-      <c r="Y3">
-        <v>0.4097826086956521</v>
-      </c>
-      <c r="Z3">
-        <v>0.4130434782608696</v>
-      </c>
-      <c r="AA3">
-        <v>0.4163043478260869</v>
-      </c>
-      <c r="AB3">
-        <v>0.4195652173913044</v>
-      </c>
-      <c r="AC3">
-        <v>0.4228260869565217</v>
-      </c>
-      <c r="AD3">
-        <v>0.4260869565217391</v>
-      </c>
-      <c r="AE3">
-        <v>0.4293478260869565</v>
-      </c>
-      <c r="AF3">
-        <v>0.4326086956521739</v>
-      </c>
-      <c r="AG3">
-        <v>0.4358695652173913</v>
-      </c>
-      <c r="AH3">
-        <v>0.4391304347826087</v>
-      </c>
-      <c r="AI3">
-        <v>0.442391304347826</v>
-      </c>
-      <c r="AJ3">
-        <v>0.4456521739130435</v>
-      </c>
-      <c r="AK3">
-        <v>0.4489130434782609</v>
-      </c>
-      <c r="AL3">
-        <v>0.4521739130434783</v>
-      </c>
-      <c r="AM3">
-        <v>0.4554347826086956</v>
-      </c>
-      <c r="AN3">
-        <v>0.4586956521739131</v>
-      </c>
-      <c r="AO3">
-        <v>0.4619565217391304</v>
-      </c>
-      <c r="AP3">
-        <v>0.4652173913043478</v>
-      </c>
-      <c r="AQ3">
-        <v>0.4684782608695652</v>
-      </c>
-      <c r="AR3">
-        <v>0.4717391304347826</v>
-      </c>
-      <c r="AS3">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4">
-        <v>43</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0.02</v>
-      </c>
-      <c r="K4">
-        <v>0.02</v>
-      </c>
-      <c r="L4">
-        <v>0.02</v>
-      </c>
-      <c r="M4">
-        <v>0.02</v>
-      </c>
-      <c r="N4">
-        <v>0.02</v>
-      </c>
-      <c r="O4">
-        <v>0.02</v>
-      </c>
-      <c r="P4">
-        <v>0.02</v>
-      </c>
-      <c r="Q4">
-        <v>0.02</v>
-      </c>
-      <c r="R4">
-        <v>0.02</v>
-      </c>
-      <c r="S4">
-        <v>0.02</v>
-      </c>
-      <c r="T4">
-        <v>0.02</v>
-      </c>
-      <c r="U4">
-        <v>0.02</v>
-      </c>
-      <c r="V4">
-        <v>0.02</v>
-      </c>
-      <c r="W4">
-        <v>0.03978260869565217</v>
-      </c>
-      <c r="X4">
-        <v>0.05956521739130435</v>
-      </c>
-      <c r="Y4">
-        <v>0.07934782608695652</v>
-      </c>
-      <c r="Z4">
-        <v>0.09913043478260869</v>
-      </c>
-      <c r="AA4">
-        <v>0.1189130434782609</v>
-      </c>
-      <c r="AB4">
-        <v>0.138695652173913</v>
-      </c>
-      <c r="AC4">
-        <v>0.1584782608695652</v>
-      </c>
-      <c r="AD4">
-        <v>0.1782608695652174</v>
-      </c>
-      <c r="AE4">
-        <v>0.1980434782608696</v>
-      </c>
-      <c r="AF4">
-        <v>0.2178260869565217</v>
-      </c>
-      <c r="AG4">
-        <v>0.2376086956521739</v>
-      </c>
-      <c r="AH4">
-        <v>0.2573913043478261</v>
-      </c>
-      <c r="AI4">
-        <v>0.2771739130434782</v>
-      </c>
-      <c r="AJ4">
-        <v>0.2969565217391305</v>
-      </c>
-      <c r="AK4">
-        <v>0.3167391304347826</v>
-      </c>
-      <c r="AL4">
-        <v>0.3365217391304348</v>
-      </c>
-      <c r="AM4">
-        <v>0.3563043478260869</v>
-      </c>
-      <c r="AN4">
-        <v>0.3760869565217391</v>
-      </c>
-      <c r="AO4">
-        <v>0.3958695652173913</v>
-      </c>
-      <c r="AP4">
-        <v>0.4156521739130434</v>
-      </c>
-      <c r="AQ4">
-        <v>0.4354347826086956</v>
-      </c>
-      <c r="AR4">
-        <v>0.4552173913043478</v>
-      </c>
-      <c r="AS4">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5">
-        <v>43</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="K5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="L5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="M5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="N5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="O5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="P5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="Q5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="R5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="S5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="T5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="U5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="V5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="W5">
-        <v>0.05667223157320789</v>
-      </c>
-      <c r="X5">
-        <v>0.07568713013806208</v>
-      </c>
-      <c r="Y5">
-        <v>0.09470202870291625</v>
-      </c>
-      <c r="Z5">
-        <v>0.1137169272677704</v>
-      </c>
-      <c r="AA5">
-        <v>0.1327318258326246</v>
-      </c>
-      <c r="AB5">
-        <v>0.1517467243974788</v>
-      </c>
-      <c r="AC5">
-        <v>0.170761622962333</v>
-      </c>
-      <c r="AD5">
-        <v>0.1897765215271872</v>
-      </c>
-      <c r="AE5">
-        <v>0.2087914200920414</v>
-      </c>
-      <c r="AF5">
-        <v>0.2278063186568955</v>
-      </c>
-      <c r="AG5">
-        <v>0.2468212172217497</v>
-      </c>
-      <c r="AH5">
-        <v>0.2658361157866039</v>
-      </c>
-      <c r="AI5">
-        <v>0.2848510143514581</v>
-      </c>
-      <c r="AJ5">
-        <v>0.3038659129163123</v>
-      </c>
-      <c r="AK5">
-        <v>0.3228808114811665</v>
-      </c>
-      <c r="AL5">
-        <v>0.3418957100460207</v>
-      </c>
-      <c r="AM5">
-        <v>0.3609106086108749</v>
-      </c>
-      <c r="AN5">
-        <v>0.3799255071757291</v>
-      </c>
-      <c r="AO5">
-        <v>0.3989404057405833</v>
-      </c>
-      <c r="AP5">
-        <v>0.4179553043054374</v>
-      </c>
-      <c r="AQ5">
-        <v>0.4369702028702916</v>
-      </c>
-      <c r="AR5">
-        <v>0.4559851014351458</v>
-      </c>
-      <c r="AS5">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6">
-        <v>43</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="K6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="L6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="M6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="N6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="O6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="P6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="Q6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="R6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="S6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="T6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="U6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="V6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="W6">
-        <v>0.05667223157320789</v>
-      </c>
-      <c r="X6">
-        <v>0.07568713013806208</v>
-      </c>
-      <c r="Y6">
-        <v>0.09470202870291625</v>
-      </c>
-      <c r="Z6">
-        <v>0.1137169272677704</v>
-      </c>
-      <c r="AA6">
-        <v>0.1327318258326246</v>
-      </c>
-      <c r="AB6">
-        <v>0.1517467243974788</v>
-      </c>
-      <c r="AC6">
-        <v>0.170761622962333</v>
-      </c>
-      <c r="AD6">
-        <v>0.1897765215271872</v>
-      </c>
-      <c r="AE6">
-        <v>0.2087914200920414</v>
-      </c>
-      <c r="AF6">
-        <v>0.2278063186568955</v>
-      </c>
-      <c r="AG6">
-        <v>0.2468212172217497</v>
-      </c>
-      <c r="AH6">
-        <v>0.2658361157866039</v>
-      </c>
-      <c r="AI6">
-        <v>0.2848510143514581</v>
-      </c>
-      <c r="AJ6">
-        <v>0.3038659129163123</v>
-      </c>
-      <c r="AK6">
-        <v>0.3228808114811665</v>
-      </c>
-      <c r="AL6">
-        <v>0.3418957100460207</v>
-      </c>
-      <c r="AM6">
-        <v>0.3609106086108749</v>
-      </c>
-      <c r="AN6">
-        <v>0.3799255071757291</v>
-      </c>
-      <c r="AO6">
-        <v>0.3989404057405833</v>
-      </c>
-      <c r="AP6">
-        <v>0.4179553043054374</v>
-      </c>
-      <c r="AQ6">
-        <v>0.4369702028702916</v>
-      </c>
-      <c r="AR6">
-        <v>0.4559851014351458</v>
-      </c>
-      <c r="AS6">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7">
-        <v>43</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="K7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="L7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="M7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="N7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="O7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="P7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="Q7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="R7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="S7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="T7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="U7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="V7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="W7">
-        <v>0.05667223157320789</v>
-      </c>
-      <c r="X7">
-        <v>0.07568713013806208</v>
-      </c>
-      <c r="Y7">
-        <v>0.09470202870291625</v>
-      </c>
-      <c r="Z7">
-        <v>0.1137169272677704</v>
-      </c>
-      <c r="AA7">
-        <v>0.1327318258326246</v>
-      </c>
-      <c r="AB7">
-        <v>0.1517467243974788</v>
-      </c>
-      <c r="AC7">
-        <v>0.170761622962333</v>
-      </c>
-      <c r="AD7">
-        <v>0.1897765215271872</v>
-      </c>
-      <c r="AE7">
-        <v>0.2087914200920414</v>
-      </c>
-      <c r="AF7">
-        <v>0.2278063186568955</v>
-      </c>
-      <c r="AG7">
-        <v>0.2468212172217497</v>
-      </c>
-      <c r="AH7">
-        <v>0.2658361157866039</v>
-      </c>
-      <c r="AI7">
-        <v>0.2848510143514581</v>
-      </c>
-      <c r="AJ7">
-        <v>0.3038659129163123</v>
-      </c>
-      <c r="AK7">
-        <v>0.3228808114811665</v>
-      </c>
-      <c r="AL7">
-        <v>0.3418957100460207</v>
-      </c>
-      <c r="AM7">
-        <v>0.3609106086108749</v>
-      </c>
-      <c r="AN7">
-        <v>0.3799255071757291</v>
-      </c>
-      <c r="AO7">
-        <v>0.3989404057405833</v>
-      </c>
-      <c r="AP7">
-        <v>0.4179553043054374</v>
-      </c>
-      <c r="AQ7">
-        <v>0.4369702028702916</v>
-      </c>
-      <c r="AR7">
-        <v>0.4559851014351458</v>
-      </c>
-      <c r="AS7">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="K8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="L8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="M8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="N8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="O8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="P8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="Q8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="R8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="S8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="T8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="U8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="V8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="W8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="X8">
-        <v>0.9968985947472471</v>
-      </c>
-      <c r="Y8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="Z8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AA8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AB8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AC8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AD8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AE8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AF8">
-        <v>0.9968985947472471</v>
-      </c>
-      <c r="AG8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AH8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AI8">
-        <v>0.9968985947472471</v>
-      </c>
-      <c r="AJ8">
-        <v>0.9968985947472468</v>
-      </c>
-      <c r="AK8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AL8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AM8">
-        <v>0.9968985947472471</v>
-      </c>
-      <c r="AN8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AO8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AP8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AQ8">
-        <v>0.9968985947472471</v>
-      </c>
-      <c r="AR8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AS8">
-        <v>0.996898594747247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9">
-        <v>44</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0.03695652173913043</v>
-      </c>
-      <c r="X9">
-        <v>0.07391304347826086</v>
-      </c>
-      <c r="Y9">
-        <v>0.1108695652173913</v>
-      </c>
-      <c r="Z9">
-        <v>0.1478260869565217</v>
-      </c>
-      <c r="AA9">
-        <v>0.1847826086956522</v>
-      </c>
-      <c r="AB9">
-        <v>0.2217391304347826</v>
-      </c>
-      <c r="AC9">
-        <v>0.258695652173913</v>
-      </c>
-      <c r="AD9">
-        <v>0.2956521739130434</v>
-      </c>
-      <c r="AE9">
-        <v>0.3326086956521739</v>
-      </c>
-      <c r="AF9">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AG9">
-        <v>0.4065217391304348</v>
-      </c>
-      <c r="AH9">
-        <v>0.4434782608695652</v>
-      </c>
-      <c r="AI9">
-        <v>0.4804347826086956</v>
-      </c>
-      <c r="AJ9">
-        <v>0.5173913043478261</v>
-      </c>
-      <c r="AK9">
-        <v>0.5543478260869565</v>
-      </c>
-      <c r="AL9">
-        <v>0.5913043478260869</v>
-      </c>
-      <c r="AM9">
-        <v>0.6282608695652173</v>
-      </c>
-      <c r="AN9">
-        <v>0.6652173913043479</v>
-      </c>
-      <c r="AO9">
-        <v>0.7021739130434782</v>
-      </c>
-      <c r="AP9">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="AQ9">
-        <v>0.7760869565217391</v>
-      </c>
-      <c r="AR9">
-        <v>0.8130434782608695</v>
-      </c>
-      <c r="AS9">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10">
-        <v>45</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0.346</v>
-      </c>
-      <c r="K10">
-        <v>0.346</v>
-      </c>
-      <c r="L10">
-        <v>0.346</v>
-      </c>
-      <c r="M10">
-        <v>0.346</v>
-      </c>
-      <c r="N10">
-        <v>0.346</v>
-      </c>
-      <c r="O10">
-        <v>0.346</v>
-      </c>
-      <c r="P10">
-        <v>0.346</v>
-      </c>
-      <c r="Q10">
-        <v>0.346</v>
-      </c>
-      <c r="R10">
-        <v>0.346</v>
-      </c>
-      <c r="S10">
-        <v>0.346</v>
-      </c>
-      <c r="T10">
-        <v>0.346</v>
-      </c>
-      <c r="U10">
-        <v>0.346</v>
-      </c>
-      <c r="V10">
-        <v>0.346</v>
-      </c>
-      <c r="W10">
-        <v>0.3722608695652174</v>
-      </c>
-      <c r="X10">
-        <v>0.3985217391304348</v>
-      </c>
-      <c r="Y10">
-        <v>0.4247826086956522</v>
-      </c>
-      <c r="Z10">
-        <v>0.4510434782608695</v>
-      </c>
-      <c r="AA10">
-        <v>0.4773043478260869</v>
-      </c>
-      <c r="AB10">
-        <v>0.5035652173913043</v>
-      </c>
-      <c r="AC10">
-        <v>0.5298260869565217</v>
-      </c>
-      <c r="AD10">
-        <v>0.5560869565217391</v>
-      </c>
-      <c r="AE10">
-        <v>0.5823478260869566</v>
-      </c>
-      <c r="AF10">
-        <v>0.6086086956521739</v>
-      </c>
-      <c r="AG10">
-        <v>0.6348695652173912</v>
-      </c>
-      <c r="AH10">
-        <v>0.6611304347826087</v>
-      </c>
-      <c r="AI10">
-        <v>0.687391304347826</v>
-      </c>
-      <c r="AJ10">
-        <v>0.7136521739130435</v>
-      </c>
-      <c r="AK10">
-        <v>0.7399130434782608</v>
-      </c>
-      <c r="AL10">
-        <v>0.7661739130434783</v>
-      </c>
-      <c r="AM10">
-        <v>0.7924347826086956</v>
-      </c>
-      <c r="AN10">
-        <v>0.818695652173913</v>
-      </c>
-      <c r="AO10">
-        <v>0.8449565217391305</v>
-      </c>
-      <c r="AP10">
-        <v>0.8712173913043477</v>
-      </c>
-      <c r="AQ10">
-        <v>0.8974782608695651</v>
-      </c>
-      <c r="AR10">
-        <v>0.9237391304347826</v>
-      </c>
-      <c r="AS10">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11">
-        <v>45</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0.346</v>
-      </c>
-      <c r="K11">
-        <v>0.346</v>
-      </c>
-      <c r="L11">
-        <v>0.346</v>
-      </c>
-      <c r="M11">
-        <v>0.346</v>
-      </c>
-      <c r="N11">
-        <v>0.346</v>
-      </c>
-      <c r="O11">
-        <v>0.346</v>
-      </c>
-      <c r="P11">
-        <v>0.346</v>
-      </c>
-      <c r="Q11">
-        <v>0.346</v>
-      </c>
-      <c r="R11">
-        <v>0.346</v>
-      </c>
-      <c r="S11">
-        <v>0.346</v>
-      </c>
-      <c r="T11">
-        <v>0.346</v>
-      </c>
-      <c r="U11">
-        <v>0.346</v>
-      </c>
-      <c r="V11">
-        <v>0.346</v>
-      </c>
-      <c r="W11">
-        <v>0.3722608695652174</v>
-      </c>
-      <c r="X11">
-        <v>0.3985217391304348</v>
-      </c>
-      <c r="Y11">
-        <v>0.4247826086956522</v>
-      </c>
-      <c r="Z11">
-        <v>0.4510434782608695</v>
-      </c>
-      <c r="AA11">
-        <v>0.4773043478260869</v>
-      </c>
-      <c r="AB11">
-        <v>0.5035652173913043</v>
-      </c>
-      <c r="AC11">
-        <v>0.5298260869565217</v>
-      </c>
-      <c r="AD11">
-        <v>0.5560869565217391</v>
-      </c>
-      <c r="AE11">
-        <v>0.5823478260869566</v>
-      </c>
-      <c r="AF11">
-        <v>0.6086086956521739</v>
-      </c>
-      <c r="AG11">
-        <v>0.6348695652173912</v>
-      </c>
-      <c r="AH11">
-        <v>0.6611304347826087</v>
-      </c>
-      <c r="AI11">
-        <v>0.687391304347826</v>
-      </c>
-      <c r="AJ11">
-        <v>0.7136521739130435</v>
-      </c>
-      <c r="AK11">
-        <v>0.7399130434782608</v>
-      </c>
-      <c r="AL11">
-        <v>0.7661739130434783</v>
-      </c>
-      <c r="AM11">
-        <v>0.7924347826086956</v>
-      </c>
-      <c r="AN11">
-        <v>0.818695652173913</v>
-      </c>
-      <c r="AO11">
-        <v>0.8449565217391305</v>
-      </c>
-      <c r="AP11">
-        <v>0.8712173913043477</v>
-      </c>
-      <c r="AQ11">
-        <v>0.8974782608695651</v>
-      </c>
-      <c r="AR11">
-        <v>0.9237391304347826</v>
-      </c>
-      <c r="AS11">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12">
-        <v>45</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0.346</v>
-      </c>
-      <c r="K12">
-        <v>0.346</v>
-      </c>
-      <c r="L12">
-        <v>0.346</v>
-      </c>
-      <c r="M12">
-        <v>0.346</v>
-      </c>
-      <c r="N12">
-        <v>0.346</v>
-      </c>
-      <c r="O12">
-        <v>0.346</v>
-      </c>
-      <c r="P12">
-        <v>0.346</v>
-      </c>
-      <c r="Q12">
-        <v>0.346</v>
-      </c>
-      <c r="R12">
-        <v>0.346</v>
-      </c>
-      <c r="S12">
-        <v>0.346</v>
-      </c>
-      <c r="T12">
-        <v>0.346</v>
-      </c>
-      <c r="U12">
-        <v>0.346</v>
-      </c>
-      <c r="V12">
-        <v>0.346</v>
-      </c>
-      <c r="W12">
-        <v>0.3722608695652174</v>
-      </c>
-      <c r="X12">
-        <v>0.3985217391304348</v>
-      </c>
-      <c r="Y12">
-        <v>0.4247826086956522</v>
-      </c>
-      <c r="Z12">
-        <v>0.4510434782608695</v>
-      </c>
-      <c r="AA12">
-        <v>0.4773043478260869</v>
-      </c>
-      <c r="AB12">
-        <v>0.5035652173913043</v>
-      </c>
-      <c r="AC12">
-        <v>0.5298260869565217</v>
-      </c>
-      <c r="AD12">
-        <v>0.5560869565217391</v>
-      </c>
-      <c r="AE12">
-        <v>0.5823478260869566</v>
-      </c>
-      <c r="AF12">
-        <v>0.6086086956521739</v>
-      </c>
-      <c r="AG12">
-        <v>0.6348695652173912</v>
-      </c>
-      <c r="AH12">
-        <v>0.6611304347826087</v>
-      </c>
-      <c r="AI12">
-        <v>0.687391304347826</v>
-      </c>
-      <c r="AJ12">
-        <v>0.7136521739130435</v>
-      </c>
-      <c r="AK12">
-        <v>0.7399130434782608</v>
-      </c>
-      <c r="AL12">
-        <v>0.7661739130434783</v>
-      </c>
-      <c r="AM12">
-        <v>0.7924347826086956</v>
-      </c>
-      <c r="AN12">
-        <v>0.818695652173913</v>
-      </c>
-      <c r="AO12">
-        <v>0.8449565217391305</v>
-      </c>
-      <c r="AP12">
-        <v>0.8712173913043477</v>
-      </c>
-      <c r="AQ12">
-        <v>0.8974782608695651</v>
-      </c>
-      <c r="AR12">
-        <v>0.9237391304347826</v>
-      </c>
-      <c r="AS12">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13">
-        <v>45</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0.346</v>
-      </c>
-      <c r="K13">
-        <v>0.346</v>
-      </c>
-      <c r="L13">
-        <v>0.346</v>
-      </c>
-      <c r="M13">
-        <v>0.346</v>
-      </c>
-      <c r="N13">
-        <v>0.346</v>
-      </c>
-      <c r="O13">
-        <v>0.346</v>
-      </c>
-      <c r="P13">
-        <v>0.346</v>
-      </c>
-      <c r="Q13">
-        <v>0.346</v>
-      </c>
-      <c r="R13">
-        <v>0.346</v>
-      </c>
-      <c r="S13">
-        <v>0.346</v>
-      </c>
-      <c r="T13">
-        <v>0.346</v>
-      </c>
-      <c r="U13">
-        <v>0.346</v>
-      </c>
-      <c r="V13">
-        <v>0.346</v>
-      </c>
-      <c r="W13">
-        <v>0.3722608695652174</v>
-      </c>
-      <c r="X13">
-        <v>0.3985217391304348</v>
-      </c>
-      <c r="Y13">
-        <v>0.4247826086956522</v>
-      </c>
-      <c r="Z13">
-        <v>0.4510434782608695</v>
-      </c>
-      <c r="AA13">
-        <v>0.4773043478260869</v>
-      </c>
-      <c r="AB13">
-        <v>0.5035652173913043</v>
-      </c>
-      <c r="AC13">
-        <v>0.5298260869565217</v>
-      </c>
-      <c r="AD13">
-        <v>0.5560869565217391</v>
-      </c>
-      <c r="AE13">
-        <v>0.5823478260869566</v>
-      </c>
-      <c r="AF13">
-        <v>0.6086086956521739</v>
-      </c>
-      <c r="AG13">
-        <v>0.6348695652173912</v>
-      </c>
-      <c r="AH13">
-        <v>0.6611304347826087</v>
-      </c>
-      <c r="AI13">
-        <v>0.687391304347826</v>
-      </c>
-      <c r="AJ13">
-        <v>0.7136521739130435</v>
-      </c>
-      <c r="AK13">
-        <v>0.7399130434782608</v>
-      </c>
-      <c r="AL13">
-        <v>0.7661739130434783</v>
-      </c>
-      <c r="AM13">
-        <v>0.7924347826086956</v>
-      </c>
-      <c r="AN13">
-        <v>0.818695652173913</v>
-      </c>
-      <c r="AO13">
-        <v>0.8449565217391305</v>
-      </c>
-      <c r="AP13">
-        <v>0.8712173913043477</v>
-      </c>
-      <c r="AQ13">
-        <v>0.8974782608695651</v>
-      </c>
-      <c r="AR13">
-        <v>0.9237391304347826</v>
-      </c>
-      <c r="AS13">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14">
-        <v>45</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0.346</v>
-      </c>
-      <c r="K14">
-        <v>0.346</v>
-      </c>
-      <c r="L14">
-        <v>0.346</v>
-      </c>
-      <c r="M14">
-        <v>0.346</v>
-      </c>
-      <c r="N14">
-        <v>0.346</v>
-      </c>
-      <c r="O14">
-        <v>0.346</v>
-      </c>
-      <c r="P14">
-        <v>0.346</v>
-      </c>
-      <c r="Q14">
-        <v>0.346</v>
-      </c>
-      <c r="R14">
-        <v>0.346</v>
-      </c>
-      <c r="S14">
-        <v>0.346</v>
-      </c>
-      <c r="T14">
-        <v>0.346</v>
-      </c>
-      <c r="U14">
-        <v>0.346</v>
-      </c>
-      <c r="V14">
-        <v>0.346</v>
-      </c>
-      <c r="W14">
-        <v>0.3722608695652174</v>
-      </c>
-      <c r="X14">
-        <v>0.3985217391304348</v>
-      </c>
-      <c r="Y14">
-        <v>0.4247826086956522</v>
-      </c>
-      <c r="Z14">
-        <v>0.4510434782608695</v>
-      </c>
-      <c r="AA14">
-        <v>0.4773043478260869</v>
-      </c>
-      <c r="AB14">
-        <v>0.5035652173913043</v>
-      </c>
-      <c r="AC14">
-        <v>0.5298260869565217</v>
-      </c>
-      <c r="AD14">
-        <v>0.5560869565217391</v>
-      </c>
-      <c r="AE14">
-        <v>0.5823478260869566</v>
-      </c>
-      <c r="AF14">
-        <v>0.6086086956521739</v>
-      </c>
-      <c r="AG14">
-        <v>0.6348695652173912</v>
-      </c>
-      <c r="AH14">
-        <v>0.6611304347826087</v>
-      </c>
-      <c r="AI14">
-        <v>0.687391304347826</v>
-      </c>
-      <c r="AJ14">
-        <v>0.7136521739130435</v>
-      </c>
-      <c r="AK14">
-        <v>0.7399130434782608</v>
-      </c>
-      <c r="AL14">
-        <v>0.7661739130434783</v>
-      </c>
-      <c r="AM14">
-        <v>0.7924347826086956</v>
-      </c>
-      <c r="AN14">
-        <v>0.818695652173913</v>
-      </c>
-      <c r="AO14">
-        <v>0.8449565217391305</v>
-      </c>
-      <c r="AP14">
-        <v>0.8712173913043477</v>
-      </c>
-      <c r="AQ14">
-        <v>0.8974782608695651</v>
-      </c>
-      <c r="AR14">
-        <v>0.9237391304347826</v>
-      </c>
-      <c r="AS14">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15">
-        <v>45</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0.346</v>
-      </c>
-      <c r="K15">
-        <v>0.346</v>
-      </c>
-      <c r="L15">
-        <v>0.346</v>
-      </c>
-      <c r="M15">
-        <v>0.346</v>
-      </c>
-      <c r="N15">
-        <v>0.346</v>
-      </c>
-      <c r="O15">
-        <v>0.346</v>
-      </c>
-      <c r="P15">
-        <v>0.346</v>
-      </c>
-      <c r="Q15">
-        <v>0.346</v>
-      </c>
-      <c r="R15">
-        <v>0.346</v>
-      </c>
-      <c r="S15">
-        <v>0.346</v>
-      </c>
-      <c r="T15">
-        <v>0.346</v>
-      </c>
-      <c r="U15">
-        <v>0.346</v>
-      </c>
-      <c r="V15">
-        <v>0.346</v>
-      </c>
-      <c r="W15">
-        <v>0.3722608695652174</v>
-      </c>
-      <c r="X15">
-        <v>0.3985217391304348</v>
-      </c>
-      <c r="Y15">
-        <v>0.4247826086956522</v>
-      </c>
-      <c r="Z15">
-        <v>0.4510434782608695</v>
-      </c>
-      <c r="AA15">
-        <v>0.4773043478260869</v>
-      </c>
-      <c r="AB15">
-        <v>0.5035652173913043</v>
-      </c>
-      <c r="AC15">
-        <v>0.5298260869565217</v>
-      </c>
-      <c r="AD15">
-        <v>0.5560869565217391</v>
-      </c>
-      <c r="AE15">
-        <v>0.5823478260869566</v>
-      </c>
-      <c r="AF15">
-        <v>0.6086086956521739</v>
-      </c>
-      <c r="AG15">
-        <v>0.6348695652173912</v>
-      </c>
-      <c r="AH15">
-        <v>0.6611304347826087</v>
-      </c>
-      <c r="AI15">
-        <v>0.687391304347826</v>
-      </c>
-      <c r="AJ15">
-        <v>0.7136521739130435</v>
-      </c>
-      <c r="AK15">
-        <v>0.7399130434782608</v>
-      </c>
-      <c r="AL15">
-        <v>0.7661739130434783</v>
-      </c>
-      <c r="AM15">
-        <v>0.7924347826086956</v>
-      </c>
-      <c r="AN15">
-        <v>0.818695652173913</v>
-      </c>
-      <c r="AO15">
-        <v>0.8449565217391305</v>
-      </c>
-      <c r="AP15">
-        <v>0.8712173913043477</v>
-      </c>
-      <c r="AQ15">
-        <v>0.8974782608695651</v>
-      </c>
-      <c r="AR15">
-        <v>0.9237391304347826</v>
-      </c>
-      <c r="AS15">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16">
-        <v>45</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0.346</v>
-      </c>
-      <c r="K16">
-        <v>0.346</v>
-      </c>
-      <c r="L16">
-        <v>0.346</v>
-      </c>
-      <c r="M16">
-        <v>0.346</v>
-      </c>
-      <c r="N16">
-        <v>0.346</v>
-      </c>
-      <c r="O16">
-        <v>0.346</v>
-      </c>
-      <c r="P16">
-        <v>0.346</v>
-      </c>
-      <c r="Q16">
-        <v>0.346</v>
-      </c>
-      <c r="R16">
-        <v>0.346</v>
-      </c>
-      <c r="S16">
-        <v>0.346</v>
-      </c>
-      <c r="T16">
-        <v>0.346</v>
-      </c>
-      <c r="U16">
-        <v>0.346</v>
-      </c>
-      <c r="V16">
-        <v>0.346</v>
-      </c>
-      <c r="W16">
-        <v>0.3722608695652174</v>
-      </c>
-      <c r="X16">
-        <v>0.3985217391304348</v>
-      </c>
-      <c r="Y16">
-        <v>0.4247826086956522</v>
-      </c>
-      <c r="Z16">
-        <v>0.4510434782608695</v>
-      </c>
-      <c r="AA16">
-        <v>0.4773043478260869</v>
-      </c>
-      <c r="AB16">
-        <v>0.5035652173913043</v>
-      </c>
-      <c r="AC16">
-        <v>0.5298260869565217</v>
-      </c>
-      <c r="AD16">
-        <v>0.5560869565217391</v>
-      </c>
-      <c r="AE16">
-        <v>0.5823478260869566</v>
-      </c>
-      <c r="AF16">
-        <v>0.6086086956521739</v>
-      </c>
-      <c r="AG16">
-        <v>0.6348695652173912</v>
-      </c>
-      <c r="AH16">
-        <v>0.6611304347826087</v>
-      </c>
-      <c r="AI16">
-        <v>0.687391304347826</v>
-      </c>
-      <c r="AJ16">
-        <v>0.7136521739130435</v>
-      </c>
-      <c r="AK16">
-        <v>0.7399130434782608</v>
-      </c>
-      <c r="AL16">
-        <v>0.7661739130434783</v>
-      </c>
-      <c r="AM16">
-        <v>0.7924347826086956</v>
-      </c>
-      <c r="AN16">
-        <v>0.818695652173913</v>
-      </c>
-      <c r="AO16">
-        <v>0.8449565217391305</v>
-      </c>
-      <c r="AP16">
-        <v>0.8712173913043477</v>
-      </c>
-      <c r="AQ16">
-        <v>0.8974782608695651</v>
-      </c>
-      <c r="AR16">
-        <v>0.9237391304347826</v>
-      </c>
-      <c r="AS16">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>193</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0.95</v>
-      </c>
-      <c r="K17">
-        <v>0.95</v>
-      </c>
-      <c r="L17">
-        <v>0.95</v>
-      </c>
-      <c r="M17">
-        <v>0.95</v>
-      </c>
-      <c r="N17">
-        <v>0.95</v>
-      </c>
-      <c r="O17">
-        <v>0.95</v>
-      </c>
-      <c r="P17">
-        <v>0.95</v>
-      </c>
-      <c r="Q17">
-        <v>0.95</v>
-      </c>
-      <c r="R17">
-        <v>0.95</v>
-      </c>
-      <c r="S17">
-        <v>0.95</v>
-      </c>
-      <c r="T17">
-        <v>0.95</v>
-      </c>
-      <c r="U17">
-        <v>0.95</v>
-      </c>
-      <c r="V17">
-        <v>0.95</v>
-      </c>
-      <c r="W17">
-        <v>0.95</v>
-      </c>
-      <c r="X17">
-        <v>0.95</v>
-      </c>
-      <c r="Y17">
-        <v>0.9499999999999998</v>
-      </c>
-      <c r="Z17">
-        <v>0.95</v>
-      </c>
-      <c r="AA17">
-        <v>0.95</v>
-      </c>
-      <c r="AB17">
-        <v>0.95</v>
-      </c>
-      <c r="AC17">
-        <v>0.95</v>
-      </c>
-      <c r="AD17">
-        <v>0.95</v>
-      </c>
-      <c r="AE17">
-        <v>0.95</v>
-      </c>
-      <c r="AF17">
-        <v>0.95</v>
-      </c>
-      <c r="AG17">
-        <v>0.95</v>
-      </c>
-      <c r="AH17">
-        <v>0.95</v>
-      </c>
-      <c r="AI17">
-        <v>0.95</v>
-      </c>
-      <c r="AJ17">
-        <v>0.95</v>
-      </c>
-      <c r="AK17">
-        <v>0.95</v>
-      </c>
-      <c r="AL17">
-        <v>0.95</v>
-      </c>
-      <c r="AM17">
-        <v>0.95</v>
-      </c>
-      <c r="AN17">
-        <v>0.95</v>
-      </c>
-      <c r="AO17">
-        <v>0.95</v>
-      </c>
-      <c r="AP17">
-        <v>0.95</v>
-      </c>
-      <c r="AQ17">
-        <v>0.95</v>
-      </c>
-      <c r="AR17">
-        <v>0.95</v>
-      </c>
-      <c r="AS17">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>257</v>
-      </c>
-      <c r="C18">
-        <v>42</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0.03695652173913043</v>
-      </c>
-      <c r="X18">
-        <v>0.07391304347826086</v>
-      </c>
-      <c r="Y18">
-        <v>0.1108695652173913</v>
-      </c>
-      <c r="Z18">
-        <v>0.1478260869565217</v>
-      </c>
-      <c r="AA18">
-        <v>0.1847826086956522</v>
-      </c>
-      <c r="AB18">
-        <v>0.2217391304347826</v>
-      </c>
-      <c r="AC18">
-        <v>0.258695652173913</v>
-      </c>
-      <c r="AD18">
-        <v>0.2956521739130434</v>
-      </c>
-      <c r="AE18">
-        <v>0.3326086956521739</v>
-      </c>
-      <c r="AF18">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AG18">
-        <v>0.4065217391304348</v>
-      </c>
-      <c r="AH18">
-        <v>0.4434782608695652</v>
-      </c>
-      <c r="AI18">
-        <v>0.4804347826086956</v>
-      </c>
-      <c r="AJ18">
-        <v>0.5173913043478261</v>
-      </c>
-      <c r="AK18">
-        <v>0.5543478260869565</v>
-      </c>
-      <c r="AL18">
-        <v>0.5913043478260869</v>
-      </c>
-      <c r="AM18">
-        <v>0.6282608695652173</v>
-      </c>
-      <c r="AN18">
-        <v>0.6652173913043479</v>
-      </c>
-      <c r="AO18">
-        <v>0.7021739130434782</v>
-      </c>
-      <c r="AP18">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="AQ18">
-        <v>0.7760869565217391</v>
-      </c>
-      <c r="AR18">
-        <v>0.8130434782608695</v>
-      </c>
-      <c r="AS18">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19">
-        <v>42</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0.03695652173913043</v>
-      </c>
-      <c r="X19">
-        <v>0.07391304347826086</v>
-      </c>
-      <c r="Y19">
-        <v>0.1108695652173913</v>
-      </c>
-      <c r="Z19">
-        <v>0.1478260869565217</v>
-      </c>
-      <c r="AA19">
-        <v>0.1847826086956522</v>
-      </c>
-      <c r="AB19">
-        <v>0.2217391304347826</v>
-      </c>
-      <c r="AC19">
-        <v>0.258695652173913</v>
-      </c>
-      <c r="AD19">
-        <v>0.2956521739130434</v>
-      </c>
-      <c r="AE19">
-        <v>0.3326086956521739</v>
-      </c>
-      <c r="AF19">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AG19">
-        <v>0.4065217391304348</v>
-      </c>
-      <c r="AH19">
-        <v>0.4434782608695652</v>
-      </c>
-      <c r="AI19">
-        <v>0.4804347826086956</v>
-      </c>
-      <c r="AJ19">
-        <v>0.5173913043478261</v>
-      </c>
-      <c r="AK19">
-        <v>0.5543478260869565</v>
-      </c>
-      <c r="AL19">
-        <v>0.5913043478260869</v>
-      </c>
-      <c r="AM19">
-        <v>0.6282608695652173</v>
-      </c>
-      <c r="AN19">
-        <v>0.6652173913043479</v>
-      </c>
-      <c r="AO19">
-        <v>0.7021739130434782</v>
-      </c>
-      <c r="AP19">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="AQ19">
-        <v>0.7760869565217391</v>
-      </c>
-      <c r="AR19">
-        <v>0.8130434782608695</v>
-      </c>
-      <c r="AS19">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C20">
-        <v>42</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0.03695652173913043</v>
-      </c>
-      <c r="X20">
-        <v>0.07391304347826086</v>
-      </c>
-      <c r="Y20">
-        <v>0.1108695652173913</v>
-      </c>
-      <c r="Z20">
-        <v>0.1478260869565217</v>
-      </c>
-      <c r="AA20">
-        <v>0.1847826086956522</v>
-      </c>
-      <c r="AB20">
-        <v>0.2217391304347826</v>
-      </c>
-      <c r="AC20">
-        <v>0.258695652173913</v>
-      </c>
-      <c r="AD20">
-        <v>0.2956521739130434</v>
-      </c>
-      <c r="AE20">
-        <v>0.3326086956521739</v>
-      </c>
-      <c r="AF20">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AG20">
-        <v>0.4065217391304348</v>
-      </c>
-      <c r="AH20">
-        <v>0.4434782608695652</v>
-      </c>
-      <c r="AI20">
-        <v>0.4804347826086956</v>
-      </c>
-      <c r="AJ20">
-        <v>0.5173913043478261</v>
-      </c>
-      <c r="AK20">
-        <v>0.5543478260869565</v>
-      </c>
-      <c r="AL20">
-        <v>0.5913043478260869</v>
-      </c>
-      <c r="AM20">
-        <v>0.6282608695652173</v>
-      </c>
-      <c r="AN20">
-        <v>0.6652173913043479</v>
-      </c>
-      <c r="AO20">
-        <v>0.7021739130434782</v>
-      </c>
-      <c r="AP20">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="AQ20">
-        <v>0.7760869565217391</v>
-      </c>
-      <c r="AR20">
-        <v>0.8130434782608695</v>
-      </c>
-      <c r="AS20">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>260</v>
-      </c>
-      <c r="C21">
-        <v>42</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0.03695652173913043</v>
-      </c>
-      <c r="X21">
-        <v>0.07391304347826086</v>
-      </c>
-      <c r="Y21">
-        <v>0.1108695652173913</v>
-      </c>
-      <c r="Z21">
-        <v>0.1478260869565217</v>
-      </c>
-      <c r="AA21">
-        <v>0.1847826086956522</v>
-      </c>
-      <c r="AB21">
-        <v>0.2217391304347826</v>
-      </c>
-      <c r="AC21">
-        <v>0.258695652173913</v>
-      </c>
-      <c r="AD21">
-        <v>0.2956521739130434</v>
-      </c>
-      <c r="AE21">
-        <v>0.3326086956521739</v>
-      </c>
-      <c r="AF21">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AG21">
-        <v>0.4065217391304348</v>
-      </c>
-      <c r="AH21">
-        <v>0.4434782608695652</v>
-      </c>
-      <c r="AI21">
-        <v>0.4804347826086956</v>
-      </c>
-      <c r="AJ21">
-        <v>0.5173913043478261</v>
-      </c>
-      <c r="AK21">
-        <v>0.5543478260869565</v>
-      </c>
-      <c r="AL21">
-        <v>0.5913043478260869</v>
-      </c>
-      <c r="AM21">
-        <v>0.6282608695652173</v>
-      </c>
-      <c r="AN21">
-        <v>0.6652173913043479</v>
-      </c>
-      <c r="AO21">
-        <v>0.7021739130434782</v>
-      </c>
-      <c r="AP21">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="AQ21">
-        <v>0.7760869565217391</v>
-      </c>
-      <c r="AR21">
-        <v>0.8130434782608695</v>
-      </c>
-      <c r="AS21">
-        <v>0.85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2">
-        <v>43</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0.02</v>
-      </c>
-      <c r="K2">
-        <v>0.02</v>
-      </c>
-      <c r="L2">
-        <v>0.02</v>
-      </c>
-      <c r="M2">
-        <v>0.02</v>
-      </c>
-      <c r="N2">
-        <v>0.02</v>
-      </c>
-      <c r="O2">
-        <v>0.02</v>
-      </c>
-      <c r="P2">
-        <v>0.02</v>
-      </c>
-      <c r="Q2">
-        <v>0.02</v>
-      </c>
-      <c r="R2">
-        <v>0.02</v>
-      </c>
-      <c r="S2">
-        <v>0.02</v>
-      </c>
-      <c r="T2">
-        <v>0.02</v>
-      </c>
-      <c r="U2">
-        <v>0.02</v>
-      </c>
-      <c r="V2">
-        <v>0.02</v>
-      </c>
-      <c r="W2">
-        <v>0.02945652173913044</v>
-      </c>
-      <c r="X2">
-        <v>0.03891304347826087</v>
-      </c>
-      <c r="Y2">
-        <v>0.0483695652173913</v>
-      </c>
-      <c r="Z2">
-        <v>0.05782608695652174</v>
-      </c>
-      <c r="AA2">
-        <v>0.06728260869565217</v>
-      </c>
-      <c r="AB2">
-        <v>0.0767391304347826</v>
-      </c>
-      <c r="AC2">
-        <v>0.08619565217391305</v>
-      </c>
-      <c r="AD2">
-        <v>0.09565217391304348</v>
-      </c>
-      <c r="AE2">
-        <v>0.1051086956521739</v>
-      </c>
-      <c r="AF2">
-        <v>0.1145652173913043</v>
-      </c>
-      <c r="AG2">
-        <v>0.1240217391304348</v>
-      </c>
-      <c r="AH2">
-        <v>0.1334782608695652</v>
-      </c>
-      <c r="AI2">
-        <v>0.1429347826086956</v>
-      </c>
-      <c r="AJ2">
-        <v>0.1523913043478261</v>
-      </c>
-      <c r="AK2">
-        <v>0.1618478260869565</v>
-      </c>
-      <c r="AL2">
-        <v>0.1713043478260869</v>
-      </c>
-      <c r="AM2">
-        <v>0.1807608695652174</v>
-      </c>
-      <c r="AN2">
-        <v>0.1902173913043478</v>
-      </c>
-      <c r="AO2">
-        <v>0.1996739130434783</v>
-      </c>
-      <c r="AP2">
-        <v>0.2091304347826087</v>
-      </c>
-      <c r="AQ2">
-        <v>0.2185869565217391</v>
-      </c>
-      <c r="AR2">
-        <v>0.2280434782608696</v>
-      </c>
-      <c r="AS2">
-        <v>0.2375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3">
-        <v>43</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0.4</v>
-      </c>
-      <c r="K3">
-        <v>0.4</v>
-      </c>
-      <c r="L3">
-        <v>0.4</v>
-      </c>
-      <c r="M3">
-        <v>0.4</v>
-      </c>
-      <c r="N3">
-        <v>0.4</v>
-      </c>
-      <c r="O3">
-        <v>0.4</v>
-      </c>
-      <c r="P3">
-        <v>0.4</v>
-      </c>
-      <c r="Q3">
-        <v>0.4</v>
-      </c>
-      <c r="R3">
-        <v>0.4</v>
-      </c>
-      <c r="S3">
-        <v>0.4</v>
-      </c>
-      <c r="T3">
-        <v>0.4</v>
-      </c>
-      <c r="U3">
-        <v>0.4</v>
-      </c>
-      <c r="V3">
-        <v>0.4</v>
-      </c>
-      <c r="W3">
-        <v>0.4</v>
-      </c>
-      <c r="X3">
-        <v>0.4000000000000001</v>
-      </c>
-      <c r="Y3">
-        <v>0.4</v>
-      </c>
-      <c r="Z3">
-        <v>0.4</v>
-      </c>
-      <c r="AA3">
-        <v>0.4</v>
-      </c>
-      <c r="AB3">
-        <v>0.4</v>
-      </c>
-      <c r="AC3">
-        <v>0.4</v>
-      </c>
-      <c r="AD3">
-        <v>0.4</v>
-      </c>
-      <c r="AE3">
-        <v>0.4</v>
-      </c>
-      <c r="AF3">
-        <v>0.4</v>
-      </c>
-      <c r="AG3">
-        <v>0.4</v>
-      </c>
-      <c r="AH3">
-        <v>0.4</v>
-      </c>
-      <c r="AI3">
-        <v>0.4</v>
-      </c>
-      <c r="AJ3">
-        <v>0.4</v>
-      </c>
-      <c r="AK3">
-        <v>0.4</v>
-      </c>
-      <c r="AL3">
-        <v>0.4</v>
-      </c>
-      <c r="AM3">
-        <v>0.4</v>
-      </c>
-      <c r="AN3">
-        <v>0.4</v>
-      </c>
-      <c r="AO3">
-        <v>0.4</v>
-      </c>
-      <c r="AP3">
-        <v>0.4</v>
-      </c>
-      <c r="AQ3">
-        <v>0.4</v>
-      </c>
-      <c r="AR3">
-        <v>0.4</v>
-      </c>
-      <c r="AS3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4">
-        <v>43</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0.02</v>
-      </c>
-      <c r="K4">
-        <v>0.02</v>
-      </c>
-      <c r="L4">
-        <v>0.02</v>
-      </c>
-      <c r="M4">
-        <v>0.02</v>
-      </c>
-      <c r="N4">
-        <v>0.02</v>
-      </c>
-      <c r="O4">
-        <v>0.02</v>
-      </c>
-      <c r="P4">
-        <v>0.02</v>
-      </c>
-      <c r="Q4">
-        <v>0.02</v>
-      </c>
-      <c r="R4">
-        <v>0.02</v>
-      </c>
-      <c r="S4">
-        <v>0.02</v>
-      </c>
-      <c r="T4">
-        <v>0.02</v>
-      </c>
-      <c r="U4">
-        <v>0.02</v>
-      </c>
-      <c r="V4">
-        <v>0.02</v>
-      </c>
-      <c r="W4">
-        <v>0.02945652173913044</v>
-      </c>
-      <c r="X4">
-        <v>0.03891304347826087</v>
-      </c>
-      <c r="Y4">
-        <v>0.0483695652173913</v>
-      </c>
-      <c r="Z4">
-        <v>0.05782608695652174</v>
-      </c>
-      <c r="AA4">
-        <v>0.06728260869565217</v>
-      </c>
-      <c r="AB4">
-        <v>0.0767391304347826</v>
-      </c>
-      <c r="AC4">
-        <v>0.08619565217391305</v>
-      </c>
-      <c r="AD4">
-        <v>0.09565217391304348</v>
-      </c>
-      <c r="AE4">
-        <v>0.1051086956521739</v>
-      </c>
-      <c r="AF4">
-        <v>0.1145652173913043</v>
-      </c>
-      <c r="AG4">
-        <v>0.1240217391304348</v>
-      </c>
-      <c r="AH4">
-        <v>0.1334782608695652</v>
-      </c>
-      <c r="AI4">
-        <v>0.1429347826086956</v>
-      </c>
-      <c r="AJ4">
-        <v>0.1523913043478261</v>
-      </c>
-      <c r="AK4">
-        <v>0.1618478260869565</v>
-      </c>
-      <c r="AL4">
-        <v>0.1713043478260869</v>
-      </c>
-      <c r="AM4">
-        <v>0.1807608695652174</v>
-      </c>
-      <c r="AN4">
-        <v>0.1902173913043478</v>
-      </c>
-      <c r="AO4">
-        <v>0.1996739130434783</v>
-      </c>
-      <c r="AP4">
-        <v>0.2091304347826087</v>
-      </c>
-      <c r="AQ4">
-        <v>0.2185869565217391</v>
-      </c>
-      <c r="AR4">
-        <v>0.2280434782608696</v>
-      </c>
-      <c r="AS4">
-        <v>0.2375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5">
-        <v>43</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="K5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="L5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="M5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="N5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="O5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="P5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="Q5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="R5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="S5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="T5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="U5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="V5">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="W5">
-        <v>0.04634614461668615</v>
-      </c>
-      <c r="X5">
-        <v>0.0550349562250186</v>
-      </c>
-      <c r="Y5">
-        <v>0.06372376783335104</v>
-      </c>
-      <c r="Z5">
-        <v>0.07241257944168349</v>
-      </c>
-      <c r="AA5">
-        <v>0.08110139105001593</v>
-      </c>
-      <c r="AB5">
-        <v>0.08979020265834839</v>
-      </c>
-      <c r="AC5">
-        <v>0.09847901426668083</v>
-      </c>
-      <c r="AD5">
-        <v>0.1071678258750133</v>
-      </c>
-      <c r="AE5">
-        <v>0.1158566374833457</v>
-      </c>
-      <c r="AF5">
-        <v>0.1245454490916782</v>
-      </c>
-      <c r="AG5">
-        <v>0.1332342607000106</v>
-      </c>
-      <c r="AH5">
-        <v>0.1419230723083431</v>
-      </c>
-      <c r="AI5">
-        <v>0.1506118839166755</v>
-      </c>
-      <c r="AJ5">
-        <v>0.159300695525008</v>
-      </c>
-      <c r="AK5">
-        <v>0.1679895071333404</v>
-      </c>
-      <c r="AL5">
-        <v>0.1766783187416729</v>
-      </c>
-      <c r="AM5">
-        <v>0.1853671303500053</v>
-      </c>
-      <c r="AN5">
-        <v>0.1940559419583378</v>
-      </c>
-      <c r="AO5">
-        <v>0.2027447535666702</v>
-      </c>
-      <c r="AP5">
-        <v>0.2114335651750026</v>
-      </c>
-      <c r="AQ5">
-        <v>0.2201223767833351</v>
-      </c>
-      <c r="AR5">
-        <v>0.2288111883916675</v>
-      </c>
-      <c r="AS5">
-        <v>0.2375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6">
-        <v>43</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="K6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="L6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="M6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="N6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="O6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="P6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="Q6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="R6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="S6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="T6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="U6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="V6">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="W6">
-        <v>0.04634614461668615</v>
-      </c>
-      <c r="X6">
-        <v>0.0550349562250186</v>
-      </c>
-      <c r="Y6">
-        <v>0.06372376783335104</v>
-      </c>
-      <c r="Z6">
-        <v>0.07241257944168349</v>
-      </c>
-      <c r="AA6">
-        <v>0.08110139105001593</v>
-      </c>
-      <c r="AB6">
-        <v>0.08979020265834839</v>
-      </c>
-      <c r="AC6">
-        <v>0.09847901426668083</v>
-      </c>
-      <c r="AD6">
-        <v>0.1071678258750133</v>
-      </c>
-      <c r="AE6">
-        <v>0.1158566374833457</v>
-      </c>
-      <c r="AF6">
-        <v>0.1245454490916782</v>
-      </c>
-      <c r="AG6">
-        <v>0.1332342607000106</v>
-      </c>
-      <c r="AH6">
-        <v>0.1419230723083431</v>
-      </c>
-      <c r="AI6">
-        <v>0.1506118839166755</v>
-      </c>
-      <c r="AJ6">
-        <v>0.159300695525008</v>
-      </c>
-      <c r="AK6">
-        <v>0.1679895071333404</v>
-      </c>
-      <c r="AL6">
-        <v>0.1766783187416729</v>
-      </c>
-      <c r="AM6">
-        <v>0.1853671303500053</v>
-      </c>
-      <c r="AN6">
-        <v>0.1940559419583378</v>
-      </c>
-      <c r="AO6">
-        <v>0.2027447535666702</v>
-      </c>
-      <c r="AP6">
-        <v>0.2114335651750026</v>
-      </c>
-      <c r="AQ6">
-        <v>0.2201223767833351</v>
-      </c>
-      <c r="AR6">
-        <v>0.2288111883916675</v>
-      </c>
-      <c r="AS6">
-        <v>0.2375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7">
-        <v>43</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="K7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="L7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="M7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="N7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="O7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="P7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="Q7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="R7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="S7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="T7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="U7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="V7">
-        <v>0.0376573330083537</v>
-      </c>
-      <c r="W7">
-        <v>0.04634614461668615</v>
-      </c>
-      <c r="X7">
-        <v>0.0550349562250186</v>
-      </c>
-      <c r="Y7">
-        <v>0.06372376783335104</v>
-      </c>
-      <c r="Z7">
-        <v>0.07241257944168349</v>
-      </c>
-      <c r="AA7">
-        <v>0.08110139105001593</v>
-      </c>
-      <c r="AB7">
-        <v>0.08979020265834839</v>
-      </c>
-      <c r="AC7">
-        <v>0.09847901426668083</v>
-      </c>
-      <c r="AD7">
-        <v>0.1071678258750133</v>
-      </c>
-      <c r="AE7">
-        <v>0.1158566374833457</v>
-      </c>
-      <c r="AF7">
-        <v>0.1245454490916782</v>
-      </c>
-      <c r="AG7">
-        <v>0.1332342607000106</v>
-      </c>
-      <c r="AH7">
-        <v>0.1419230723083431</v>
-      </c>
-      <c r="AI7">
-        <v>0.1506118839166755</v>
-      </c>
-      <c r="AJ7">
-        <v>0.159300695525008</v>
-      </c>
-      <c r="AK7">
-        <v>0.1679895071333404</v>
-      </c>
-      <c r="AL7">
-        <v>0.1766783187416729</v>
-      </c>
-      <c r="AM7">
-        <v>0.1853671303500053</v>
-      </c>
-      <c r="AN7">
-        <v>0.1940559419583378</v>
-      </c>
-      <c r="AO7">
-        <v>0.2027447535666702</v>
-      </c>
-      <c r="AP7">
-        <v>0.2114335651750026</v>
-      </c>
-      <c r="AQ7">
-        <v>0.2201223767833351</v>
-      </c>
-      <c r="AR7">
-        <v>0.2288111883916675</v>
-      </c>
-      <c r="AS7">
-        <v>0.2375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="K8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="L8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="M8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="N8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="O8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="P8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="Q8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="R8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="S8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="T8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="U8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="V8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="W8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="X8">
-        <v>0.9968985947472471</v>
-      </c>
-      <c r="Y8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="Z8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AA8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AB8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AC8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AD8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AE8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AF8">
-        <v>0.9968985947472471</v>
-      </c>
-      <c r="AG8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AH8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AI8">
-        <v>0.9968985947472471</v>
-      </c>
-      <c r="AJ8">
-        <v>0.9968985947472468</v>
-      </c>
-      <c r="AK8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AL8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AM8">
-        <v>0.9968985947472471</v>
-      </c>
-      <c r="AN8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AO8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AP8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AQ8">
-        <v>0.9968985947472471</v>
-      </c>
-      <c r="AR8">
-        <v>0.996898594747247</v>
-      </c>
-      <c r="AS8">
-        <v>0.996898594747247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9">
-        <v>44</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0.01847826086956521</v>
-      </c>
-      <c r="X9">
-        <v>0.03695652173913043</v>
-      </c>
-      <c r="Y9">
-        <v>0.05543478260869565</v>
-      </c>
-      <c r="Z9">
-        <v>0.07391304347826086</v>
-      </c>
-      <c r="AA9">
-        <v>0.09239130434782608</v>
-      </c>
-      <c r="AB9">
-        <v>0.1108695652173913</v>
-      </c>
-      <c r="AC9">
-        <v>0.1293478260869565</v>
-      </c>
-      <c r="AD9">
-        <v>0.1478260869565217</v>
-      </c>
-      <c r="AE9">
-        <v>0.166304347826087</v>
-      </c>
-      <c r="AF9">
-        <v>0.1847826086956522</v>
-      </c>
-      <c r="AG9">
-        <v>0.2032608695652174</v>
-      </c>
-      <c r="AH9">
-        <v>0.2217391304347826</v>
-      </c>
-      <c r="AI9">
-        <v>0.2402173913043478</v>
-      </c>
-      <c r="AJ9">
-        <v>0.258695652173913</v>
-      </c>
-      <c r="AK9">
-        <v>0.2771739130434783</v>
-      </c>
-      <c r="AL9">
-        <v>0.2956521739130434</v>
-      </c>
-      <c r="AM9">
-        <v>0.3141304347826087</v>
-      </c>
-      <c r="AN9">
-        <v>0.3326086956521739</v>
-      </c>
-      <c r="AO9">
-        <v>0.3510869565217391</v>
-      </c>
-      <c r="AP9">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AQ9">
-        <v>0.3880434782608695</v>
-      </c>
-      <c r="AR9">
-        <v>0.4065217391304348</v>
-      </c>
-      <c r="AS9">
-        <v>0.425</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10">
-        <v>45</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0.346</v>
-      </c>
-      <c r="K10">
-        <v>0.346</v>
-      </c>
-      <c r="L10">
-        <v>0.346</v>
-      </c>
-      <c r="M10">
-        <v>0.346</v>
-      </c>
-      <c r="N10">
-        <v>0.346</v>
-      </c>
-      <c r="O10">
-        <v>0.346</v>
-      </c>
-      <c r="P10">
-        <v>0.346</v>
-      </c>
-      <c r="Q10">
-        <v>0.346</v>
-      </c>
-      <c r="R10">
-        <v>0.346</v>
-      </c>
-      <c r="S10">
-        <v>0.346</v>
-      </c>
-      <c r="T10">
-        <v>0.346</v>
-      </c>
-      <c r="U10">
-        <v>0.346</v>
-      </c>
-      <c r="V10">
-        <v>0.346</v>
-      </c>
-      <c r="W10">
-        <v>0.3516086956521739</v>
-      </c>
-      <c r="X10">
-        <v>0.3572173913043478</v>
-      </c>
-      <c r="Y10">
-        <v>0.3628260869565217</v>
-      </c>
-      <c r="Z10">
-        <v>0.3684347826086957</v>
-      </c>
-      <c r="AA10">
-        <v>0.3740434782608696</v>
-      </c>
-      <c r="AB10">
-        <v>0.3796521739130435</v>
-      </c>
-      <c r="AC10">
-        <v>0.3852608695652173</v>
-      </c>
-      <c r="AD10">
-        <v>0.3908695652173912</v>
-      </c>
-      <c r="AE10">
-        <v>0.3964782608695652</v>
-      </c>
-      <c r="AF10">
-        <v>0.4020869565217391</v>
-      </c>
-      <c r="AG10">
-        <v>0.407695652173913</v>
-      </c>
-      <c r="AH10">
-        <v>0.4133043478260869</v>
-      </c>
-      <c r="AI10">
-        <v>0.4189130434782609</v>
-      </c>
-      <c r="AJ10">
-        <v>0.4245217391304348</v>
-      </c>
-      <c r="AK10">
-        <v>0.4301304347826087</v>
-      </c>
-      <c r="AL10">
-        <v>0.4357391304347826</v>
-      </c>
-      <c r="AM10">
-        <v>0.4413478260869565</v>
-      </c>
-      <c r="AN10">
-        <v>0.4469565217391304</v>
-      </c>
-      <c r="AO10">
-        <v>0.4525652173913043</v>
-      </c>
-      <c r="AP10">
-        <v>0.4581739130434782</v>
-      </c>
-      <c r="AQ10">
-        <v>0.4637826086956521</v>
-      </c>
-      <c r="AR10">
-        <v>0.4693913043478261</v>
-      </c>
-      <c r="AS10">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11">
-        <v>45</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0.346</v>
-      </c>
-      <c r="K11">
-        <v>0.346</v>
-      </c>
-      <c r="L11">
-        <v>0.346</v>
-      </c>
-      <c r="M11">
-        <v>0.346</v>
-      </c>
-      <c r="N11">
-        <v>0.346</v>
-      </c>
-      <c r="O11">
-        <v>0.346</v>
-      </c>
-      <c r="P11">
-        <v>0.346</v>
-      </c>
-      <c r="Q11">
-        <v>0.346</v>
-      </c>
-      <c r="R11">
-        <v>0.346</v>
-      </c>
-      <c r="S11">
-        <v>0.346</v>
-      </c>
-      <c r="T11">
-        <v>0.346</v>
-      </c>
-      <c r="U11">
-        <v>0.346</v>
-      </c>
-      <c r="V11">
-        <v>0.346</v>
-      </c>
-      <c r="W11">
-        <v>0.3516086956521739</v>
-      </c>
-      <c r="X11">
-        <v>0.3572173913043478</v>
-      </c>
-      <c r="Y11">
-        <v>0.3628260869565217</v>
-      </c>
-      <c r="Z11">
-        <v>0.3684347826086957</v>
-      </c>
-      <c r="AA11">
-        <v>0.3740434782608696</v>
-      </c>
-      <c r="AB11">
-        <v>0.3796521739130435</v>
-      </c>
-      <c r="AC11">
-        <v>0.3852608695652173</v>
-      </c>
-      <c r="AD11">
-        <v>0.3908695652173912</v>
-      </c>
-      <c r="AE11">
-        <v>0.3964782608695652</v>
-      </c>
-      <c r="AF11">
-        <v>0.4020869565217391</v>
-      </c>
-      <c r="AG11">
-        <v>0.407695652173913</v>
-      </c>
-      <c r="AH11">
-        <v>0.4133043478260869</v>
-      </c>
-      <c r="AI11">
-        <v>0.4189130434782609</v>
-      </c>
-      <c r="AJ11">
-        <v>0.4245217391304348</v>
-      </c>
-      <c r="AK11">
-        <v>0.4301304347826087</v>
-      </c>
-      <c r="AL11">
-        <v>0.4357391304347826</v>
-      </c>
-      <c r="AM11">
-        <v>0.4413478260869565</v>
-      </c>
-      <c r="AN11">
-        <v>0.4469565217391304</v>
-      </c>
-      <c r="AO11">
-        <v>0.4525652173913043</v>
-      </c>
-      <c r="AP11">
-        <v>0.4581739130434782</v>
-      </c>
-      <c r="AQ11">
-        <v>0.4637826086956521</v>
-      </c>
-      <c r="AR11">
-        <v>0.4693913043478261</v>
-      </c>
-      <c r="AS11">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12">
-        <v>45</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0.346</v>
-      </c>
-      <c r="K12">
-        <v>0.346</v>
-      </c>
-      <c r="L12">
-        <v>0.346</v>
-      </c>
-      <c r="M12">
-        <v>0.346</v>
-      </c>
-      <c r="N12">
-        <v>0.346</v>
-      </c>
-      <c r="O12">
-        <v>0.346</v>
-      </c>
-      <c r="P12">
-        <v>0.346</v>
-      </c>
-      <c r="Q12">
-        <v>0.346</v>
-      </c>
-      <c r="R12">
-        <v>0.346</v>
-      </c>
-      <c r="S12">
-        <v>0.346</v>
-      </c>
-      <c r="T12">
-        <v>0.346</v>
-      </c>
-      <c r="U12">
-        <v>0.346</v>
-      </c>
-      <c r="V12">
-        <v>0.346</v>
-      </c>
-      <c r="W12">
-        <v>0.3516086956521739</v>
-      </c>
-      <c r="X12">
-        <v>0.3572173913043478</v>
-      </c>
-      <c r="Y12">
-        <v>0.3628260869565217</v>
-      </c>
-      <c r="Z12">
-        <v>0.3684347826086957</v>
-      </c>
-      <c r="AA12">
-        <v>0.3740434782608696</v>
-      </c>
-      <c r="AB12">
-        <v>0.3796521739130435</v>
-      </c>
-      <c r="AC12">
-        <v>0.3852608695652173</v>
-      </c>
-      <c r="AD12">
-        <v>0.3908695652173912</v>
-      </c>
-      <c r="AE12">
-        <v>0.3964782608695652</v>
-      </c>
-      <c r="AF12">
-        <v>0.4020869565217391</v>
-      </c>
-      <c r="AG12">
-        <v>0.407695652173913</v>
-      </c>
-      <c r="AH12">
-        <v>0.4133043478260869</v>
-      </c>
-      <c r="AI12">
-        <v>0.4189130434782609</v>
-      </c>
-      <c r="AJ12">
-        <v>0.4245217391304348</v>
-      </c>
-      <c r="AK12">
-        <v>0.4301304347826087</v>
-      </c>
-      <c r="AL12">
-        <v>0.4357391304347826</v>
-      </c>
-      <c r="AM12">
-        <v>0.4413478260869565</v>
-      </c>
-      <c r="AN12">
-        <v>0.4469565217391304</v>
-      </c>
-      <c r="AO12">
-        <v>0.4525652173913043</v>
-      </c>
-      <c r="AP12">
-        <v>0.4581739130434782</v>
-      </c>
-      <c r="AQ12">
-        <v>0.4637826086956521</v>
-      </c>
-      <c r="AR12">
-        <v>0.4693913043478261</v>
-      </c>
-      <c r="AS12">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13">
-        <v>45</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0.346</v>
-      </c>
-      <c r="K13">
-        <v>0.346</v>
-      </c>
-      <c r="L13">
-        <v>0.346</v>
-      </c>
-      <c r="M13">
-        <v>0.346</v>
-      </c>
-      <c r="N13">
-        <v>0.346</v>
-      </c>
-      <c r="O13">
-        <v>0.346</v>
-      </c>
-      <c r="P13">
-        <v>0.346</v>
-      </c>
-      <c r="Q13">
-        <v>0.346</v>
-      </c>
-      <c r="R13">
-        <v>0.346</v>
-      </c>
-      <c r="S13">
-        <v>0.346</v>
-      </c>
-      <c r="T13">
-        <v>0.346</v>
-      </c>
-      <c r="U13">
-        <v>0.346</v>
-      </c>
-      <c r="V13">
-        <v>0.346</v>
-      </c>
-      <c r="W13">
-        <v>0.3516086956521739</v>
-      </c>
-      <c r="X13">
-        <v>0.3572173913043478</v>
-      </c>
-      <c r="Y13">
-        <v>0.3628260869565217</v>
-      </c>
-      <c r="Z13">
-        <v>0.3684347826086957</v>
-      </c>
-      <c r="AA13">
-        <v>0.3740434782608696</v>
-      </c>
-      <c r="AB13">
-        <v>0.3796521739130435</v>
-      </c>
-      <c r="AC13">
-        <v>0.3852608695652173</v>
-      </c>
-      <c r="AD13">
-        <v>0.3908695652173912</v>
-      </c>
-      <c r="AE13">
-        <v>0.3964782608695652</v>
-      </c>
-      <c r="AF13">
-        <v>0.4020869565217391</v>
-      </c>
-      <c r="AG13">
-        <v>0.407695652173913</v>
-      </c>
-      <c r="AH13">
-        <v>0.4133043478260869</v>
-      </c>
-      <c r="AI13">
-        <v>0.4189130434782609</v>
-      </c>
-      <c r="AJ13">
-        <v>0.4245217391304348</v>
-      </c>
-      <c r="AK13">
-        <v>0.4301304347826087</v>
-      </c>
-      <c r="AL13">
-        <v>0.4357391304347826</v>
-      </c>
-      <c r="AM13">
-        <v>0.4413478260869565</v>
-      </c>
-      <c r="AN13">
-        <v>0.4469565217391304</v>
-      </c>
-      <c r="AO13">
-        <v>0.4525652173913043</v>
-      </c>
-      <c r="AP13">
-        <v>0.4581739130434782</v>
-      </c>
-      <c r="AQ13">
-        <v>0.4637826086956521</v>
-      </c>
-      <c r="AR13">
-        <v>0.4693913043478261</v>
-      </c>
-      <c r="AS13">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14">
-        <v>45</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0.346</v>
-      </c>
-      <c r="K14">
-        <v>0.346</v>
-      </c>
-      <c r="L14">
-        <v>0.346</v>
-      </c>
-      <c r="M14">
-        <v>0.346</v>
-      </c>
-      <c r="N14">
-        <v>0.346</v>
-      </c>
-      <c r="O14">
-        <v>0.346</v>
-      </c>
-      <c r="P14">
-        <v>0.346</v>
-      </c>
-      <c r="Q14">
-        <v>0.346</v>
-      </c>
-      <c r="R14">
-        <v>0.346</v>
-      </c>
-      <c r="S14">
-        <v>0.346</v>
-      </c>
-      <c r="T14">
-        <v>0.346</v>
-      </c>
-      <c r="U14">
-        <v>0.346</v>
-      </c>
-      <c r="V14">
-        <v>0.346</v>
-      </c>
-      <c r="W14">
-        <v>0.3516086956521739</v>
-      </c>
-      <c r="X14">
-        <v>0.3572173913043478</v>
-      </c>
-      <c r="Y14">
-        <v>0.3628260869565217</v>
-      </c>
-      <c r="Z14">
-        <v>0.3684347826086957</v>
-      </c>
-      <c r="AA14">
-        <v>0.3740434782608696</v>
-      </c>
-      <c r="AB14">
-        <v>0.3796521739130435</v>
-      </c>
-      <c r="AC14">
-        <v>0.3852608695652173</v>
-      </c>
-      <c r="AD14">
-        <v>0.3908695652173912</v>
-      </c>
-      <c r="AE14">
-        <v>0.3964782608695652</v>
-      </c>
-      <c r="AF14">
-        <v>0.4020869565217391</v>
-      </c>
-      <c r="AG14">
-        <v>0.407695652173913</v>
-      </c>
-      <c r="AH14">
-        <v>0.4133043478260869</v>
-      </c>
-      <c r="AI14">
-        <v>0.4189130434782609</v>
-      </c>
-      <c r="AJ14">
-        <v>0.4245217391304348</v>
-      </c>
-      <c r="AK14">
-        <v>0.4301304347826087</v>
-      </c>
-      <c r="AL14">
-        <v>0.4357391304347826</v>
-      </c>
-      <c r="AM14">
-        <v>0.4413478260869565</v>
-      </c>
-      <c r="AN14">
-        <v>0.4469565217391304</v>
-      </c>
-      <c r="AO14">
-        <v>0.4525652173913043</v>
-      </c>
-      <c r="AP14">
-        <v>0.4581739130434782</v>
-      </c>
-      <c r="AQ14">
-        <v>0.4637826086956521</v>
-      </c>
-      <c r="AR14">
-        <v>0.4693913043478261</v>
-      </c>
-      <c r="AS14">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15">
-        <v>45</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0.346</v>
-      </c>
-      <c r="K15">
-        <v>0.346</v>
-      </c>
-      <c r="L15">
-        <v>0.346</v>
-      </c>
-      <c r="M15">
-        <v>0.346</v>
-      </c>
-      <c r="N15">
-        <v>0.346</v>
-      </c>
-      <c r="O15">
-        <v>0.346</v>
-      </c>
-      <c r="P15">
-        <v>0.346</v>
-      </c>
-      <c r="Q15">
-        <v>0.346</v>
-      </c>
-      <c r="R15">
-        <v>0.346</v>
-      </c>
-      <c r="S15">
-        <v>0.346</v>
-      </c>
-      <c r="T15">
-        <v>0.346</v>
-      </c>
-      <c r="U15">
-        <v>0.346</v>
-      </c>
-      <c r="V15">
-        <v>0.346</v>
-      </c>
-      <c r="W15">
-        <v>0.3516086956521739</v>
-      </c>
-      <c r="X15">
-        <v>0.3572173913043478</v>
-      </c>
-      <c r="Y15">
-        <v>0.3628260869565217</v>
-      </c>
-      <c r="Z15">
-        <v>0.3684347826086957</v>
-      </c>
-      <c r="AA15">
-        <v>0.3740434782608696</v>
-      </c>
-      <c r="AB15">
-        <v>0.3796521739130435</v>
-      </c>
-      <c r="AC15">
-        <v>0.3852608695652173</v>
-      </c>
-      <c r="AD15">
-        <v>0.3908695652173912</v>
-      </c>
-      <c r="AE15">
-        <v>0.3964782608695652</v>
-      </c>
-      <c r="AF15">
-        <v>0.4020869565217391</v>
-      </c>
-      <c r="AG15">
-        <v>0.407695652173913</v>
-      </c>
-      <c r="AH15">
-        <v>0.4133043478260869</v>
-      </c>
-      <c r="AI15">
-        <v>0.4189130434782609</v>
-      </c>
-      <c r="AJ15">
-        <v>0.4245217391304348</v>
-      </c>
-      <c r="AK15">
-        <v>0.4301304347826087</v>
-      </c>
-      <c r="AL15">
-        <v>0.4357391304347826</v>
-      </c>
-      <c r="AM15">
-        <v>0.4413478260869565</v>
-      </c>
-      <c r="AN15">
-        <v>0.4469565217391304</v>
-      </c>
-      <c r="AO15">
-        <v>0.4525652173913043</v>
-      </c>
-      <c r="AP15">
-        <v>0.4581739130434782</v>
-      </c>
-      <c r="AQ15">
-        <v>0.4637826086956521</v>
-      </c>
-      <c r="AR15">
-        <v>0.4693913043478261</v>
-      </c>
-      <c r="AS15">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16">
-        <v>45</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0.346</v>
-      </c>
-      <c r="K16">
-        <v>0.346</v>
-      </c>
-      <c r="L16">
-        <v>0.346</v>
-      </c>
-      <c r="M16">
-        <v>0.346</v>
-      </c>
-      <c r="N16">
-        <v>0.346</v>
-      </c>
-      <c r="O16">
-        <v>0.346</v>
-      </c>
-      <c r="P16">
-        <v>0.346</v>
-      </c>
-      <c r="Q16">
-        <v>0.346</v>
-      </c>
-      <c r="R16">
-        <v>0.346</v>
-      </c>
-      <c r="S16">
-        <v>0.346</v>
-      </c>
-      <c r="T16">
-        <v>0.346</v>
-      </c>
-      <c r="U16">
-        <v>0.346</v>
-      </c>
-      <c r="V16">
-        <v>0.346</v>
-      </c>
-      <c r="W16">
-        <v>0.3516086956521739</v>
-      </c>
-      <c r="X16">
-        <v>0.3572173913043478</v>
-      </c>
-      <c r="Y16">
-        <v>0.3628260869565217</v>
-      </c>
-      <c r="Z16">
-        <v>0.3684347826086957</v>
-      </c>
-      <c r="AA16">
-        <v>0.3740434782608696</v>
-      </c>
-      <c r="AB16">
-        <v>0.3796521739130435</v>
-      </c>
-      <c r="AC16">
-        <v>0.3852608695652173</v>
-      </c>
-      <c r="AD16">
-        <v>0.3908695652173912</v>
-      </c>
-      <c r="AE16">
-        <v>0.3964782608695652</v>
-      </c>
-      <c r="AF16">
-        <v>0.4020869565217391</v>
-      </c>
-      <c r="AG16">
-        <v>0.407695652173913</v>
-      </c>
-      <c r="AH16">
-        <v>0.4133043478260869</v>
-      </c>
-      <c r="AI16">
-        <v>0.4189130434782609</v>
-      </c>
-      <c r="AJ16">
-        <v>0.4245217391304348</v>
-      </c>
-      <c r="AK16">
-        <v>0.4301304347826087</v>
-      </c>
-      <c r="AL16">
-        <v>0.4357391304347826</v>
-      </c>
-      <c r="AM16">
-        <v>0.4413478260869565</v>
-      </c>
-      <c r="AN16">
-        <v>0.4469565217391304</v>
-      </c>
-      <c r="AO16">
-        <v>0.4525652173913043</v>
-      </c>
-      <c r="AP16">
-        <v>0.4581739130434782</v>
-      </c>
-      <c r="AQ16">
-        <v>0.4637826086956521</v>
-      </c>
-      <c r="AR16">
-        <v>0.4693913043478261</v>
-      </c>
-      <c r="AS16">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>193</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0.95</v>
-      </c>
-      <c r="K17">
-        <v>0.95</v>
-      </c>
-      <c r="L17">
-        <v>0.95</v>
-      </c>
-      <c r="M17">
-        <v>0.95</v>
-      </c>
-      <c r="N17">
-        <v>0.95</v>
-      </c>
-      <c r="O17">
-        <v>0.95</v>
-      </c>
-      <c r="P17">
-        <v>0.95</v>
-      </c>
-      <c r="Q17">
-        <v>0.95</v>
-      </c>
-      <c r="R17">
-        <v>0.95</v>
-      </c>
-      <c r="S17">
-        <v>0.95</v>
-      </c>
-      <c r="T17">
-        <v>0.95</v>
-      </c>
-      <c r="U17">
-        <v>0.95</v>
-      </c>
-      <c r="V17">
-        <v>0.95</v>
-      </c>
-      <c r="W17">
-        <v>0.95</v>
-      </c>
-      <c r="X17">
-        <v>0.95</v>
-      </c>
-      <c r="Y17">
-        <v>0.9499999999999998</v>
-      </c>
-      <c r="Z17">
-        <v>0.95</v>
-      </c>
-      <c r="AA17">
-        <v>0.95</v>
-      </c>
-      <c r="AB17">
-        <v>0.95</v>
-      </c>
-      <c r="AC17">
-        <v>0.95</v>
-      </c>
-      <c r="AD17">
-        <v>0.95</v>
-      </c>
-      <c r="AE17">
-        <v>0.95</v>
-      </c>
-      <c r="AF17">
-        <v>0.95</v>
-      </c>
-      <c r="AG17">
-        <v>0.95</v>
-      </c>
-      <c r="AH17">
-        <v>0.95</v>
-      </c>
-      <c r="AI17">
-        <v>0.95</v>
-      </c>
-      <c r="AJ17">
-        <v>0.95</v>
-      </c>
-      <c r="AK17">
-        <v>0.95</v>
-      </c>
-      <c r="AL17">
-        <v>0.95</v>
-      </c>
-      <c r="AM17">
-        <v>0.95</v>
-      </c>
-      <c r="AN17">
-        <v>0.95</v>
-      </c>
-      <c r="AO17">
-        <v>0.95</v>
-      </c>
-      <c r="AP17">
-        <v>0.95</v>
-      </c>
-      <c r="AQ17">
-        <v>0.95</v>
-      </c>
-      <c r="AR17">
-        <v>0.95</v>
-      </c>
-      <c r="AS17">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>257</v>
-      </c>
-      <c r="C18">
-        <v>42</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0.01847826086956521</v>
-      </c>
-      <c r="X18">
-        <v>0.03695652173913043</v>
-      </c>
-      <c r="Y18">
-        <v>0.05543478260869565</v>
-      </c>
-      <c r="Z18">
-        <v>0.07391304347826086</v>
-      </c>
-      <c r="AA18">
-        <v>0.09239130434782608</v>
-      </c>
-      <c r="AB18">
-        <v>0.1108695652173913</v>
-      </c>
-      <c r="AC18">
-        <v>0.1293478260869565</v>
-      </c>
-      <c r="AD18">
-        <v>0.1478260869565217</v>
-      </c>
-      <c r="AE18">
-        <v>0.166304347826087</v>
-      </c>
-      <c r="AF18">
-        <v>0.1847826086956522</v>
-      </c>
-      <c r="AG18">
-        <v>0.2032608695652174</v>
-      </c>
-      <c r="AH18">
-        <v>0.2217391304347826</v>
-      </c>
-      <c r="AI18">
-        <v>0.2402173913043478</v>
-      </c>
-      <c r="AJ18">
-        <v>0.258695652173913</v>
-      </c>
-      <c r="AK18">
-        <v>0.2771739130434783</v>
-      </c>
-      <c r="AL18">
-        <v>0.2956521739130434</v>
-      </c>
-      <c r="AM18">
-        <v>0.3141304347826087</v>
-      </c>
-      <c r="AN18">
-        <v>0.3326086956521739</v>
-      </c>
-      <c r="AO18">
-        <v>0.3510869565217391</v>
-      </c>
-      <c r="AP18">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AQ18">
-        <v>0.3880434782608695</v>
-      </c>
-      <c r="AR18">
-        <v>0.4065217391304348</v>
-      </c>
-      <c r="AS18">
-        <v>0.425</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19">
-        <v>42</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0.01847826086956521</v>
-      </c>
-      <c r="X19">
-        <v>0.03695652173913043</v>
-      </c>
-      <c r="Y19">
-        <v>0.05543478260869565</v>
-      </c>
-      <c r="Z19">
-        <v>0.07391304347826086</v>
-      </c>
-      <c r="AA19">
-        <v>0.09239130434782608</v>
-      </c>
-      <c r="AB19">
-        <v>0.1108695652173913</v>
-      </c>
-      <c r="AC19">
-        <v>0.1293478260869565</v>
-      </c>
-      <c r="AD19">
-        <v>0.1478260869565217</v>
-      </c>
-      <c r="AE19">
-        <v>0.166304347826087</v>
-      </c>
-      <c r="AF19">
-        <v>0.1847826086956522</v>
-      </c>
-      <c r="AG19">
-        <v>0.2032608695652174</v>
-      </c>
-      <c r="AH19">
-        <v>0.2217391304347826</v>
-      </c>
-      <c r="AI19">
-        <v>0.2402173913043478</v>
-      </c>
-      <c r="AJ19">
-        <v>0.258695652173913</v>
-      </c>
-      <c r="AK19">
-        <v>0.2771739130434783</v>
-      </c>
-      <c r="AL19">
-        <v>0.2956521739130434</v>
-      </c>
-      <c r="AM19">
-        <v>0.3141304347826087</v>
-      </c>
-      <c r="AN19">
-        <v>0.3326086956521739</v>
-      </c>
-      <c r="AO19">
-        <v>0.3510869565217391</v>
-      </c>
-      <c r="AP19">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AQ19">
-        <v>0.3880434782608695</v>
-      </c>
-      <c r="AR19">
-        <v>0.4065217391304348</v>
-      </c>
-      <c r="AS19">
-        <v>0.425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C20">
-        <v>42</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0.01847826086956521</v>
-      </c>
-      <c r="X20">
-        <v>0.03695652173913043</v>
-      </c>
-      <c r="Y20">
-        <v>0.05543478260869565</v>
-      </c>
-      <c r="Z20">
-        <v>0.07391304347826086</v>
-      </c>
-      <c r="AA20">
-        <v>0.09239130434782608</v>
-      </c>
-      <c r="AB20">
-        <v>0.1108695652173913</v>
-      </c>
-      <c r="AC20">
-        <v>0.1293478260869565</v>
-      </c>
-      <c r="AD20">
-        <v>0.1478260869565217</v>
-      </c>
-      <c r="AE20">
-        <v>0.166304347826087</v>
-      </c>
-      <c r="AF20">
-        <v>0.1847826086956522</v>
-      </c>
-      <c r="AG20">
-        <v>0.2032608695652174</v>
-      </c>
-      <c r="AH20">
-        <v>0.2217391304347826</v>
-      </c>
-      <c r="AI20">
-        <v>0.2402173913043478</v>
-      </c>
-      <c r="AJ20">
-        <v>0.258695652173913</v>
-      </c>
-      <c r="AK20">
-        <v>0.2771739130434783</v>
-      </c>
-      <c r="AL20">
-        <v>0.2956521739130434</v>
-      </c>
-      <c r="AM20">
-        <v>0.3141304347826087</v>
-      </c>
-      <c r="AN20">
-        <v>0.3326086956521739</v>
-      </c>
-      <c r="AO20">
-        <v>0.3510869565217391</v>
-      </c>
-      <c r="AP20">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AQ20">
-        <v>0.3880434782608695</v>
-      </c>
-      <c r="AR20">
-        <v>0.4065217391304348</v>
-      </c>
-      <c r="AS20">
-        <v>0.425</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>260</v>
-      </c>
-      <c r="C21">
-        <v>42</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0.01847826086956521</v>
-      </c>
-      <c r="X21">
-        <v>0.03695652173913043</v>
-      </c>
-      <c r="Y21">
-        <v>0.05543478260869565</v>
-      </c>
-      <c r="Z21">
-        <v>0.07391304347826086</v>
-      </c>
-      <c r="AA21">
-        <v>0.09239130434782608</v>
-      </c>
-      <c r="AB21">
-        <v>0.1108695652173913</v>
-      </c>
-      <c r="AC21">
-        <v>0.1293478260869565</v>
-      </c>
-      <c r="AD21">
-        <v>0.1478260869565217</v>
-      </c>
-      <c r="AE21">
-        <v>0.166304347826087</v>
-      </c>
-      <c r="AF21">
-        <v>0.1847826086956522</v>
-      </c>
-      <c r="AG21">
-        <v>0.2032608695652174</v>
-      </c>
-      <c r="AH21">
-        <v>0.2217391304347826</v>
-      </c>
-      <c r="AI21">
-        <v>0.2402173913043478</v>
-      </c>
-      <c r="AJ21">
-        <v>0.258695652173913</v>
-      </c>
-      <c r="AK21">
-        <v>0.2771739130434783</v>
-      </c>
-      <c r="AL21">
-        <v>0.2956521739130434</v>
-      </c>
-      <c r="AM21">
-        <v>0.3141304347826087</v>
-      </c>
-      <c r="AN21">
-        <v>0.3326086956521739</v>
-      </c>
-      <c r="AO21">
-        <v>0.3510869565217391</v>
-      </c>
-      <c r="AP21">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="AQ21">
-        <v>0.3880434782608695</v>
-      </c>
-      <c r="AR21">
-        <v>0.4065217391304348</v>
-      </c>
-      <c r="AS21">
-        <v>0.425</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>